--- a/modelos/aluno_mobilidade.xlsx
+++ b/modelos/aluno_mobilidade.xlsx
@@ -47,10 +47,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t xml:space="preserve">0 ­ Nacional 
-1 ­ Internacional </t>
-  </si>
-  <si>
     <t>IES Destino - Mobilidade Acadêmica Nacional</t>
   </si>
   <si>
@@ -74,6 +70,10 @@
   </si>
   <si>
     <t>De onde vieram essas informações?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ­ Nacional 
+2 ­ Internacional </t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -270,9 +270,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,9 +282,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -295,6 +289,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,7 +597,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -614,13 +617,13 @@
         <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>7</v>
@@ -628,65 +631,65 @@
       <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>17</v>
+      <c r="I1" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="38.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>18</v>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="12.75">
       <c r="A5" s="4"/>
@@ -697,7 +700,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="12.75">
       <c r="A6" s="1"/>
@@ -708,7 +711,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="12.75">
       <c r="A7" s="1"/>
@@ -719,7 +722,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="12.75">
       <c r="A8" s="1"/>
@@ -730,7 +733,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="12.75">
       <c r="A9" s="1"/>
@@ -741,7 +744,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="12.75">
       <c r="A10" s="1"/>
@@ -752,7 +755,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="12.75">
       <c r="A11" s="1"/>
@@ -763,7 +766,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="12.75">
       <c r="A12" s="1"/>
@@ -774,7 +777,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="12.75">
       <c r="A13" s="1"/>
@@ -785,7 +788,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="12.75">
       <c r="A14" s="1"/>
@@ -796,7 +799,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="12.75">
       <c r="A15" s="1"/>
@@ -807,7 +810,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="12.75">
       <c r="A16" s="1"/>
@@ -818,7 +821,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="12.75">
       <c r="A17" s="1"/>
@@ -829,7 +832,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="12.75">
       <c r="A18" s="1"/>
@@ -840,7 +843,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="12.75">
       <c r="A19" s="1"/>
@@ -851,7 +854,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="12.75">
       <c r="A20" s="1"/>
@@ -862,7 +865,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="12.75">
       <c r="A21" s="1"/>
@@ -873,7 +876,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="12.75">
       <c r="A22" s="1"/>
@@ -884,7 +887,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="12.75">
       <c r="A23" s="1"/>
@@ -895,7 +898,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="12.75">
       <c r="A24" s="1"/>
@@ -906,7 +909,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="12.75">
       <c r="A25" s="1"/>
@@ -917,7 +920,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="12.75">
       <c r="A26" s="1"/>
@@ -928,7 +931,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="12.75">
       <c r="A27" s="1"/>
@@ -939,7 +942,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="12.75">
       <c r="A28" s="1"/>
@@ -950,7 +953,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="8"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="12.75">
       <c r="A29" s="1"/>
@@ -961,7 +964,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="12.75">
       <c r="A30" s="1"/>
@@ -972,7 +975,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="8"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="12.75">
       <c r="A31" s="1"/>
@@ -983,7 +986,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="8"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="12.75">
       <c r="A32" s="1"/>
@@ -994,7 +997,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" ht="12.75">
       <c r="A33" s="1"/>
@@ -1005,7 +1008,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" ht="12.75">
       <c r="A34" s="1"/>
@@ -1016,7 +1019,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" ht="12.75">
       <c r="A35" s="1"/>
@@ -1027,7 +1030,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" ht="12.75">
       <c r="A36" s="1"/>
@@ -1038,7 +1041,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="8"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" ht="12.75">
       <c r="A37" s="1"/>
@@ -1049,7 +1052,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" ht="12.75">
       <c r="A38" s="1"/>
@@ -1060,7 +1063,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" ht="12.75">
       <c r="A39" s="1"/>
@@ -1071,7 +1074,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" ht="12.75">
       <c r="A40" s="1"/>
@@ -1082,7 +1085,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="8"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" ht="12.75">
       <c r="A41" s="1"/>
@@ -1093,7 +1096,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" ht="12.75">
       <c r="A42" s="1"/>
@@ -1104,7 +1107,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="8"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" ht="12.75">
       <c r="A43" s="1"/>
@@ -1115,7 +1118,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="12.75">
       <c r="A44" s="1"/>
@@ -1126,7 +1129,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="8"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" ht="12.75">
       <c r="A45" s="1"/>
@@ -1137,7 +1140,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="8"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" ht="12.75">
       <c r="A46" s="1"/>
@@ -1148,7 +1151,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="8"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" ht="12.75">
       <c r="A47" s="1"/>
@@ -1159,7 +1162,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" ht="12.75">
       <c r="A48" s="1"/>
@@ -1170,7 +1173,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="8"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" ht="12.75">
       <c r="A49" s="1"/>
@@ -1181,7 +1184,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="8"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" ht="12.75">
       <c r="A50" s="1"/>
@@ -1192,7 +1195,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="8"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" ht="12.75">
       <c r="A51" s="1"/>
@@ -1203,7 +1206,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="8"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" ht="12.75">
       <c r="A52" s="1"/>
@@ -1214,7 +1217,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" ht="12.75">
       <c r="A53" s="1"/>
@@ -1225,7 +1228,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" ht="12.75">
       <c r="A54" s="1"/>
@@ -1236,7 +1239,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="8"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" ht="12.75">
       <c r="A55" s="1"/>
@@ -1247,7 +1250,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9" ht="12.75">
       <c r="A56" s="1"/>
@@ -1258,7 +1261,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="8"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" ht="12.75">
       <c r="A57" s="1"/>
@@ -1269,7 +1272,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="8"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" ht="12.75">
       <c r="A58" s="1"/>
@@ -1280,7 +1283,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="8"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" ht="12.75">
       <c r="A59" s="1"/>
@@ -1291,7 +1294,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="8"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" ht="12.75">
       <c r="A60" s="1"/>
@@ -1302,7 +1305,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="8"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" ht="12.75">
       <c r="A61" s="1"/>
@@ -1313,7 +1316,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="8"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" ht="12.75">
       <c r="A62" s="1"/>
@@ -1324,7 +1327,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="8"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" ht="12.75">
       <c r="A63" s="1"/>
@@ -1335,7 +1338,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="8"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" ht="12.75">
       <c r="A64" s="1"/>
@@ -1346,7 +1349,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="8"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" ht="12.75">
       <c r="A65" s="1"/>
@@ -1357,7 +1360,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="8"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" ht="12.75">
       <c r="A66" s="1"/>
@@ -1368,7 +1371,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="8"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" ht="12.75">
       <c r="A67" s="1"/>
@@ -1379,7 +1382,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="8"/>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" ht="12.75">
       <c r="A68" s="1"/>
@@ -1390,7 +1393,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="8"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" ht="12.75">
       <c r="A69" s="1"/>
@@ -1401,7 +1404,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="8"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" ht="12.75">
       <c r="A70" s="1"/>
@@ -1412,7 +1415,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" ht="12.75">
       <c r="A71" s="1"/>
@@ -1423,7 +1426,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="8"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9" ht="12.75">
       <c r="A72" s="1"/>
@@ -1434,7 +1437,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="7"/>
     </row>
     <row r="73" spans="1:9" ht="12.75">
       <c r="A73" s="1"/>
@@ -1445,7 +1448,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="8"/>
+      <c r="I73" s="7"/>
     </row>
     <row r="74" spans="1:9" ht="12.75">
       <c r="A74" s="1"/>
@@ -1456,7 +1459,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="8"/>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" ht="12.75">
       <c r="A75" s="1"/>
@@ -1467,7 +1470,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="7"/>
     </row>
     <row r="76" spans="1:9" ht="12.75">
       <c r="A76" s="1"/>
@@ -1478,7 +1481,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="8"/>
+      <c r="I76" s="7"/>
     </row>
     <row r="77" spans="1:9" ht="12.75">
       <c r="A77" s="1"/>
@@ -1489,7 +1492,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="8"/>
+      <c r="I77" s="7"/>
     </row>
     <row r="78" spans="1:9" ht="12.75">
       <c r="A78" s="1"/>
@@ -1500,7 +1503,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="8"/>
+      <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:9" ht="12.75">
       <c r="A79" s="1"/>
@@ -1511,7 +1514,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:9" ht="12.75">
       <c r="A80" s="1"/>
@@ -1522,7 +1525,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="8"/>
+      <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9" ht="12.75">
       <c r="A81" s="1"/>
@@ -1533,7 +1536,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="8"/>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" ht="12.75">
       <c r="A82" s="1"/>
@@ -1544,7 +1547,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="8"/>
+      <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" ht="12.75">
       <c r="A83" s="1"/>
@@ -1555,7 +1558,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" ht="12.75">
       <c r="A84" s="1"/>
@@ -1566,7 +1569,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="8"/>
+      <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9" ht="12.75">
       <c r="A85" s="1"/>
@@ -1577,7 +1580,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="8"/>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" spans="1:9" ht="12.75">
       <c r="A86" s="1"/>
@@ -1588,7 +1591,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="8"/>
+      <c r="I86" s="7"/>
     </row>
     <row r="87" spans="1:9" ht="12.75">
       <c r="A87" s="1"/>
@@ -1599,7 +1602,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="8"/>
+      <c r="I87" s="7"/>
     </row>
     <row r="88" spans="1:9" ht="12.75">
       <c r="A88" s="1"/>
@@ -1610,7 +1613,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="8"/>
+      <c r="I88" s="7"/>
     </row>
     <row r="89" spans="1:9" ht="12.75">
       <c r="A89" s="1"/>
@@ -1621,7 +1624,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="8"/>
+      <c r="I89" s="7"/>
     </row>
     <row r="90" spans="1:9" ht="12.75">
       <c r="A90" s="1"/>
@@ -1632,7 +1635,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="8"/>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9" ht="12.75">
       <c r="A91" s="1"/>
@@ -1643,7 +1646,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="8"/>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9" ht="12.75">
       <c r="A92" s="1"/>
@@ -1654,7 +1657,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="8"/>
+      <c r="I92" s="7"/>
     </row>
     <row r="93" spans="1:9" ht="12.75">
       <c r="A93" s="1"/>
@@ -1665,7 +1668,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="8"/>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" ht="12.75">
       <c r="A94" s="1"/>
@@ -1676,7 +1679,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="8"/>
+      <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:9" ht="12.75">
       <c r="A95" s="1"/>
@@ -1687,7 +1690,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="8"/>
+      <c r="I95" s="7"/>
     </row>
     <row r="96" spans="1:9" ht="12.75">
       <c r="A96" s="1"/>
@@ -1698,7 +1701,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="8"/>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="1:9" ht="12.75">
       <c r="A97" s="1"/>
@@ -1709,7 +1712,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="8"/>
+      <c r="I97" s="7"/>
     </row>
     <row r="98" spans="1:9" ht="12.75">
       <c r="A98" s="1"/>
@@ -1720,7 +1723,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="8"/>
+      <c r="I98" s="7"/>
     </row>
     <row r="99" spans="1:9" ht="12.75">
       <c r="A99" s="1"/>
@@ -1731,7 +1734,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="8"/>
+      <c r="I99" s="7"/>
     </row>
     <row r="100" spans="1:9" ht="12.75">
       <c r="A100" s="1"/>
@@ -1742,7 +1745,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="8"/>
+      <c r="I100" s="7"/>
     </row>
     <row r="101" spans="1:9" ht="12.75">
       <c r="A101" s="1"/>
@@ -1753,7 +1756,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="8"/>
+      <c r="I101" s="7"/>
     </row>
     <row r="102" spans="1:9" ht="12.75">
       <c r="A102" s="1"/>
@@ -1764,7 +1767,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="2"/>
-      <c r="I102" s="8"/>
+      <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" ht="12.75">
       <c r="A103" s="1"/>
@@ -1775,7 +1778,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="8"/>
+      <c r="I103" s="7"/>
     </row>
     <row r="104" spans="1:9" ht="12.75">
       <c r="A104" s="1"/>
@@ -1786,7 +1789,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="2"/>
-      <c r="I104" s="8"/>
+      <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" ht="12.75">
       <c r="A105" s="1"/>
@@ -1797,7 +1800,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="2"/>
-      <c r="I105" s="8"/>
+      <c r="I105" s="7"/>
     </row>
     <row r="106" spans="1:9" ht="12.75">
       <c r="A106" s="1"/>
@@ -1808,7 +1811,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="2"/>
-      <c r="I106" s="8"/>
+      <c r="I106" s="7"/>
     </row>
     <row r="107" spans="1:9" ht="12.75">
       <c r="A107" s="1"/>
@@ -1819,7 +1822,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="2"/>
-      <c r="I107" s="8"/>
+      <c r="I107" s="7"/>
     </row>
     <row r="108" spans="1:9" ht="12.75">
       <c r="A108" s="1"/>
@@ -1830,7 +1833,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="8"/>
+      <c r="I108" s="7"/>
     </row>
     <row r="109" spans="1:9" ht="12.75">
       <c r="A109" s="1"/>
@@ -1841,7 +1844,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="8"/>
+      <c r="I109" s="7"/>
     </row>
     <row r="110" spans="1:9" ht="12.75">
       <c r="A110" s="1"/>
@@ -1852,7 +1855,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="8"/>
+      <c r="I110" s="7"/>
     </row>
     <row r="111" spans="1:9" ht="12.75">
       <c r="A111" s="1"/>
@@ -1863,7 +1866,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="8"/>
+      <c r="I111" s="7"/>
     </row>
     <row r="112" spans="1:9" ht="12.75">
       <c r="A112" s="1"/>
@@ -1874,7 +1877,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="8"/>
+      <c r="I112" s="7"/>
     </row>
     <row r="113" spans="1:9" ht="12.75">
       <c r="A113" s="1"/>
@@ -1885,7 +1888,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="8"/>
+      <c r="I113" s="7"/>
     </row>
     <row r="114" spans="1:9" ht="12.75">
       <c r="A114" s="1"/>
@@ -1896,7 +1899,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="8"/>
+      <c r="I114" s="7"/>
     </row>
     <row r="115" spans="1:9" ht="12.75">
       <c r="A115" s="1"/>
@@ -1907,7 +1910,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="8"/>
+      <c r="I115" s="7"/>
     </row>
     <row r="116" spans="1:9" ht="12.75">
       <c r="A116" s="1"/>
@@ -1918,7 +1921,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="8"/>
+      <c r="I116" s="7"/>
     </row>
     <row r="117" spans="1:9" ht="12.75">
       <c r="A117" s="1"/>
@@ -1929,7 +1932,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="2"/>
-      <c r="I117" s="8"/>
+      <c r="I117" s="7"/>
     </row>
     <row r="118" spans="1:9" ht="12.75">
       <c r="A118" s="1"/>
@@ -1940,7 +1943,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="2"/>
-      <c r="I118" s="8"/>
+      <c r="I118" s="7"/>
     </row>
     <row r="119" spans="1:9" ht="12.75">
       <c r="A119" s="1"/>
@@ -1951,7 +1954,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="8"/>
+      <c r="I119" s="7"/>
     </row>
     <row r="120" spans="1:9" ht="12.75">
       <c r="A120" s="1"/>
@@ -1962,7 +1965,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="8"/>
+      <c r="I120" s="7"/>
     </row>
     <row r="121" spans="1:9" ht="12.75">
       <c r="A121" s="1"/>
@@ -1973,7 +1976,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="8"/>
+      <c r="I121" s="7"/>
     </row>
     <row r="122" spans="1:9" ht="12.75">
       <c r="A122" s="1"/>
@@ -1984,7 +1987,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="8"/>
+      <c r="I122" s="7"/>
     </row>
     <row r="123" spans="1:9" ht="12.75">
       <c r="A123" s="1"/>
@@ -1995,7 +1998,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="8"/>
+      <c r="I123" s="7"/>
     </row>
     <row r="124" spans="1:9" ht="12.75">
       <c r="A124" s="1"/>
@@ -2006,7 +2009,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="8"/>
+      <c r="I124" s="7"/>
     </row>
     <row r="125" spans="1:9" ht="12.75">
       <c r="A125" s="1"/>
@@ -2017,7 +2020,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="8"/>
+      <c r="I125" s="7"/>
     </row>
     <row r="126" spans="1:9" ht="12.75">
       <c r="A126" s="1"/>
@@ -2028,7 +2031,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="8"/>
+      <c r="I126" s="7"/>
     </row>
     <row r="127" spans="1:9" ht="12.75">
       <c r="A127" s="1"/>
@@ -2039,7 +2042,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="8"/>
+      <c r="I127" s="7"/>
     </row>
     <row r="128" spans="1:9" ht="12.75">
       <c r="A128" s="1"/>
@@ -2050,7 +2053,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="8"/>
+      <c r="I128" s="7"/>
     </row>
     <row r="129" spans="1:9" ht="12.75">
       <c r="A129" s="1"/>
@@ -2061,7 +2064,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="8"/>
+      <c r="I129" s="7"/>
     </row>
     <row r="130" spans="1:9" ht="12.75">
       <c r="A130" s="1"/>
@@ -2072,7 +2075,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="8"/>
+      <c r="I130" s="7"/>
     </row>
     <row r="131" spans="1:9" ht="12.75">
       <c r="A131" s="1"/>
@@ -2083,7 +2086,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="8"/>
+      <c r="I131" s="7"/>
     </row>
     <row r="132" spans="1:9" ht="12.75">
       <c r="A132" s="1"/>
@@ -2094,7 +2097,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="8"/>
+      <c r="I132" s="7"/>
     </row>
     <row r="133" spans="1:9" ht="12.75">
       <c r="A133" s="1"/>
@@ -2105,7 +2108,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="8"/>
+      <c r="I133" s="7"/>
     </row>
     <row r="134" spans="1:9" ht="12.75">
       <c r="A134" s="1"/>
@@ -2116,7 +2119,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="2"/>
-      <c r="I134" s="8"/>
+      <c r="I134" s="7"/>
     </row>
     <row r="135" spans="1:9" ht="12.75">
       <c r="A135" s="1"/>
@@ -2127,7 +2130,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="8"/>
+      <c r="I135" s="7"/>
     </row>
     <row r="136" spans="1:9" ht="12.75">
       <c r="A136" s="1"/>
@@ -2138,7 +2141,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="2"/>
-      <c r="I136" s="8"/>
+      <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:9" ht="12.75">
       <c r="A137" s="1"/>
@@ -2149,7 +2152,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="2"/>
-      <c r="I137" s="8"/>
+      <c r="I137" s="7"/>
     </row>
     <row r="138" spans="1:9" ht="12.75">
       <c r="A138" s="1"/>
@@ -2160,7 +2163,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="2"/>
-      <c r="I138" s="8"/>
+      <c r="I138" s="7"/>
     </row>
     <row r="139" spans="1:9" ht="12.75">
       <c r="A139" s="1"/>
@@ -2171,7 +2174,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="2"/>
-      <c r="I139" s="8"/>
+      <c r="I139" s="7"/>
     </row>
     <row r="140" spans="1:9" ht="12.75">
       <c r="A140" s="1"/>
@@ -2182,7 +2185,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="2"/>
-      <c r="I140" s="8"/>
+      <c r="I140" s="7"/>
     </row>
     <row r="141" spans="1:9" ht="12.75">
       <c r="A141" s="1"/>
@@ -2193,7 +2196,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="2"/>
-      <c r="I141" s="8"/>
+      <c r="I141" s="7"/>
     </row>
     <row r="142" spans="1:9" ht="12.75">
       <c r="A142" s="1"/>
@@ -2204,7 +2207,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="8"/>
+      <c r="I142" s="7"/>
     </row>
     <row r="143" spans="1:9" ht="12.75">
       <c r="A143" s="1"/>
@@ -2215,7 +2218,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="8"/>
+      <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:9" ht="12.75">
       <c r="A144" s="1"/>
@@ -2226,7 +2229,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="8"/>
+      <c r="I144" s="7"/>
     </row>
     <row r="145" spans="1:9" ht="12.75">
       <c r="A145" s="1"/>
@@ -2237,7 +2240,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="8"/>
+      <c r="I145" s="7"/>
     </row>
     <row r="146" spans="1:9" ht="12.75">
       <c r="A146" s="1"/>
@@ -2248,7 +2251,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="8"/>
+      <c r="I146" s="7"/>
     </row>
     <row r="147" spans="1:9" ht="12.75">
       <c r="A147" s="1"/>
@@ -2259,7 +2262,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="8"/>
+      <c r="I147" s="7"/>
     </row>
     <row r="148" spans="1:9" ht="12.75">
       <c r="A148" s="1"/>
@@ -2270,7 +2273,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="8"/>
+      <c r="I148" s="7"/>
     </row>
     <row r="149" spans="1:9" ht="12.75">
       <c r="A149" s="1"/>
@@ -2281,7 +2284,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="2"/>
-      <c r="I149" s="8"/>
+      <c r="I149" s="7"/>
     </row>
     <row r="150" spans="1:9" ht="12.75">
       <c r="A150" s="1"/>
@@ -2292,7 +2295,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="2"/>
-      <c r="I150" s="8"/>
+      <c r="I150" s="7"/>
     </row>
     <row r="151" spans="1:9" ht="12.75">
       <c r="A151" s="1"/>
@@ -2303,7 +2306,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="2"/>
-      <c r="I151" s="8"/>
+      <c r="I151" s="7"/>
     </row>
     <row r="152" spans="1:9" ht="12.75">
       <c r="A152" s="1"/>
@@ -2314,7 +2317,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="2"/>
-      <c r="I152" s="8"/>
+      <c r="I152" s="7"/>
     </row>
     <row r="153" spans="1:9" ht="12.75">
       <c r="A153" s="1"/>
@@ -2325,7 +2328,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="2"/>
-      <c r="I153" s="8"/>
+      <c r="I153" s="7"/>
     </row>
     <row r="154" spans="1:9" ht="12.75">
       <c r="A154" s="1"/>
@@ -2336,7 +2339,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="2"/>
-      <c r="I154" s="8"/>
+      <c r="I154" s="7"/>
     </row>
     <row r="155" spans="1:9" ht="12.75">
       <c r="A155" s="1"/>
@@ -2347,7 +2350,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="8"/>
+      <c r="I155" s="7"/>
     </row>
     <row r="156" spans="1:9" ht="12.75">
       <c r="A156" s="1"/>
@@ -2358,7 +2361,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="8"/>
+      <c r="I156" s="7"/>
     </row>
     <row r="157" spans="1:9" ht="12.75">
       <c r="A157" s="1"/>
@@ -2369,7 +2372,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="8"/>
+      <c r="I157" s="7"/>
     </row>
     <row r="158" spans="1:9" ht="12.75">
       <c r="A158" s="1"/>
@@ -2380,7 +2383,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="8"/>
+      <c r="I158" s="7"/>
     </row>
     <row r="159" spans="1:9" ht="12.75">
       <c r="A159" s="1"/>
@@ -2391,7 +2394,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="2"/>
-      <c r="I159" s="8"/>
+      <c r="I159" s="7"/>
     </row>
     <row r="160" spans="1:9" ht="12.75">
       <c r="A160" s="1"/>
@@ -2402,7 +2405,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="2"/>
-      <c r="I160" s="8"/>
+      <c r="I160" s="7"/>
     </row>
     <row r="161" spans="1:9" ht="12.75">
       <c r="A161" s="1"/>
@@ -2413,7 +2416,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="2"/>
-      <c r="I161" s="8"/>
+      <c r="I161" s="7"/>
     </row>
     <row r="162" spans="1:9" ht="12.75">
       <c r="A162" s="1"/>
@@ -2424,7 +2427,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="2"/>
-      <c r="I162" s="8"/>
+      <c r="I162" s="7"/>
     </row>
     <row r="163" spans="1:9" ht="12.75">
       <c r="A163" s="1"/>
@@ -2435,7 +2438,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="2"/>
-      <c r="I163" s="8"/>
+      <c r="I163" s="7"/>
     </row>
     <row r="164" spans="1:9" ht="12.75">
       <c r="A164" s="1"/>
@@ -2446,7 +2449,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="2"/>
-      <c r="I164" s="8"/>
+      <c r="I164" s="7"/>
     </row>
     <row r="165" spans="1:9" ht="12.75">
       <c r="A165" s="1"/>
@@ -2457,7 +2460,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="2"/>
-      <c r="I165" s="8"/>
+      <c r="I165" s="7"/>
     </row>
     <row r="166" spans="1:9" ht="12.75">
       <c r="A166" s="1"/>
@@ -2468,7 +2471,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="2"/>
-      <c r="I166" s="8"/>
+      <c r="I166" s="7"/>
     </row>
     <row r="167" spans="1:9" ht="12.75">
       <c r="A167" s="1"/>
@@ -2479,7 +2482,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="2"/>
-      <c r="I167" s="8"/>
+      <c r="I167" s="7"/>
     </row>
     <row r="168" spans="1:9" ht="12.75">
       <c r="A168" s="1"/>
@@ -2490,7 +2493,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="2"/>
-      <c r="I168" s="8"/>
+      <c r="I168" s="7"/>
     </row>
     <row r="169" spans="1:9" ht="12.75">
       <c r="A169" s="1"/>
@@ -2501,7 +2504,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="2"/>
-      <c r="I169" s="8"/>
+      <c r="I169" s="7"/>
     </row>
     <row r="170" spans="1:9" ht="12.75">
       <c r="A170" s="1"/>
@@ -2512,7 +2515,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="2"/>
-      <c r="I170" s="8"/>
+      <c r="I170" s="7"/>
     </row>
     <row r="171" spans="1:9" ht="12.75">
       <c r="A171" s="1"/>
@@ -2523,7 +2526,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="2"/>
-      <c r="I171" s="8"/>
+      <c r="I171" s="7"/>
     </row>
     <row r="172" spans="1:9" ht="12.75">
       <c r="A172" s="1"/>
@@ -2534,7 +2537,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="2"/>
-      <c r="I172" s="8"/>
+      <c r="I172" s="7"/>
     </row>
     <row r="173" spans="1:9" ht="12.75">
       <c r="A173" s="1"/>
@@ -2545,7 +2548,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="2"/>
-      <c r="I173" s="8"/>
+      <c r="I173" s="7"/>
     </row>
     <row r="174" spans="1:9" ht="12.75">
       <c r="A174" s="1"/>
@@ -2556,7 +2559,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="2"/>
-      <c r="I174" s="8"/>
+      <c r="I174" s="7"/>
     </row>
     <row r="175" spans="1:9" ht="12.75">
       <c r="A175" s="1"/>
@@ -2567,7 +2570,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="2"/>
-      <c r="I175" s="8"/>
+      <c r="I175" s="7"/>
     </row>
     <row r="176" spans="1:9" ht="12.75">
       <c r="A176" s="1"/>
@@ -2578,7 +2581,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="2"/>
-      <c r="I176" s="8"/>
+      <c r="I176" s="7"/>
     </row>
     <row r="177" spans="1:9" ht="12.75">
       <c r="A177" s="1"/>
@@ -2589,7 +2592,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="2"/>
-      <c r="I177" s="8"/>
+      <c r="I177" s="7"/>
     </row>
     <row r="178" spans="1:9" ht="12.75">
       <c r="A178" s="1"/>
@@ -2600,7 +2603,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="2"/>
-      <c r="I178" s="8"/>
+      <c r="I178" s="7"/>
     </row>
     <row r="179" spans="1:9" ht="12.75">
       <c r="A179" s="1"/>
@@ -2611,7 +2614,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="2"/>
-      <c r="I179" s="8"/>
+      <c r="I179" s="7"/>
     </row>
     <row r="180" spans="1:9" ht="12.75">
       <c r="A180" s="1"/>
@@ -2622,7 +2625,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="2"/>
-      <c r="I180" s="8"/>
+      <c r="I180" s="7"/>
     </row>
     <row r="181" spans="1:9" ht="12.75">
       <c r="A181" s="1"/>
@@ -2633,7 +2636,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="2"/>
-      <c r="I181" s="8"/>
+      <c r="I181" s="7"/>
     </row>
     <row r="182" spans="1:9" ht="12.75">
       <c r="A182" s="1"/>
@@ -2644,7 +2647,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="2"/>
-      <c r="I182" s="8"/>
+      <c r="I182" s="7"/>
     </row>
     <row r="183" spans="1:9" ht="12.75">
       <c r="A183" s="1"/>
@@ -2655,7 +2658,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="2"/>
-      <c r="I183" s="8"/>
+      <c r="I183" s="7"/>
     </row>
     <row r="184" spans="1:9" ht="12.75">
       <c r="A184" s="1"/>
@@ -2666,7 +2669,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="2"/>
-      <c r="I184" s="8"/>
+      <c r="I184" s="7"/>
     </row>
     <row r="185" spans="1:9" ht="12.75">
       <c r="A185" s="1"/>
@@ -2677,7 +2680,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="2"/>
-      <c r="I185" s="8"/>
+      <c r="I185" s="7"/>
     </row>
     <row r="186" spans="1:9" ht="12.75">
       <c r="A186" s="1"/>
@@ -2688,7 +2691,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="2"/>
-      <c r="I186" s="8"/>
+      <c r="I186" s="7"/>
     </row>
     <row r="187" spans="1:9" ht="12.75">
       <c r="A187" s="1"/>
@@ -2699,7 +2702,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="2"/>
-      <c r="I187" s="8"/>
+      <c r="I187" s="7"/>
     </row>
     <row r="188" spans="1:9" ht="12.75">
       <c r="A188" s="1"/>
@@ -2710,7 +2713,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="2"/>
-      <c r="I188" s="8"/>
+      <c r="I188" s="7"/>
     </row>
     <row r="189" spans="1:9" ht="12.75">
       <c r="A189" s="1"/>
@@ -2721,7 +2724,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="2"/>
-      <c r="I189" s="8"/>
+      <c r="I189" s="7"/>
     </row>
     <row r="190" spans="1:9" ht="12.75">
       <c r="A190" s="1"/>
@@ -2732,7 +2735,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="2"/>
-      <c r="I190" s="8"/>
+      <c r="I190" s="7"/>
     </row>
     <row r="191" spans="1:9" ht="12.75">
       <c r="A191" s="1"/>
@@ -2743,7 +2746,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="2"/>
-      <c r="I191" s="8"/>
+      <c r="I191" s="7"/>
     </row>
     <row r="192" spans="1:9" ht="12.75">
       <c r="A192" s="1"/>
@@ -2754,7 +2757,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="2"/>
-      <c r="I192" s="8"/>
+      <c r="I192" s="7"/>
     </row>
     <row r="193" spans="1:9" ht="12.75">
       <c r="A193" s="1"/>
@@ -2765,7 +2768,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="2"/>
-      <c r="I193" s="8"/>
+      <c r="I193" s="7"/>
     </row>
     <row r="194" spans="1:9" ht="12.75">
       <c r="A194" s="1"/>
@@ -2776,7 +2779,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="2"/>
-      <c r="I194" s="8"/>
+      <c r="I194" s="7"/>
     </row>
     <row r="195" spans="1:9" ht="12.75">
       <c r="A195" s="1"/>
@@ -2787,7 +2790,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="2"/>
-      <c r="I195" s="8"/>
+      <c r="I195" s="7"/>
     </row>
     <row r="196" spans="1:9" ht="12.75">
       <c r="A196" s="1"/>
@@ -2798,7 +2801,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="2"/>
-      <c r="I196" s="8"/>
+      <c r="I196" s="7"/>
     </row>
     <row r="197" spans="1:9" ht="12.75">
       <c r="A197" s="1"/>
@@ -2809,7 +2812,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="2"/>
-      <c r="I197" s="8"/>
+      <c r="I197" s="7"/>
     </row>
     <row r="198" spans="1:9" ht="12.75">
       <c r="A198" s="1"/>
@@ -2820,7 +2823,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="2"/>
-      <c r="I198" s="8"/>
+      <c r="I198" s="7"/>
     </row>
     <row r="199" spans="1:9" ht="12.75">
       <c r="A199" s="1"/>
@@ -2831,7 +2834,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="2"/>
-      <c r="I199" s="8"/>
+      <c r="I199" s="7"/>
     </row>
     <row r="200" spans="1:9" ht="12.75">
       <c r="A200" s="1"/>
@@ -2842,7 +2845,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="2"/>
-      <c r="I200" s="8"/>
+      <c r="I200" s="7"/>
     </row>
     <row r="201" spans="1:9" ht="12.75">
       <c r="A201" s="1"/>
@@ -2853,7 +2856,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="2"/>
-      <c r="I201" s="8"/>
+      <c r="I201" s="7"/>
     </row>
     <row r="202" spans="1:9" ht="12.75">
       <c r="A202" s="1"/>
@@ -2864,7 +2867,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="2"/>
-      <c r="I202" s="8"/>
+      <c r="I202" s="7"/>
     </row>
     <row r="203" spans="1:9" ht="12.75">
       <c r="A203" s="1"/>
@@ -2875,7 +2878,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="2"/>
-      <c r="I203" s="8"/>
+      <c r="I203" s="7"/>
     </row>
     <row r="204" spans="1:9" ht="12.75">
       <c r="A204" s="1"/>
@@ -2886,7 +2889,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="2"/>
-      <c r="I204" s="8"/>
+      <c r="I204" s="7"/>
     </row>
     <row r="205" spans="1:9" ht="12.75">
       <c r="A205" s="1"/>
@@ -2897,7 +2900,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="2"/>
-      <c r="I205" s="8"/>
+      <c r="I205" s="7"/>
     </row>
     <row r="206" spans="1:9" ht="12.75">
       <c r="A206" s="1"/>
@@ -2908,7 +2911,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="2"/>
-      <c r="I206" s="8"/>
+      <c r="I206" s="7"/>
     </row>
     <row r="207" spans="1:9" ht="12.75">
       <c r="A207" s="1"/>
@@ -2919,7 +2922,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="2"/>
-      <c r="I207" s="8"/>
+      <c r="I207" s="7"/>
     </row>
     <row r="208" spans="1:9" ht="12.75">
       <c r="A208" s="1"/>
@@ -2930,7 +2933,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="2"/>
-      <c r="I208" s="8"/>
+      <c r="I208" s="7"/>
     </row>
     <row r="209" spans="1:9" ht="12.75">
       <c r="A209" s="1"/>
@@ -2941,7 +2944,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="2"/>
-      <c r="I209" s="8"/>
+      <c r="I209" s="7"/>
     </row>
     <row r="210" spans="1:9" ht="12.75">
       <c r="A210" s="1"/>
@@ -2952,7 +2955,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="2"/>
-      <c r="I210" s="8"/>
+      <c r="I210" s="7"/>
     </row>
     <row r="211" spans="1:9" ht="12.75">
       <c r="A211" s="1"/>
@@ -2963,7 +2966,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="2"/>
-      <c r="I211" s="8"/>
+      <c r="I211" s="7"/>
     </row>
     <row r="212" spans="1:9" ht="12.75">
       <c r="A212" s="1"/>
@@ -2974,7 +2977,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="2"/>
-      <c r="I212" s="8"/>
+      <c r="I212" s="7"/>
     </row>
     <row r="213" spans="1:9" ht="12.75">
       <c r="A213" s="1"/>
@@ -2985,7 +2988,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="2"/>
-      <c r="I213" s="8"/>
+      <c r="I213" s="7"/>
     </row>
     <row r="214" spans="1:9" ht="12.75">
       <c r="A214" s="1"/>
@@ -2996,7 +2999,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="2"/>
-      <c r="I214" s="8"/>
+      <c r="I214" s="7"/>
     </row>
     <row r="215" spans="1:9" ht="12.75">
       <c r="A215" s="1"/>
@@ -3007,7 +3010,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="2"/>
-      <c r="I215" s="8"/>
+      <c r="I215" s="7"/>
     </row>
     <row r="216" spans="1:9" ht="12.75">
       <c r="A216" s="1"/>
@@ -3018,7 +3021,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="2"/>
-      <c r="I216" s="8"/>
+      <c r="I216" s="7"/>
     </row>
     <row r="217" spans="1:9" ht="12.75">
       <c r="A217" s="1"/>
@@ -3029,7 +3032,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="2"/>
-      <c r="I217" s="8"/>
+      <c r="I217" s="7"/>
     </row>
     <row r="218" spans="1:9" ht="12.75">
       <c r="A218" s="1"/>
@@ -3040,7 +3043,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="2"/>
-      <c r="I218" s="8"/>
+      <c r="I218" s="7"/>
     </row>
     <row r="219" spans="1:9" ht="12.75">
       <c r="A219" s="1"/>
@@ -3051,7 +3054,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="2"/>
-      <c r="I219" s="8"/>
+      <c r="I219" s="7"/>
     </row>
     <row r="220" spans="1:9" ht="12.75">
       <c r="A220" s="1"/>
@@ -3062,7 +3065,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="2"/>
-      <c r="I220" s="8"/>
+      <c r="I220" s="7"/>
     </row>
     <row r="221" spans="1:9" ht="12.75">
       <c r="A221" s="1"/>
@@ -3073,7 +3076,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="2"/>
-      <c r="I221" s="8"/>
+      <c r="I221" s="7"/>
     </row>
     <row r="222" spans="1:9" ht="12.75">
       <c r="A222" s="1"/>
@@ -3084,7 +3087,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="2"/>
-      <c r="I222" s="8"/>
+      <c r="I222" s="7"/>
     </row>
     <row r="223" spans="1:9" ht="12.75">
       <c r="A223" s="1"/>
@@ -3095,7 +3098,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="2"/>
-      <c r="I223" s="8"/>
+      <c r="I223" s="7"/>
     </row>
     <row r="224" spans="1:9" ht="12.75">
       <c r="A224" s="1"/>
@@ -3106,7 +3109,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="2"/>
-      <c r="I224" s="8"/>
+      <c r="I224" s="7"/>
     </row>
     <row r="225" spans="1:9" ht="12.75">
       <c r="A225" s="1"/>
@@ -3117,7 +3120,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="2"/>
-      <c r="I225" s="8"/>
+      <c r="I225" s="7"/>
     </row>
     <row r="226" spans="1:9" ht="12.75">
       <c r="A226" s="1"/>
@@ -3128,7 +3131,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="2"/>
-      <c r="I226" s="8"/>
+      <c r="I226" s="7"/>
     </row>
     <row r="227" spans="1:9" ht="12.75">
       <c r="A227" s="1"/>
@@ -3139,7 +3142,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="2"/>
-      <c r="I227" s="8"/>
+      <c r="I227" s="7"/>
     </row>
     <row r="228" spans="1:9" ht="12.75">
       <c r="A228" s="1"/>
@@ -3150,7 +3153,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="2"/>
-      <c r="I228" s="8"/>
+      <c r="I228" s="7"/>
     </row>
     <row r="229" spans="1:9" ht="12.75">
       <c r="A229" s="1"/>
@@ -3161,7 +3164,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="2"/>
-      <c r="I229" s="8"/>
+      <c r="I229" s="7"/>
     </row>
     <row r="230" spans="1:9" ht="12.75">
       <c r="A230" s="1"/>
@@ -3172,7 +3175,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="2"/>
-      <c r="I230" s="8"/>
+      <c r="I230" s="7"/>
     </row>
     <row r="231" spans="1:9" ht="12.75">
       <c r="A231" s="1"/>
@@ -3183,7 +3186,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="2"/>
-      <c r="I231" s="8"/>
+      <c r="I231" s="7"/>
     </row>
     <row r="232" spans="1:9" ht="12.75">
       <c r="A232" s="1"/>
@@ -3194,7 +3197,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="2"/>
-      <c r="I232" s="8"/>
+      <c r="I232" s="7"/>
     </row>
     <row r="233" spans="1:9" ht="12.75">
       <c r="A233" s="1"/>
@@ -3205,7 +3208,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="2"/>
-      <c r="I233" s="8"/>
+      <c r="I233" s="7"/>
     </row>
     <row r="234" spans="1:9" ht="12.75">
       <c r="A234" s="1"/>
@@ -3216,7 +3219,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="2"/>
-      <c r="I234" s="8"/>
+      <c r="I234" s="7"/>
     </row>
     <row r="235" spans="1:9" ht="12.75">
       <c r="A235" s="1"/>
@@ -3227,7 +3230,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="2"/>
-      <c r="I235" s="8"/>
+      <c r="I235" s="7"/>
     </row>
     <row r="236" spans="1:9" ht="12.75">
       <c r="A236" s="1"/>
@@ -3238,7 +3241,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="2"/>
-      <c r="I236" s="8"/>
+      <c r="I236" s="7"/>
     </row>
     <row r="237" spans="1:9" ht="12.75">
       <c r="A237" s="1"/>
@@ -3249,7 +3252,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="2"/>
-      <c r="I237" s="8"/>
+      <c r="I237" s="7"/>
     </row>
     <row r="238" spans="1:9" ht="12.75">
       <c r="A238" s="1"/>
@@ -3260,7 +3263,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="2"/>
-      <c r="I238" s="8"/>
+      <c r="I238" s="7"/>
     </row>
     <row r="239" spans="1:9" ht="12.75">
       <c r="A239" s="1"/>
@@ -3271,7 +3274,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="2"/>
-      <c r="I239" s="8"/>
+      <c r="I239" s="7"/>
     </row>
     <row r="240" spans="1:9" ht="12.75">
       <c r="A240" s="1"/>
@@ -3282,7 +3285,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="2"/>
-      <c r="I240" s="8"/>
+      <c r="I240" s="7"/>
     </row>
     <row r="241" spans="1:9" ht="12.75">
       <c r="A241" s="1"/>
@@ -3293,7 +3296,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="2"/>
-      <c r="I241" s="8"/>
+      <c r="I241" s="7"/>
     </row>
     <row r="242" spans="1:9" ht="12.75">
       <c r="A242" s="1"/>
@@ -3304,7 +3307,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="2"/>
-      <c r="I242" s="8"/>
+      <c r="I242" s="7"/>
     </row>
     <row r="243" spans="1:9" ht="12.75">
       <c r="A243" s="1"/>
@@ -3315,7 +3318,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="2"/>
-      <c r="I243" s="8"/>
+      <c r="I243" s="7"/>
     </row>
     <row r="244" spans="1:9" ht="12.75">
       <c r="A244" s="1"/>
@@ -3326,7 +3329,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="2"/>
-      <c r="I244" s="8"/>
+      <c r="I244" s="7"/>
     </row>
     <row r="245" spans="1:9" ht="12.75">
       <c r="A245" s="1"/>
@@ -3337,7 +3340,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="2"/>
-      <c r="I245" s="8"/>
+      <c r="I245" s="7"/>
     </row>
     <row r="246" spans="1:9" ht="12.75">
       <c r="A246" s="1"/>
@@ -3348,7 +3351,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="2"/>
-      <c r="I246" s="8"/>
+      <c r="I246" s="7"/>
     </row>
     <row r="247" spans="1:9" ht="12.75">
       <c r="A247" s="1"/>
@@ -3359,7 +3362,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="2"/>
-      <c r="I247" s="8"/>
+      <c r="I247" s="7"/>
     </row>
     <row r="248" spans="1:9" ht="12.75">
       <c r="A248" s="1"/>
@@ -3370,7 +3373,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="2"/>
-      <c r="I248" s="8"/>
+      <c r="I248" s="7"/>
     </row>
     <row r="249" spans="1:9" ht="12.75">
       <c r="A249" s="1"/>
@@ -3381,7 +3384,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="2"/>
-      <c r="I249" s="8"/>
+      <c r="I249" s="7"/>
     </row>
     <row r="250" spans="1:9" ht="12.75">
       <c r="A250" s="1"/>
@@ -3392,7 +3395,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="2"/>
-      <c r="I250" s="8"/>
+      <c r="I250" s="7"/>
     </row>
     <row r="251" spans="1:9" ht="12.75">
       <c r="A251" s="1"/>
@@ -3403,7 +3406,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="2"/>
-      <c r="I251" s="8"/>
+      <c r="I251" s="7"/>
     </row>
     <row r="252" spans="1:9" ht="12.75">
       <c r="A252" s="1"/>
@@ -3414,7 +3417,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="2"/>
-      <c r="I252" s="8"/>
+      <c r="I252" s="7"/>
     </row>
     <row r="253" spans="1:9" ht="12.75">
       <c r="A253" s="1"/>
@@ -3425,7 +3428,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="2"/>
-      <c r="I253" s="8"/>
+      <c r="I253" s="7"/>
     </row>
     <row r="254" spans="1:9" ht="12.75">
       <c r="A254" s="1"/>
@@ -3436,7 +3439,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="2"/>
-      <c r="I254" s="8"/>
+      <c r="I254" s="7"/>
     </row>
     <row r="255" spans="1:9" ht="12.75">
       <c r="A255" s="1"/>
@@ -3447,7 +3450,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="2"/>
-      <c r="I255" s="8"/>
+      <c r="I255" s="7"/>
     </row>
     <row r="256" spans="1:9" ht="12.75">
       <c r="A256" s="1"/>
@@ -3458,7 +3461,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="2"/>
-      <c r="I256" s="8"/>
+      <c r="I256" s="7"/>
     </row>
     <row r="257" spans="1:9" ht="12.75">
       <c r="A257" s="1"/>
@@ -3469,7 +3472,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="2"/>
-      <c r="I257" s="8"/>
+      <c r="I257" s="7"/>
     </row>
     <row r="258" spans="1:9" ht="12.75">
       <c r="A258" s="1"/>
@@ -3480,7 +3483,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="2"/>
-      <c r="I258" s="8"/>
+      <c r="I258" s="7"/>
     </row>
     <row r="259" spans="1:9" ht="12.75">
       <c r="A259" s="1"/>
@@ -3491,7 +3494,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="2"/>
-      <c r="I259" s="8"/>
+      <c r="I259" s="7"/>
     </row>
     <row r="260" spans="1:9" ht="12.75">
       <c r="A260" s="1"/>
@@ -3502,7 +3505,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="2"/>
-      <c r="I260" s="8"/>
+      <c r="I260" s="7"/>
     </row>
     <row r="261" spans="1:9" ht="12.75">
       <c r="A261" s="1"/>
@@ -3513,7 +3516,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="2"/>
-      <c r="I261" s="8"/>
+      <c r="I261" s="7"/>
     </row>
     <row r="262" spans="1:9" ht="12.75">
       <c r="A262" s="1"/>
@@ -3524,7 +3527,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="2"/>
-      <c r="I262" s="8"/>
+      <c r="I262" s="7"/>
     </row>
     <row r="263" spans="1:9" ht="12.75">
       <c r="A263" s="1"/>
@@ -3535,7 +3538,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="2"/>
-      <c r="I263" s="8"/>
+      <c r="I263" s="7"/>
     </row>
     <row r="264" spans="1:9" ht="12.75">
       <c r="A264" s="1"/>
@@ -3546,7 +3549,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="2"/>
-      <c r="I264" s="8"/>
+      <c r="I264" s="7"/>
     </row>
     <row r="265" spans="1:9" ht="12.75">
       <c r="A265" s="1"/>
@@ -3557,7 +3560,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="2"/>
-      <c r="I265" s="8"/>
+      <c r="I265" s="7"/>
     </row>
     <row r="266" spans="1:9" ht="12.75">
       <c r="A266" s="1"/>
@@ -3568,7 +3571,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="2"/>
-      <c r="I266" s="8"/>
+      <c r="I266" s="7"/>
     </row>
     <row r="267" spans="1:9" ht="12.75">
       <c r="A267" s="1"/>
@@ -3579,7 +3582,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="2"/>
-      <c r="I267" s="8"/>
+      <c r="I267" s="7"/>
     </row>
     <row r="268" spans="1:9" ht="12.75">
       <c r="A268" s="1"/>
@@ -3590,7 +3593,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="2"/>
-      <c r="I268" s="8"/>
+      <c r="I268" s="7"/>
     </row>
     <row r="269" spans="1:9" ht="12.75">
       <c r="A269" s="1"/>
@@ -3601,7 +3604,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="2"/>
-      <c r="I269" s="8"/>
+      <c r="I269" s="7"/>
     </row>
     <row r="270" spans="1:9" ht="12.75">
       <c r="A270" s="1"/>
@@ -3612,7 +3615,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="2"/>
-      <c r="I270" s="8"/>
+      <c r="I270" s="7"/>
     </row>
     <row r="271" spans="1:9" ht="12.75">
       <c r="A271" s="1"/>
@@ -3623,7 +3626,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="2"/>
-      <c r="I271" s="8"/>
+      <c r="I271" s="7"/>
     </row>
     <row r="272" spans="1:9" ht="12.75">
       <c r="A272" s="1"/>
@@ -3634,7 +3637,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="2"/>
-      <c r="I272" s="8"/>
+      <c r="I272" s="7"/>
     </row>
     <row r="273" spans="1:9" ht="12.75">
       <c r="A273" s="1"/>
@@ -3645,7 +3648,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="2"/>
-      <c r="I273" s="8"/>
+      <c r="I273" s="7"/>
     </row>
     <row r="274" spans="1:9" ht="12.75">
       <c r="A274" s="1"/>
@@ -3656,7 +3659,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="2"/>
-      <c r="I274" s="8"/>
+      <c r="I274" s="7"/>
     </row>
     <row r="275" spans="1:9" ht="12.75">
       <c r="A275" s="1"/>
@@ -3667,7 +3670,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="2"/>
-      <c r="I275" s="8"/>
+      <c r="I275" s="7"/>
     </row>
     <row r="276" spans="1:9" ht="12.75">
       <c r="A276" s="1"/>
@@ -3678,7 +3681,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="2"/>
-      <c r="I276" s="8"/>
+      <c r="I276" s="7"/>
     </row>
     <row r="277" spans="1:9" ht="12.75">
       <c r="A277" s="1"/>
@@ -3689,7 +3692,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="2"/>
-      <c r="I277" s="8"/>
+      <c r="I277" s="7"/>
     </row>
     <row r="278" spans="1:9" ht="12.75">
       <c r="A278" s="1"/>
@@ -3700,7 +3703,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="2"/>
-      <c r="I278" s="8"/>
+      <c r="I278" s="7"/>
     </row>
     <row r="279" spans="1:9" ht="12.75">
       <c r="A279" s="1"/>
@@ -3711,7 +3714,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="2"/>
-      <c r="I279" s="8"/>
+      <c r="I279" s="7"/>
     </row>
     <row r="280" spans="1:9" ht="12.75">
       <c r="A280" s="1"/>
@@ -3722,7 +3725,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="2"/>
-      <c r="I280" s="8"/>
+      <c r="I280" s="7"/>
     </row>
     <row r="281" spans="1:9" ht="12.75">
       <c r="A281" s="1"/>
@@ -3733,7 +3736,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="2"/>
-      <c r="I281" s="8"/>
+      <c r="I281" s="7"/>
     </row>
     <row r="282" spans="1:9" ht="12.75">
       <c r="A282" s="1"/>
@@ -3744,7 +3747,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="2"/>
-      <c r="I282" s="8"/>
+      <c r="I282" s="7"/>
     </row>
     <row r="283" spans="1:9" ht="12.75">
       <c r="A283" s="1"/>
@@ -3755,7 +3758,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="2"/>
-      <c r="I283" s="8"/>
+      <c r="I283" s="7"/>
     </row>
     <row r="284" spans="1:9" ht="12.75">
       <c r="A284" s="1"/>
@@ -3766,7 +3769,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="2"/>
-      <c r="I284" s="8"/>
+      <c r="I284" s="7"/>
     </row>
     <row r="285" spans="1:9" ht="12.75">
       <c r="A285" s="1"/>
@@ -3777,7 +3780,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="2"/>
-      <c r="I285" s="8"/>
+      <c r="I285" s="7"/>
     </row>
     <row r="286" spans="1:9" ht="12.75">
       <c r="A286" s="1"/>
@@ -3788,7 +3791,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="2"/>
-      <c r="I286" s="8"/>
+      <c r="I286" s="7"/>
     </row>
     <row r="287" spans="1:9" ht="12.75">
       <c r="A287" s="1"/>
@@ -3799,7 +3802,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="2"/>
-      <c r="I287" s="8"/>
+      <c r="I287" s="7"/>
     </row>
     <row r="288" spans="1:9" ht="12.75">
       <c r="A288" s="1"/>
@@ -3810,7 +3813,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="2"/>
-      <c r="I288" s="8"/>
+      <c r="I288" s="7"/>
     </row>
     <row r="289" spans="1:9" ht="12.75">
       <c r="A289" s="1"/>
@@ -3821,7 +3824,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="2"/>
-      <c r="I289" s="8"/>
+      <c r="I289" s="7"/>
     </row>
     <row r="290" spans="1:9" ht="12.75">
       <c r="A290" s="1"/>
@@ -3832,7 +3835,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="2"/>
-      <c r="I290" s="8"/>
+      <c r="I290" s="7"/>
     </row>
     <row r="291" spans="1:9" ht="12.75">
       <c r="A291" s="1"/>
@@ -3843,7 +3846,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="2"/>
-      <c r="I291" s="8"/>
+      <c r="I291" s="7"/>
     </row>
     <row r="292" spans="1:9" ht="12.75">
       <c r="A292" s="1"/>
@@ -3854,7 +3857,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="2"/>
-      <c r="I292" s="8"/>
+      <c r="I292" s="7"/>
     </row>
     <row r="293" spans="1:9" ht="12.75">
       <c r="A293" s="1"/>
@@ -3865,7 +3868,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="2"/>
-      <c r="I293" s="8"/>
+      <c r="I293" s="7"/>
     </row>
     <row r="294" spans="1:9" ht="12.75">
       <c r="A294" s="1"/>
@@ -3876,7 +3879,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="2"/>
-      <c r="I294" s="8"/>
+      <c r="I294" s="7"/>
     </row>
     <row r="295" spans="1:9" ht="12.75">
       <c r="A295" s="1"/>
@@ -3887,7 +3890,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="2"/>
-      <c r="I295" s="8"/>
+      <c r="I295" s="7"/>
     </row>
     <row r="296" spans="1:9" ht="12.75">
       <c r="A296" s="1"/>
@@ -3898,7 +3901,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="2"/>
-      <c r="I296" s="8"/>
+      <c r="I296" s="7"/>
     </row>
     <row r="297" spans="1:9" ht="12.75">
       <c r="A297" s="1"/>
@@ -3909,7 +3912,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="2"/>
-      <c r="I297" s="8"/>
+      <c r="I297" s="7"/>
     </row>
     <row r="298" spans="1:9" ht="12.75">
       <c r="A298" s="1"/>
@@ -3920,7 +3923,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="2"/>
-      <c r="I298" s="8"/>
+      <c r="I298" s="7"/>
     </row>
     <row r="299" spans="1:9" ht="12.75">
       <c r="A299" s="1"/>
@@ -3931,7 +3934,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="2"/>
-      <c r="I299" s="8"/>
+      <c r="I299" s="7"/>
     </row>
     <row r="300" spans="1:9" ht="12.75">
       <c r="A300" s="1"/>
@@ -3942,7 +3945,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="2"/>
-      <c r="I300" s="8"/>
+      <c r="I300" s="7"/>
     </row>
     <row r="301" spans="1:9" ht="12.75">
       <c r="A301" s="1"/>
@@ -3953,7 +3956,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="2"/>
-      <c r="I301" s="8"/>
+      <c r="I301" s="7"/>
     </row>
     <row r="302" spans="1:9" ht="12.75">
       <c r="A302" s="1"/>
@@ -3964,7 +3967,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="2"/>
-      <c r="I302" s="8"/>
+      <c r="I302" s="7"/>
     </row>
     <row r="303" spans="1:9" ht="12.75">
       <c r="A303" s="1"/>
@@ -3975,7 +3978,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="2"/>
-      <c r="I303" s="8"/>
+      <c r="I303" s="7"/>
     </row>
     <row r="304" spans="1:9" ht="12.75">
       <c r="A304" s="1"/>
@@ -3986,7 +3989,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="2"/>
-      <c r="I304" s="8"/>
+      <c r="I304" s="7"/>
     </row>
     <row r="305" spans="1:9" ht="12.75">
       <c r="A305" s="1"/>
@@ -3997,7 +4000,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="2"/>
-      <c r="I305" s="8"/>
+      <c r="I305" s="7"/>
     </row>
     <row r="306" spans="1:9" ht="12.75">
       <c r="A306" s="1"/>
@@ -4008,7 +4011,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="2"/>
-      <c r="I306" s="8"/>
+      <c r="I306" s="7"/>
     </row>
     <row r="307" spans="1:9" ht="12.75">
       <c r="A307" s="1"/>
@@ -4019,7 +4022,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="2"/>
-      <c r="I307" s="8"/>
+      <c r="I307" s="7"/>
     </row>
     <row r="308" spans="1:9" ht="12.75">
       <c r="A308" s="1"/>
@@ -4030,7 +4033,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="2"/>
-      <c r="I308" s="8"/>
+      <c r="I308" s="7"/>
     </row>
     <row r="309" spans="1:9" ht="12.75">
       <c r="A309" s="1"/>
@@ -4041,7 +4044,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="2"/>
-      <c r="I309" s="8"/>
+      <c r="I309" s="7"/>
     </row>
     <row r="310" spans="1:9" ht="12.75">
       <c r="A310" s="1"/>
@@ -4052,7 +4055,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="2"/>
-      <c r="I310" s="8"/>
+      <c r="I310" s="7"/>
     </row>
     <row r="311" spans="1:9" ht="12.75">
       <c r="A311" s="1"/>
@@ -4063,7 +4066,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="2"/>
-      <c r="I311" s="8"/>
+      <c r="I311" s="7"/>
     </row>
     <row r="312" spans="1:9" ht="12.75">
       <c r="A312" s="1"/>
@@ -4074,7 +4077,7 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="2"/>
-      <c r="I312" s="8"/>
+      <c r="I312" s="7"/>
     </row>
     <row r="313" spans="1:9" ht="12.75">
       <c r="A313" s="1"/>
@@ -4085,7 +4088,7 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="2"/>
-      <c r="I313" s="8"/>
+      <c r="I313" s="7"/>
     </row>
     <row r="314" spans="1:9" ht="12.75">
       <c r="A314" s="1"/>
@@ -4096,7 +4099,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="2"/>
-      <c r="I314" s="8"/>
+      <c r="I314" s="7"/>
     </row>
     <row r="315" spans="1:9" ht="12.75">
       <c r="A315" s="1"/>
@@ -4107,7 +4110,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="2"/>
-      <c r="I315" s="8"/>
+      <c r="I315" s="7"/>
     </row>
     <row r="316" spans="1:9" ht="12.75">
       <c r="A316" s="1"/>
@@ -4118,7 +4121,7 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="2"/>
-      <c r="I316" s="8"/>
+      <c r="I316" s="7"/>
     </row>
     <row r="317" spans="1:9" ht="12.75">
       <c r="A317" s="1"/>
@@ -4129,7 +4132,7 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="2"/>
-      <c r="I317" s="8"/>
+      <c r="I317" s="7"/>
     </row>
     <row r="318" spans="1:9" ht="12.75">
       <c r="A318" s="1"/>
@@ -4140,7 +4143,7 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="2"/>
-      <c r="I318" s="8"/>
+      <c r="I318" s="7"/>
     </row>
     <row r="319" spans="1:9" ht="12.75">
       <c r="A319" s="1"/>
@@ -4151,7 +4154,7 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="2"/>
-      <c r="I319" s="8"/>
+      <c r="I319" s="7"/>
     </row>
     <row r="320" spans="1:9" ht="12.75">
       <c r="A320" s="1"/>
@@ -4162,7 +4165,7 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="2"/>
-      <c r="I320" s="8"/>
+      <c r="I320" s="7"/>
     </row>
     <row r="321" spans="1:9" ht="12.75">
       <c r="A321" s="1"/>
@@ -4173,7 +4176,7 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="2"/>
-      <c r="I321" s="8"/>
+      <c r="I321" s="7"/>
     </row>
     <row r="322" spans="1:9" ht="12.75">
       <c r="A322" s="1"/>
@@ -4184,7 +4187,7 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="2"/>
-      <c r="I322" s="8"/>
+      <c r="I322" s="7"/>
     </row>
     <row r="323" spans="1:9" ht="12.75">
       <c r="A323" s="1"/>
@@ -4195,7 +4198,7 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="2"/>
-      <c r="I323" s="8"/>
+      <c r="I323" s="7"/>
     </row>
     <row r="324" spans="1:9" ht="12.75">
       <c r="A324" s="1"/>
@@ -4206,7 +4209,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="2"/>
-      <c r="I324" s="8"/>
+      <c r="I324" s="7"/>
     </row>
     <row r="325" spans="1:9" ht="12.75">
       <c r="A325" s="1"/>
@@ -4217,7 +4220,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="2"/>
-      <c r="I325" s="8"/>
+      <c r="I325" s="7"/>
     </row>
     <row r="326" spans="1:9" ht="12.75">
       <c r="A326" s="1"/>
@@ -4228,7 +4231,7 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="2"/>
-      <c r="I326" s="8"/>
+      <c r="I326" s="7"/>
     </row>
     <row r="327" spans="1:9" ht="12.75">
       <c r="A327" s="1"/>
@@ -4239,7 +4242,7 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="2"/>
-      <c r="I327" s="8"/>
+      <c r="I327" s="7"/>
     </row>
     <row r="328" spans="1:9" ht="12.75">
       <c r="A328" s="1"/>
@@ -4250,7 +4253,7 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="2"/>
-      <c r="I328" s="8"/>
+      <c r="I328" s="7"/>
     </row>
     <row r="329" spans="1:9" ht="12.75">
       <c r="A329" s="1"/>
@@ -4261,7 +4264,7 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="2"/>
-      <c r="I329" s="8"/>
+      <c r="I329" s="7"/>
     </row>
     <row r="330" spans="1:9" ht="12.75">
       <c r="A330" s="1"/>
@@ -4272,7 +4275,7 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="2"/>
-      <c r="I330" s="8"/>
+      <c r="I330" s="7"/>
     </row>
     <row r="331" spans="1:9" ht="12.75">
       <c r="A331" s="1"/>
@@ -4283,7 +4286,7 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="2"/>
-      <c r="I331" s="8"/>
+      <c r="I331" s="7"/>
     </row>
     <row r="332" spans="1:9" ht="12.75">
       <c r="A332" s="1"/>
@@ -4294,7 +4297,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="2"/>
-      <c r="I332" s="8"/>
+      <c r="I332" s="7"/>
     </row>
     <row r="333" spans="1:9" ht="12.75">
       <c r="A333" s="1"/>
@@ -4305,7 +4308,7 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="2"/>
-      <c r="I333" s="8"/>
+      <c r="I333" s="7"/>
     </row>
     <row r="334" spans="1:9" ht="12.75">
       <c r="A334" s="1"/>
@@ -4316,7 +4319,7 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="2"/>
-      <c r="I334" s="8"/>
+      <c r="I334" s="7"/>
     </row>
     <row r="335" spans="1:9" ht="12.75">
       <c r="A335" s="1"/>
@@ -4327,7 +4330,7 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="2"/>
-      <c r="I335" s="8"/>
+      <c r="I335" s="7"/>
     </row>
     <row r="336" spans="1:9" ht="12.75">
       <c r="A336" s="1"/>
@@ -4338,7 +4341,7 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="2"/>
-      <c r="I336" s="8"/>
+      <c r="I336" s="7"/>
     </row>
     <row r="337" spans="1:9" ht="12.75">
       <c r="A337" s="1"/>
@@ -4349,7 +4352,7 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="2"/>
-      <c r="I337" s="8"/>
+      <c r="I337" s="7"/>
     </row>
     <row r="338" spans="1:9" ht="12.75">
       <c r="A338" s="1"/>
@@ -4360,7 +4363,7 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="2"/>
-      <c r="I338" s="8"/>
+      <c r="I338" s="7"/>
     </row>
     <row r="339" spans="1:9" ht="12.75">
       <c r="A339" s="1"/>
@@ -4371,7 +4374,7 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="2"/>
-      <c r="I339" s="8"/>
+      <c r="I339" s="7"/>
     </row>
     <row r="340" spans="1:9" ht="12.75">
       <c r="A340" s="1"/>
@@ -4382,7 +4385,7 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="2"/>
-      <c r="I340" s="8"/>
+      <c r="I340" s="7"/>
     </row>
     <row r="341" spans="1:9" ht="12.75">
       <c r="A341" s="1"/>
@@ -4393,7 +4396,7 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="2"/>
-      <c r="I341" s="8"/>
+      <c r="I341" s="7"/>
     </row>
     <row r="342" spans="1:9" ht="12.75">
       <c r="A342" s="1"/>
@@ -4404,7 +4407,7 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="2"/>
-      <c r="I342" s="8"/>
+      <c r="I342" s="7"/>
     </row>
     <row r="343" spans="1:9" ht="12.75">
       <c r="A343" s="1"/>
@@ -4415,7 +4418,7 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="2"/>
-      <c r="I343" s="8"/>
+      <c r="I343" s="7"/>
     </row>
     <row r="344" spans="1:9" ht="12.75">
       <c r="A344" s="1"/>
@@ -4426,7 +4429,7 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="2"/>
-      <c r="I344" s="8"/>
+      <c r="I344" s="7"/>
     </row>
     <row r="345" spans="1:9" ht="12.75">
       <c r="A345" s="1"/>
@@ -4437,7 +4440,7 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="2"/>
-      <c r="I345" s="8"/>
+      <c r="I345" s="7"/>
     </row>
     <row r="346" spans="1:9" ht="12.75">
       <c r="A346" s="1"/>
@@ -4448,7 +4451,7 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="2"/>
-      <c r="I346" s="8"/>
+      <c r="I346" s="7"/>
     </row>
     <row r="347" spans="1:9" ht="12.75">
       <c r="A347" s="1"/>
@@ -4459,7 +4462,7 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="2"/>
-      <c r="I347" s="8"/>
+      <c r="I347" s="7"/>
     </row>
     <row r="348" spans="1:9" ht="12.75">
       <c r="A348" s="1"/>
@@ -4470,7 +4473,7 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="2"/>
-      <c r="I348" s="8"/>
+      <c r="I348" s="7"/>
     </row>
     <row r="349" spans="1:9" ht="12.75">
       <c r="A349" s="1"/>
@@ -4481,7 +4484,7 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="2"/>
-      <c r="I349" s="8"/>
+      <c r="I349" s="7"/>
     </row>
     <row r="350" spans="1:9" ht="12.75">
       <c r="A350" s="1"/>
@@ -4492,7 +4495,7 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="H350" s="2"/>
-      <c r="I350" s="8"/>
+      <c r="I350" s="7"/>
     </row>
     <row r="351" spans="1:9" ht="12.75">
       <c r="A351" s="1"/>
@@ -4503,7 +4506,7 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="2"/>
-      <c r="I351" s="8"/>
+      <c r="I351" s="7"/>
     </row>
     <row r="352" spans="1:9" ht="12.75">
       <c r="A352" s="1"/>
@@ -4514,7 +4517,7 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="2"/>
-      <c r="I352" s="8"/>
+      <c r="I352" s="7"/>
     </row>
     <row r="353" spans="1:9" ht="12.75">
       <c r="A353" s="1"/>
@@ -4525,7 +4528,7 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="2"/>
-      <c r="I353" s="8"/>
+      <c r="I353" s="7"/>
     </row>
     <row r="354" spans="1:9" ht="12.75">
       <c r="A354" s="1"/>
@@ -4536,7 +4539,7 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="2"/>
-      <c r="I354" s="8"/>
+      <c r="I354" s="7"/>
     </row>
     <row r="355" spans="1:9" ht="12.75">
       <c r="A355" s="1"/>
@@ -4547,7 +4550,7 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="2"/>
-      <c r="I355" s="8"/>
+      <c r="I355" s="7"/>
     </row>
     <row r="356" spans="1:9" ht="12.75">
       <c r="A356" s="1"/>
@@ -4558,7 +4561,7 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="2"/>
-      <c r="I356" s="8"/>
+      <c r="I356" s="7"/>
     </row>
     <row r="357" spans="1:9" ht="12.75">
       <c r="A357" s="1"/>
@@ -4569,7 +4572,7 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="2"/>
-      <c r="I357" s="8"/>
+      <c r="I357" s="7"/>
     </row>
     <row r="358" spans="1:9" ht="12.75">
       <c r="A358" s="1"/>
@@ -4580,7 +4583,7 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="H358" s="2"/>
-      <c r="I358" s="8"/>
+      <c r="I358" s="7"/>
     </row>
     <row r="359" spans="1:9" ht="12.75">
       <c r="A359" s="1"/>
@@ -4591,7 +4594,7 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="2"/>
-      <c r="I359" s="8"/>
+      <c r="I359" s="7"/>
     </row>
     <row r="360" spans="1:9" ht="12.75">
       <c r="A360" s="1"/>
@@ -4602,7 +4605,7 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="2"/>
-      <c r="I360" s="8"/>
+      <c r="I360" s="7"/>
     </row>
     <row r="361" spans="1:9" ht="12.75">
       <c r="A361" s="1"/>
@@ -4613,7 +4616,7 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="H361" s="2"/>
-      <c r="I361" s="8"/>
+      <c r="I361" s="7"/>
     </row>
     <row r="362" spans="1:9" ht="12.75">
       <c r="A362" s="1"/>
@@ -4624,7 +4627,7 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="2"/>
-      <c r="I362" s="8"/>
+      <c r="I362" s="7"/>
     </row>
     <row r="363" spans="1:9" ht="12.75">
       <c r="A363" s="1"/>
@@ -4635,7 +4638,7 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="H363" s="2"/>
-      <c r="I363" s="8"/>
+      <c r="I363" s="7"/>
     </row>
     <row r="364" spans="1:9" ht="12.75">
       <c r="A364" s="1"/>
@@ -4646,7 +4649,7 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="H364" s="2"/>
-      <c r="I364" s="8"/>
+      <c r="I364" s="7"/>
     </row>
     <row r="365" spans="1:9" ht="12.75">
       <c r="A365" s="1"/>
@@ -4657,7 +4660,7 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="H365" s="2"/>
-      <c r="I365" s="8"/>
+      <c r="I365" s="7"/>
     </row>
     <row r="366" spans="1:9" ht="12.75">
       <c r="A366" s="1"/>
@@ -4668,7 +4671,7 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="H366" s="2"/>
-      <c r="I366" s="8"/>
+      <c r="I366" s="7"/>
     </row>
     <row r="367" spans="1:9" ht="12.75">
       <c r="A367" s="1"/>
@@ -4679,7 +4682,7 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="H367" s="2"/>
-      <c r="I367" s="8"/>
+      <c r="I367" s="7"/>
     </row>
     <row r="368" spans="1:9" ht="12.75">
       <c r="A368" s="1"/>
@@ -4690,7 +4693,7 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="H368" s="2"/>
-      <c r="I368" s="8"/>
+      <c r="I368" s="7"/>
     </row>
     <row r="369" spans="1:9" ht="12.75">
       <c r="A369" s="1"/>
@@ -4701,7 +4704,7 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="H369" s="2"/>
-      <c r="I369" s="8"/>
+      <c r="I369" s="7"/>
     </row>
     <row r="370" spans="1:9" ht="12.75">
       <c r="A370" s="1"/>
@@ -4712,7 +4715,7 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="H370" s="2"/>
-      <c r="I370" s="8"/>
+      <c r="I370" s="7"/>
     </row>
     <row r="371" spans="1:9" ht="12.75">
       <c r="A371" s="1"/>
@@ -4723,7 +4726,7 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="H371" s="2"/>
-      <c r="I371" s="8"/>
+      <c r="I371" s="7"/>
     </row>
     <row r="372" spans="1:9" ht="12.75">
       <c r="A372" s="1"/>
@@ -4734,7 +4737,7 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="H372" s="2"/>
-      <c r="I372" s="8"/>
+      <c r="I372" s="7"/>
     </row>
     <row r="373" spans="1:9" ht="12.75">
       <c r="A373" s="1"/>
@@ -4745,7 +4748,7 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="H373" s="2"/>
-      <c r="I373" s="8"/>
+      <c r="I373" s="7"/>
     </row>
     <row r="374" spans="1:9" ht="12.75">
       <c r="A374" s="1"/>
@@ -4756,7 +4759,7 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="H374" s="2"/>
-      <c r="I374" s="8"/>
+      <c r="I374" s="7"/>
     </row>
     <row r="375" spans="1:9" ht="12.75">
       <c r="A375" s="1"/>
@@ -4767,7 +4770,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="H375" s="2"/>
-      <c r="I375" s="8"/>
+      <c r="I375" s="7"/>
     </row>
     <row r="376" spans="1:9" ht="12.75">
       <c r="A376" s="1"/>
@@ -4778,7 +4781,7 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="H376" s="2"/>
-      <c r="I376" s="8"/>
+      <c r="I376" s="7"/>
     </row>
     <row r="377" spans="1:9" ht="12.75">
       <c r="A377" s="1"/>
@@ -4789,7 +4792,7 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="H377" s="2"/>
-      <c r="I377" s="8"/>
+      <c r="I377" s="7"/>
     </row>
     <row r="378" spans="1:9" ht="12.75">
       <c r="A378" s="1"/>
@@ -4800,7 +4803,7 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="H378" s="2"/>
-      <c r="I378" s="8"/>
+      <c r="I378" s="7"/>
     </row>
     <row r="379" spans="1:9" ht="12.75">
       <c r="A379" s="1"/>
@@ -4811,7 +4814,7 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="H379" s="2"/>
-      <c r="I379" s="8"/>
+      <c r="I379" s="7"/>
     </row>
     <row r="380" spans="1:9" ht="12.75">
       <c r="A380" s="1"/>
@@ -4822,7 +4825,7 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="H380" s="2"/>
-      <c r="I380" s="8"/>
+      <c r="I380" s="7"/>
     </row>
     <row r="381" spans="1:9" ht="12.75">
       <c r="A381" s="1"/>
@@ -4833,7 +4836,7 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="H381" s="2"/>
-      <c r="I381" s="8"/>
+      <c r="I381" s="7"/>
     </row>
     <row r="382" spans="1:9" ht="12.75">
       <c r="A382" s="1"/>
@@ -4844,7 +4847,7 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="H382" s="2"/>
-      <c r="I382" s="8"/>
+      <c r="I382" s="7"/>
     </row>
     <row r="383" spans="1:9" ht="12.75">
       <c r="A383" s="1"/>
@@ -4855,7 +4858,7 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="H383" s="2"/>
-      <c r="I383" s="8"/>
+      <c r="I383" s="7"/>
     </row>
     <row r="384" spans="1:9" ht="12.75">
       <c r="A384" s="1"/>
@@ -4866,7 +4869,7 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="H384" s="2"/>
-      <c r="I384" s="8"/>
+      <c r="I384" s="7"/>
     </row>
     <row r="385" spans="1:9" ht="12.75">
       <c r="A385" s="1"/>
@@ -4877,7 +4880,7 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="H385" s="2"/>
-      <c r="I385" s="8"/>
+      <c r="I385" s="7"/>
     </row>
     <row r="386" spans="1:9" ht="12.75">
       <c r="A386" s="1"/>
@@ -4888,7 +4891,7 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="H386" s="2"/>
-      <c r="I386" s="8"/>
+      <c r="I386" s="7"/>
     </row>
     <row r="387" spans="1:9" ht="12.75">
       <c r="A387" s="1"/>
@@ -4899,7 +4902,7 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="H387" s="2"/>
-      <c r="I387" s="8"/>
+      <c r="I387" s="7"/>
     </row>
     <row r="388" spans="1:9" ht="12.75">
       <c r="A388" s="1"/>
@@ -4910,7 +4913,7 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="H388" s="2"/>
-      <c r="I388" s="8"/>
+      <c r="I388" s="7"/>
     </row>
     <row r="389" spans="1:9" ht="12.75">
       <c r="A389" s="1"/>
@@ -4921,7 +4924,7 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="H389" s="2"/>
-      <c r="I389" s="8"/>
+      <c r="I389" s="7"/>
     </row>
     <row r="390" spans="1:9" ht="12.75">
       <c r="A390" s="1"/>
@@ -4932,7 +4935,7 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="H390" s="2"/>
-      <c r="I390" s="8"/>
+      <c r="I390" s="7"/>
     </row>
     <row r="391" spans="1:9" ht="12.75">
       <c r="A391" s="1"/>
@@ -4943,7 +4946,7 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="H391" s="2"/>
-      <c r="I391" s="8"/>
+      <c r="I391" s="7"/>
     </row>
     <row r="392" spans="1:9" ht="12.75">
       <c r="A392" s="1"/>
@@ -4954,7 +4957,7 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="H392" s="2"/>
-      <c r="I392" s="8"/>
+      <c r="I392" s="7"/>
     </row>
     <row r="393" spans="1:9" ht="12.75">
       <c r="A393" s="1"/>
@@ -4965,7 +4968,7 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="H393" s="2"/>
-      <c r="I393" s="8"/>
+      <c r="I393" s="7"/>
     </row>
     <row r="394" spans="1:9" ht="12.75">
       <c r="A394" s="1"/>
@@ -4976,7 +4979,7 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="H394" s="2"/>
-      <c r="I394" s="8"/>
+      <c r="I394" s="7"/>
     </row>
     <row r="395" spans="1:9" ht="12.75">
       <c r="A395" s="1"/>
@@ -4987,7 +4990,7 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="H395" s="2"/>
-      <c r="I395" s="8"/>
+      <c r="I395" s="7"/>
     </row>
     <row r="396" spans="1:9" ht="12.75">
       <c r="A396" s="1"/>
@@ -4998,7 +5001,7 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="H396" s="2"/>
-      <c r="I396" s="8"/>
+      <c r="I396" s="7"/>
     </row>
     <row r="397" spans="1:9" ht="12.75">
       <c r="A397" s="1"/>
@@ -5009,7 +5012,7 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="H397" s="2"/>
-      <c r="I397" s="8"/>
+      <c r="I397" s="7"/>
     </row>
     <row r="398" spans="1:9" ht="12.75">
       <c r="A398" s="1"/>
@@ -5020,7 +5023,7 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="H398" s="2"/>
-      <c r="I398" s="8"/>
+      <c r="I398" s="7"/>
     </row>
     <row r="399" spans="1:9" ht="12.75">
       <c r="A399" s="1"/>
@@ -5031,7 +5034,7 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="H399" s="2"/>
-      <c r="I399" s="8"/>
+      <c r="I399" s="7"/>
     </row>
     <row r="400" spans="1:9" ht="12.75">
       <c r="A400" s="1"/>
@@ -5042,7 +5045,7 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="H400" s="2"/>
-      <c r="I400" s="8"/>
+      <c r="I400" s="7"/>
     </row>
     <row r="401" spans="1:9" ht="12.75">
       <c r="A401" s="1"/>
@@ -5053,7 +5056,7 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="H401" s="2"/>
-      <c r="I401" s="8"/>
+      <c r="I401" s="7"/>
     </row>
     <row r="402" spans="1:9" ht="12.75">
       <c r="A402" s="1"/>
@@ -5064,7 +5067,7 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="H402" s="2"/>
-      <c r="I402" s="8"/>
+      <c r="I402" s="7"/>
     </row>
     <row r="403" spans="1:9" ht="12.75">
       <c r="A403" s="1"/>
@@ -5075,7 +5078,7 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="H403" s="2"/>
-      <c r="I403" s="8"/>
+      <c r="I403" s="7"/>
     </row>
     <row r="404" spans="1:9" ht="12.75">
       <c r="A404" s="1"/>
@@ -5086,7 +5089,7 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="H404" s="2"/>
-      <c r="I404" s="8"/>
+      <c r="I404" s="7"/>
     </row>
     <row r="405" spans="1:9" ht="12.75">
       <c r="A405" s="1"/>
@@ -5097,7 +5100,7 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="H405" s="2"/>
-      <c r="I405" s="8"/>
+      <c r="I405" s="7"/>
     </row>
     <row r="406" spans="1:9" ht="12.75">
       <c r="A406" s="1"/>
@@ -5108,7 +5111,7 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="H406" s="2"/>
-      <c r="I406" s="8"/>
+      <c r="I406" s="7"/>
     </row>
     <row r="407" spans="1:9" ht="12.75">
       <c r="A407" s="1"/>
@@ -5119,7 +5122,7 @@
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="H407" s="2"/>
-      <c r="I407" s="8"/>
+      <c r="I407" s="7"/>
     </row>
     <row r="408" spans="1:9" ht="12.75">
       <c r="A408" s="1"/>
@@ -5130,7 +5133,7 @@
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="H408" s="2"/>
-      <c r="I408" s="8"/>
+      <c r="I408" s="7"/>
     </row>
     <row r="409" spans="1:9" ht="12.75">
       <c r="A409" s="1"/>
@@ -5141,7 +5144,7 @@
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="H409" s="2"/>
-      <c r="I409" s="8"/>
+      <c r="I409" s="7"/>
     </row>
     <row r="410" spans="1:9" ht="12.75">
       <c r="A410" s="1"/>
@@ -5152,7 +5155,7 @@
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="H410" s="2"/>
-      <c r="I410" s="8"/>
+      <c r="I410" s="7"/>
     </row>
     <row r="411" spans="1:9" ht="12.75">
       <c r="A411" s="1"/>
@@ -5163,7 +5166,7 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
       <c r="H411" s="2"/>
-      <c r="I411" s="8"/>
+      <c r="I411" s="7"/>
     </row>
     <row r="412" spans="1:9" ht="12.75">
       <c r="A412" s="1"/>
@@ -5174,7 +5177,7 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="H412" s="2"/>
-      <c r="I412" s="8"/>
+      <c r="I412" s="7"/>
     </row>
     <row r="413" spans="1:9" ht="12.75">
       <c r="A413" s="1"/>
@@ -5185,7 +5188,7 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="H413" s="2"/>
-      <c r="I413" s="8"/>
+      <c r="I413" s="7"/>
     </row>
     <row r="414" spans="1:9" ht="12.75">
       <c r="A414" s="1"/>
@@ -5196,7 +5199,7 @@
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
       <c r="H414" s="2"/>
-      <c r="I414" s="8"/>
+      <c r="I414" s="7"/>
     </row>
     <row r="415" spans="1:9" ht="12.75">
       <c r="A415" s="1"/>
@@ -5207,7 +5210,7 @@
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
       <c r="H415" s="2"/>
-      <c r="I415" s="8"/>
+      <c r="I415" s="7"/>
     </row>
     <row r="416" spans="1:9" ht="12.75">
       <c r="A416" s="1"/>
@@ -5218,7 +5221,7 @@
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
       <c r="H416" s="2"/>
-      <c r="I416" s="8"/>
+      <c r="I416" s="7"/>
     </row>
     <row r="417" spans="1:9" ht="12.75">
       <c r="A417" s="1"/>
@@ -5229,7 +5232,7 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
       <c r="H417" s="2"/>
-      <c r="I417" s="8"/>
+      <c r="I417" s="7"/>
     </row>
     <row r="418" spans="1:9" ht="12.75">
       <c r="A418" s="1"/>
@@ -5240,7 +5243,7 @@
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="H418" s="2"/>
-      <c r="I418" s="8"/>
+      <c r="I418" s="7"/>
     </row>
     <row r="419" spans="1:9" ht="12.75">
       <c r="A419" s="1"/>
@@ -5251,7 +5254,7 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="H419" s="2"/>
-      <c r="I419" s="8"/>
+      <c r="I419" s="7"/>
     </row>
     <row r="420" spans="1:9" ht="12.75">
       <c r="A420" s="1"/>
@@ -5262,7 +5265,7 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="H420" s="2"/>
-      <c r="I420" s="8"/>
+      <c r="I420" s="7"/>
     </row>
     <row r="421" spans="1:9" ht="12.75">
       <c r="A421" s="1"/>
@@ -5273,7 +5276,7 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
       <c r="H421" s="2"/>
-      <c r="I421" s="8"/>
+      <c r="I421" s="7"/>
     </row>
     <row r="422" spans="1:9" ht="12.75">
       <c r="A422" s="1"/>
@@ -5284,7 +5287,7 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="H422" s="2"/>
-      <c r="I422" s="8"/>
+      <c r="I422" s="7"/>
     </row>
     <row r="423" spans="1:9" ht="12.75">
       <c r="A423" s="1"/>
@@ -5295,7 +5298,7 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="H423" s="2"/>
-      <c r="I423" s="8"/>
+      <c r="I423" s="7"/>
     </row>
     <row r="424" spans="1:9" ht="12.75">
       <c r="A424" s="1"/>
@@ -5306,7 +5309,7 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="H424" s="2"/>
-      <c r="I424" s="8"/>
+      <c r="I424" s="7"/>
     </row>
     <row r="425" spans="1:9" ht="12.75">
       <c r="A425" s="1"/>
@@ -5317,7 +5320,7 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="H425" s="2"/>
-      <c r="I425" s="8"/>
+      <c r="I425" s="7"/>
     </row>
     <row r="426" spans="1:9" ht="12.75">
       <c r="A426" s="1"/>
@@ -5328,7 +5331,7 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="H426" s="2"/>
-      <c r="I426" s="8"/>
+      <c r="I426" s="7"/>
     </row>
     <row r="427" spans="1:9" ht="12.75">
       <c r="A427" s="1"/>
@@ -5339,7 +5342,7 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="H427" s="2"/>
-      <c r="I427" s="8"/>
+      <c r="I427" s="7"/>
     </row>
     <row r="428" spans="1:9" ht="12.75">
       <c r="A428" s="1"/>
@@ -5350,7 +5353,7 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
       <c r="H428" s="2"/>
-      <c r="I428" s="8"/>
+      <c r="I428" s="7"/>
     </row>
     <row r="429" spans="1:9" ht="12.75">
       <c r="A429" s="1"/>
@@ -5361,7 +5364,7 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="H429" s="2"/>
-      <c r="I429" s="8"/>
+      <c r="I429" s="7"/>
     </row>
     <row r="430" spans="1:9" ht="12.75">
       <c r="A430" s="1"/>
@@ -5372,7 +5375,7 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
       <c r="H430" s="2"/>
-      <c r="I430" s="8"/>
+      <c r="I430" s="7"/>
     </row>
     <row r="431" spans="1:9" ht="12.75">
       <c r="A431" s="1"/>
@@ -5383,7 +5386,7 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
       <c r="H431" s="2"/>
-      <c r="I431" s="8"/>
+      <c r="I431" s="7"/>
     </row>
     <row r="432" spans="1:9" ht="12.75">
       <c r="A432" s="1"/>
@@ -5394,7 +5397,7 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
       <c r="H432" s="2"/>
-      <c r="I432" s="8"/>
+      <c r="I432" s="7"/>
     </row>
     <row r="433" spans="1:9" ht="12.75">
       <c r="A433" s="1"/>
@@ -5405,7 +5408,7 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
       <c r="H433" s="2"/>
-      <c r="I433" s="8"/>
+      <c r="I433" s="7"/>
     </row>
     <row r="434" spans="1:9" ht="12.75">
       <c r="A434" s="1"/>
@@ -5416,7 +5419,7 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
       <c r="H434" s="2"/>
-      <c r="I434" s="8"/>
+      <c r="I434" s="7"/>
     </row>
     <row r="435" spans="1:9" ht="12.75">
       <c r="A435" s="1"/>
@@ -5427,7 +5430,7 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
       <c r="H435" s="2"/>
-      <c r="I435" s="8"/>
+      <c r="I435" s="7"/>
     </row>
     <row r="436" spans="1:9" ht="12.75">
       <c r="A436" s="1"/>
@@ -5438,7 +5441,7 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
       <c r="H436" s="2"/>
-      <c r="I436" s="8"/>
+      <c r="I436" s="7"/>
     </row>
     <row r="437" spans="1:9" ht="12.75">
       <c r="A437" s="1"/>
@@ -5449,7 +5452,7 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
       <c r="H437" s="2"/>
-      <c r="I437" s="8"/>
+      <c r="I437" s="7"/>
     </row>
     <row r="438" spans="1:9" ht="12.75">
       <c r="A438" s="1"/>
@@ -5460,7 +5463,7 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
       <c r="H438" s="2"/>
-      <c r="I438" s="8"/>
+      <c r="I438" s="7"/>
     </row>
     <row r="439" spans="1:9" ht="12.75">
       <c r="A439" s="1"/>
@@ -5471,7 +5474,7 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
       <c r="H439" s="2"/>
-      <c r="I439" s="8"/>
+      <c r="I439" s="7"/>
     </row>
     <row r="440" spans="1:9" ht="12.75">
       <c r="A440" s="1"/>
@@ -5482,7 +5485,7 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="H440" s="2"/>
-      <c r="I440" s="8"/>
+      <c r="I440" s="7"/>
     </row>
     <row r="441" spans="1:9" ht="12.75">
       <c r="A441" s="1"/>
@@ -5493,7 +5496,7 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
       <c r="H441" s="2"/>
-      <c r="I441" s="8"/>
+      <c r="I441" s="7"/>
     </row>
     <row r="442" spans="1:9" ht="12.75">
       <c r="A442" s="1"/>
@@ -5504,7 +5507,7 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="H442" s="2"/>
-      <c r="I442" s="8"/>
+      <c r="I442" s="7"/>
     </row>
     <row r="443" spans="1:9" ht="12.75">
       <c r="A443" s="1"/>
@@ -5515,7 +5518,7 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="H443" s="2"/>
-      <c r="I443" s="8"/>
+      <c r="I443" s="7"/>
     </row>
     <row r="444" spans="1:9" ht="12.75">
       <c r="A444" s="1"/>
@@ -5526,7 +5529,7 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="H444" s="2"/>
-      <c r="I444" s="8"/>
+      <c r="I444" s="7"/>
     </row>
     <row r="445" spans="1:9" ht="12.75">
       <c r="A445" s="1"/>
@@ -5537,7 +5540,7 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="H445" s="2"/>
-      <c r="I445" s="8"/>
+      <c r="I445" s="7"/>
     </row>
     <row r="446" spans="1:9" ht="12.75">
       <c r="A446" s="1"/>
@@ -5548,7 +5551,7 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="H446" s="2"/>
-      <c r="I446" s="8"/>
+      <c r="I446" s="7"/>
     </row>
     <row r="447" spans="1:9" ht="12.75">
       <c r="A447" s="1"/>
@@ -5559,7 +5562,7 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="H447" s="2"/>
-      <c r="I447" s="8"/>
+      <c r="I447" s="7"/>
     </row>
     <row r="448" spans="1:9" ht="12.75">
       <c r="A448" s="1"/>
@@ -5570,7 +5573,7 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="H448" s="2"/>
-      <c r="I448" s="8"/>
+      <c r="I448" s="7"/>
     </row>
     <row r="449" spans="1:9" ht="12.75">
       <c r="A449" s="1"/>
@@ -5581,7 +5584,7 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="H449" s="2"/>
-      <c r="I449" s="8"/>
+      <c r="I449" s="7"/>
     </row>
     <row r="450" spans="1:9" ht="12.75">
       <c r="A450" s="1"/>
@@ -5592,7 +5595,7 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="H450" s="2"/>
-      <c r="I450" s="8"/>
+      <c r="I450" s="7"/>
     </row>
     <row r="451" spans="1:9" ht="12.75">
       <c r="A451" s="1"/>
@@ -5603,7 +5606,7 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="H451" s="2"/>
-      <c r="I451" s="8"/>
+      <c r="I451" s="7"/>
     </row>
     <row r="452" spans="1:9" ht="12.75">
       <c r="A452" s="1"/>
@@ -5614,7 +5617,7 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="H452" s="2"/>
-      <c r="I452" s="8"/>
+      <c r="I452" s="7"/>
     </row>
     <row r="453" spans="1:9" ht="12.75">
       <c r="A453" s="1"/>
@@ -5625,7 +5628,7 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="H453" s="2"/>
-      <c r="I453" s="8"/>
+      <c r="I453" s="7"/>
     </row>
     <row r="454" spans="1:9" ht="12.75">
       <c r="A454" s="1"/>
@@ -5636,7 +5639,7 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="H454" s="2"/>
-      <c r="I454" s="8"/>
+      <c r="I454" s="7"/>
     </row>
     <row r="455" spans="1:9" ht="12.75">
       <c r="A455" s="1"/>
@@ -5647,7 +5650,7 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
       <c r="H455" s="2"/>
-      <c r="I455" s="8"/>
+      <c r="I455" s="7"/>
     </row>
     <row r="456" spans="1:9" ht="12.75">
       <c r="A456" s="1"/>
@@ -5658,7 +5661,7 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="H456" s="2"/>
-      <c r="I456" s="8"/>
+      <c r="I456" s="7"/>
     </row>
     <row r="457" spans="1:9" ht="12.75">
       <c r="A457" s="1"/>
@@ -5669,7 +5672,7 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="H457" s="2"/>
-      <c r="I457" s="8"/>
+      <c r="I457" s="7"/>
     </row>
     <row r="458" spans="1:9" ht="12.75">
       <c r="A458" s="1"/>
@@ -5680,7 +5683,7 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="H458" s="2"/>
-      <c r="I458" s="8"/>
+      <c r="I458" s="7"/>
     </row>
     <row r="459" spans="1:9" ht="12.75">
       <c r="A459" s="1"/>
@@ -5691,7 +5694,7 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="H459" s="2"/>
-      <c r="I459" s="8"/>
+      <c r="I459" s="7"/>
     </row>
     <row r="460" spans="1:9" ht="12.75">
       <c r="A460" s="1"/>
@@ -5702,7 +5705,7 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="H460" s="2"/>
-      <c r="I460" s="8"/>
+      <c r="I460" s="7"/>
     </row>
     <row r="461" spans="1:9" ht="12.75">
       <c r="A461" s="1"/>
@@ -5713,7 +5716,7 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
       <c r="H461" s="2"/>
-      <c r="I461" s="8"/>
+      <c r="I461" s="7"/>
     </row>
     <row r="462" spans="1:9" ht="12.75">
       <c r="A462" s="1"/>
@@ -5724,7 +5727,7 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
       <c r="H462" s="2"/>
-      <c r="I462" s="8"/>
+      <c r="I462" s="7"/>
     </row>
     <row r="463" spans="1:9" ht="12.75">
       <c r="A463" s="1"/>
@@ -5735,7 +5738,7 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="H463" s="2"/>
-      <c r="I463" s="8"/>
+      <c r="I463" s="7"/>
     </row>
     <row r="464" spans="1:9" ht="12.75">
       <c r="A464" s="1"/>
@@ -5746,7 +5749,7 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="H464" s="2"/>
-      <c r="I464" s="8"/>
+      <c r="I464" s="7"/>
     </row>
     <row r="465" spans="1:9" ht="12.75">
       <c r="A465" s="1"/>
@@ -5757,7 +5760,7 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="H465" s="2"/>
-      <c r="I465" s="8"/>
+      <c r="I465" s="7"/>
     </row>
     <row r="466" spans="1:9" ht="12.75">
       <c r="A466" s="1"/>
@@ -5768,7 +5771,7 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="H466" s="2"/>
-      <c r="I466" s="8"/>
+      <c r="I466" s="7"/>
     </row>
     <row r="467" spans="1:9" ht="12.75">
       <c r="A467" s="1"/>
@@ -5779,7 +5782,7 @@
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
       <c r="H467" s="2"/>
-      <c r="I467" s="8"/>
+      <c r="I467" s="7"/>
     </row>
     <row r="468" spans="1:9" ht="12.75">
       <c r="A468" s="1"/>
@@ -5790,7 +5793,7 @@
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
       <c r="H468" s="2"/>
-      <c r="I468" s="8"/>
+      <c r="I468" s="7"/>
     </row>
     <row r="469" spans="1:9" ht="12.75">
       <c r="A469" s="1"/>
@@ -5801,7 +5804,7 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="H469" s="2"/>
-      <c r="I469" s="8"/>
+      <c r="I469" s="7"/>
     </row>
     <row r="470" spans="1:9" ht="12.75">
       <c r="A470" s="1"/>
@@ -5812,7 +5815,7 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="H470" s="2"/>
-      <c r="I470" s="8"/>
+      <c r="I470" s="7"/>
     </row>
     <row r="471" spans="1:9" ht="12.75">
       <c r="A471" s="1"/>
@@ -5823,7 +5826,7 @@
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
       <c r="H471" s="2"/>
-      <c r="I471" s="8"/>
+      <c r="I471" s="7"/>
     </row>
     <row r="472" spans="1:9" ht="12.75">
       <c r="A472" s="1"/>
@@ -5834,7 +5837,7 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
       <c r="H472" s="2"/>
-      <c r="I472" s="8"/>
+      <c r="I472" s="7"/>
     </row>
     <row r="473" spans="1:9" ht="12.75">
       <c r="A473" s="1"/>
@@ -5845,7 +5848,7 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="H473" s="2"/>
-      <c r="I473" s="8"/>
+      <c r="I473" s="7"/>
     </row>
     <row r="474" spans="1:9" ht="12.75">
       <c r="A474" s="1"/>
@@ -5856,7 +5859,7 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
       <c r="H474" s="2"/>
-      <c r="I474" s="8"/>
+      <c r="I474" s="7"/>
     </row>
     <row r="475" spans="1:9" ht="12.75">
       <c r="A475" s="1"/>
@@ -5867,7 +5870,7 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="H475" s="2"/>
-      <c r="I475" s="8"/>
+      <c r="I475" s="7"/>
     </row>
     <row r="476" spans="1:9" ht="12.75">
       <c r="A476" s="1"/>
@@ -5878,7 +5881,7 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="H476" s="2"/>
-      <c r="I476" s="8"/>
+      <c r="I476" s="7"/>
     </row>
     <row r="477" spans="1:9" ht="12.75">
       <c r="A477" s="1"/>
@@ -5889,7 +5892,7 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="H477" s="2"/>
-      <c r="I477" s="8"/>
+      <c r="I477" s="7"/>
     </row>
     <row r="478" spans="1:9" ht="12.75">
       <c r="A478" s="1"/>
@@ -5900,7 +5903,7 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="H478" s="2"/>
-      <c r="I478" s="8"/>
+      <c r="I478" s="7"/>
     </row>
     <row r="479" spans="1:9" ht="12.75">
       <c r="A479" s="1"/>
@@ -5911,7 +5914,7 @@
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="H479" s="2"/>
-      <c r="I479" s="8"/>
+      <c r="I479" s="7"/>
     </row>
     <row r="480" spans="1:9" ht="12.75">
       <c r="A480" s="1"/>
@@ -5922,7 +5925,7 @@
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
       <c r="H480" s="2"/>
-      <c r="I480" s="8"/>
+      <c r="I480" s="7"/>
     </row>
     <row r="481" spans="1:9" ht="12.75">
       <c r="A481" s="1"/>
@@ -5933,7 +5936,7 @@
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
       <c r="H481" s="2"/>
-      <c r="I481" s="8"/>
+      <c r="I481" s="7"/>
     </row>
     <row r="482" spans="1:9" ht="12.75">
       <c r="A482" s="1"/>
@@ -5944,7 +5947,7 @@
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
       <c r="H482" s="2"/>
-      <c r="I482" s="8"/>
+      <c r="I482" s="7"/>
     </row>
     <row r="483" spans="1:9" ht="12.75">
       <c r="A483" s="1"/>
@@ -5955,7 +5958,7 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
       <c r="H483" s="2"/>
-      <c r="I483" s="8"/>
+      <c r="I483" s="7"/>
     </row>
     <row r="484" spans="1:9" ht="12.75">
       <c r="A484" s="1"/>
@@ -5966,7 +5969,7 @@
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
       <c r="H484" s="2"/>
-      <c r="I484" s="8"/>
+      <c r="I484" s="7"/>
     </row>
     <row r="485" spans="1:9" ht="12.75">
       <c r="A485" s="1"/>
@@ -5977,7 +5980,7 @@
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
       <c r="H485" s="2"/>
-      <c r="I485" s="8"/>
+      <c r="I485" s="7"/>
     </row>
     <row r="486" spans="1:9" ht="12.75">
       <c r="A486" s="1"/>
@@ -5988,7 +5991,7 @@
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
       <c r="H486" s="2"/>
-      <c r="I486" s="8"/>
+      <c r="I486" s="7"/>
     </row>
     <row r="487" spans="1:9" ht="12.75">
       <c r="A487" s="1"/>
@@ -5999,7 +6002,7 @@
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
       <c r="H487" s="2"/>
-      <c r="I487" s="8"/>
+      <c r="I487" s="7"/>
     </row>
     <row r="488" spans="1:9" ht="12.75">
       <c r="A488" s="1"/>
@@ -6010,7 +6013,7 @@
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
       <c r="H488" s="2"/>
-      <c r="I488" s="8"/>
+      <c r="I488" s="7"/>
     </row>
     <row r="489" spans="1:9" ht="12.75">
       <c r="A489" s="1"/>
@@ -6021,7 +6024,7 @@
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
       <c r="H489" s="2"/>
-      <c r="I489" s="8"/>
+      <c r="I489" s="7"/>
     </row>
     <row r="490" spans="1:9" ht="12.75">
       <c r="A490" s="1"/>
@@ -6032,7 +6035,7 @@
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
       <c r="H490" s="2"/>
-      <c r="I490" s="8"/>
+      <c r="I490" s="7"/>
     </row>
     <row r="491" spans="1:9" ht="12.75">
       <c r="A491" s="1"/>
@@ -6043,7 +6046,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
       <c r="H491" s="2"/>
-      <c r="I491" s="8"/>
+      <c r="I491" s="7"/>
     </row>
     <row r="492" spans="1:9" ht="12.75">
       <c r="A492" s="1"/>
@@ -6054,7 +6057,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
       <c r="H492" s="2"/>
-      <c r="I492" s="8"/>
+      <c r="I492" s="7"/>
     </row>
     <row r="493" spans="1:9" ht="12.75">
       <c r="A493" s="1"/>
@@ -6065,7 +6068,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
       <c r="H493" s="2"/>
-      <c r="I493" s="8"/>
+      <c r="I493" s="7"/>
     </row>
     <row r="494" spans="1:9" ht="12.75">
       <c r="A494" s="1"/>
@@ -6076,7 +6079,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
       <c r="H494" s="2"/>
-      <c r="I494" s="8"/>
+      <c r="I494" s="7"/>
     </row>
     <row r="495" spans="1:9" ht="12.75">
       <c r="A495" s="1"/>
@@ -6087,7 +6090,7 @@
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
       <c r="H495" s="2"/>
-      <c r="I495" s="8"/>
+      <c r="I495" s="7"/>
     </row>
     <row r="496" spans="1:9" ht="12.75">
       <c r="A496" s="1"/>
@@ -6098,7 +6101,7 @@
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
       <c r="H496" s="2"/>
-      <c r="I496" s="8"/>
+      <c r="I496" s="7"/>
     </row>
     <row r="497" spans="1:9" ht="12.75">
       <c r="A497" s="1"/>
@@ -6109,7 +6112,7 @@
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
       <c r="H497" s="2"/>
-      <c r="I497" s="8"/>
+      <c r="I497" s="7"/>
     </row>
     <row r="498" spans="1:9" ht="12.75">
       <c r="A498" s="1"/>
@@ -6120,7 +6123,7 @@
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
       <c r="H498" s="2"/>
-      <c r="I498" s="8"/>
+      <c r="I498" s="7"/>
     </row>
     <row r="499" spans="1:9" ht="12.75">
       <c r="A499" s="1"/>
@@ -6131,7 +6134,7 @@
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
       <c r="H499" s="2"/>
-      <c r="I499" s="8"/>
+      <c r="I499" s="7"/>
     </row>
     <row r="500" spans="1:9" ht="12.75">
       <c r="A500" s="1"/>
@@ -6142,7 +6145,7 @@
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
       <c r="H500" s="2"/>
-      <c r="I500" s="8"/>
+      <c r="I500" s="7"/>
     </row>
     <row r="501" spans="1:9" ht="12.75">
       <c r="A501" s="1"/>
@@ -6153,7 +6156,7 @@
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
       <c r="H501" s="2"/>
-      <c r="I501" s="8"/>
+      <c r="I501" s="7"/>
     </row>
     <row r="502" spans="1:9" ht="12.75">
       <c r="A502" s="1"/>
@@ -6164,7 +6167,7 @@
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
       <c r="H502" s="2"/>
-      <c r="I502" s="8"/>
+      <c r="I502" s="7"/>
     </row>
     <row r="503" spans="1:9" ht="12.75">
       <c r="A503" s="1"/>
@@ -6175,7 +6178,7 @@
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
       <c r="H503" s="2"/>
-      <c r="I503" s="8"/>
+      <c r="I503" s="7"/>
     </row>
     <row r="504" spans="1:9" ht="12.75">
       <c r="A504" s="1"/>
@@ -6186,7 +6189,7 @@
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
       <c r="H504" s="2"/>
-      <c r="I504" s="8"/>
+      <c r="I504" s="7"/>
     </row>
     <row r="505" spans="1:9" ht="12.75">
       <c r="A505" s="1"/>
@@ -6197,7 +6200,7 @@
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
       <c r="H505" s="2"/>
-      <c r="I505" s="8"/>
+      <c r="I505" s="7"/>
     </row>
     <row r="506" spans="1:9" ht="12.75">
       <c r="A506" s="1"/>
@@ -6208,7 +6211,7 @@
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
       <c r="H506" s="2"/>
-      <c r="I506" s="8"/>
+      <c r="I506" s="7"/>
     </row>
     <row r="507" spans="1:9" ht="12.75">
       <c r="A507" s="1"/>
@@ -6219,7 +6222,7 @@
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
       <c r="H507" s="2"/>
-      <c r="I507" s="8"/>
+      <c r="I507" s="7"/>
     </row>
     <row r="508" spans="1:9" ht="12.75">
       <c r="A508" s="1"/>
@@ -6230,7 +6233,7 @@
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
       <c r="H508" s="2"/>
-      <c r="I508" s="8"/>
+      <c r="I508" s="7"/>
     </row>
     <row r="509" spans="1:9" ht="12.75">
       <c r="A509" s="1"/>
@@ -6241,7 +6244,7 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
       <c r="H509" s="2"/>
-      <c r="I509" s="8"/>
+      <c r="I509" s="7"/>
     </row>
     <row r="510" spans="1:9" ht="12.75">
       <c r="A510" s="1"/>
@@ -6252,7 +6255,7 @@
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
       <c r="H510" s="2"/>
-      <c r="I510" s="8"/>
+      <c r="I510" s="7"/>
     </row>
     <row r="511" spans="1:9" ht="12.75">
       <c r="A511" s="1"/>
@@ -6263,7 +6266,7 @@
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
       <c r="H511" s="2"/>
-      <c r="I511" s="8"/>
+      <c r="I511" s="7"/>
     </row>
     <row r="512" spans="1:9" ht="12.75">
       <c r="A512" s="1"/>
@@ -6274,7 +6277,7 @@
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
       <c r="H512" s="2"/>
-      <c r="I512" s="8"/>
+      <c r="I512" s="7"/>
     </row>
     <row r="513" spans="1:9" ht="12.75">
       <c r="A513" s="1"/>
@@ -6285,7 +6288,7 @@
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
       <c r="H513" s="2"/>
-      <c r="I513" s="8"/>
+      <c r="I513" s="7"/>
     </row>
     <row r="514" spans="1:9" ht="12.75">
       <c r="A514" s="1"/>
@@ -6296,7 +6299,7 @@
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
       <c r="H514" s="2"/>
-      <c r="I514" s="8"/>
+      <c r="I514" s="7"/>
     </row>
     <row r="515" spans="1:9" ht="12.75">
       <c r="A515" s="1"/>
@@ -6307,7 +6310,7 @@
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
       <c r="H515" s="2"/>
-      <c r="I515" s="8"/>
+      <c r="I515" s="7"/>
     </row>
     <row r="516" spans="1:9" ht="12.75">
       <c r="A516" s="1"/>
@@ -6318,7 +6321,7 @@
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
       <c r="H516" s="2"/>
-      <c r="I516" s="8"/>
+      <c r="I516" s="7"/>
     </row>
     <row r="517" spans="1:9" ht="12.75">
       <c r="A517" s="1"/>
@@ -6329,7 +6332,7 @@
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
       <c r="H517" s="2"/>
-      <c r="I517" s="8"/>
+      <c r="I517" s="7"/>
     </row>
     <row r="518" spans="1:9" ht="12.75">
       <c r="A518" s="1"/>
@@ -6340,7 +6343,7 @@
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
       <c r="H518" s="2"/>
-      <c r="I518" s="8"/>
+      <c r="I518" s="7"/>
     </row>
     <row r="519" spans="1:9" ht="12.75">
       <c r="A519" s="1"/>
@@ -6351,7 +6354,7 @@
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
       <c r="H519" s="2"/>
-      <c r="I519" s="8"/>
+      <c r="I519" s="7"/>
     </row>
     <row r="520" spans="1:9" ht="12.75">
       <c r="A520" s="1"/>
@@ -6362,7 +6365,7 @@
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
       <c r="H520" s="2"/>
-      <c r="I520" s="8"/>
+      <c r="I520" s="7"/>
     </row>
     <row r="521" spans="1:9" ht="12.75">
       <c r="A521" s="1"/>
@@ -6373,7 +6376,7 @@
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
       <c r="H521" s="2"/>
-      <c r="I521" s="8"/>
+      <c r="I521" s="7"/>
     </row>
     <row r="522" spans="1:9" ht="12.75">
       <c r="A522" s="1"/>
@@ -6384,7 +6387,7 @@
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
       <c r="H522" s="2"/>
-      <c r="I522" s="8"/>
+      <c r="I522" s="7"/>
     </row>
     <row r="523" spans="1:9" ht="12.75">
       <c r="A523" s="1"/>
@@ -6395,7 +6398,7 @@
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
       <c r="H523" s="2"/>
-      <c r="I523" s="8"/>
+      <c r="I523" s="7"/>
     </row>
     <row r="524" spans="1:9" ht="12.75">
       <c r="A524" s="1"/>
@@ -6406,7 +6409,7 @@
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
       <c r="H524" s="2"/>
-      <c r="I524" s="8"/>
+      <c r="I524" s="7"/>
     </row>
     <row r="525" spans="1:9" ht="12.75">
       <c r="A525" s="1"/>
@@ -6417,7 +6420,7 @@
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
       <c r="H525" s="2"/>
-      <c r="I525" s="8"/>
+      <c r="I525" s="7"/>
     </row>
     <row r="526" spans="1:9" ht="12.75">
       <c r="A526" s="1"/>
@@ -6428,7 +6431,7 @@
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
       <c r="H526" s="2"/>
-      <c r="I526" s="8"/>
+      <c r="I526" s="7"/>
     </row>
     <row r="527" spans="1:9" ht="12.75">
       <c r="A527" s="1"/>
@@ -6439,7 +6442,7 @@
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
       <c r="H527" s="2"/>
-      <c r="I527" s="8"/>
+      <c r="I527" s="7"/>
     </row>
     <row r="528" spans="1:9" ht="12.75">
       <c r="A528" s="1"/>
@@ -6450,7 +6453,7 @@
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
       <c r="H528" s="2"/>
-      <c r="I528" s="8"/>
+      <c r="I528" s="7"/>
     </row>
     <row r="529" spans="1:9" ht="12.75">
       <c r="A529" s="1"/>
@@ -6461,7 +6464,7 @@
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
       <c r="H529" s="2"/>
-      <c r="I529" s="8"/>
+      <c r="I529" s="7"/>
     </row>
     <row r="530" spans="1:9" ht="12.75">
       <c r="A530" s="1"/>
@@ -6472,7 +6475,7 @@
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
       <c r="H530" s="2"/>
-      <c r="I530" s="8"/>
+      <c r="I530" s="7"/>
     </row>
     <row r="531" spans="1:9" ht="12.75">
       <c r="A531" s="1"/>
@@ -6483,7 +6486,7 @@
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
       <c r="H531" s="2"/>
-      <c r="I531" s="8"/>
+      <c r="I531" s="7"/>
     </row>
     <row r="532" spans="1:9" ht="12.75">
       <c r="A532" s="1"/>
@@ -6494,7 +6497,7 @@
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
       <c r="H532" s="2"/>
-      <c r="I532" s="8"/>
+      <c r="I532" s="7"/>
     </row>
     <row r="533" spans="1:9" ht="12.75">
       <c r="A533" s="1"/>
@@ -6505,7 +6508,7 @@
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
       <c r="H533" s="2"/>
-      <c r="I533" s="8"/>
+      <c r="I533" s="7"/>
     </row>
     <row r="534" spans="1:9" ht="12.75">
       <c r="A534" s="1"/>
@@ -6516,7 +6519,7 @@
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
       <c r="H534" s="2"/>
-      <c r="I534" s="8"/>
+      <c r="I534" s="7"/>
     </row>
     <row r="535" spans="1:9" ht="12.75">
       <c r="A535" s="1"/>
@@ -6527,7 +6530,7 @@
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
       <c r="H535" s="2"/>
-      <c r="I535" s="8"/>
+      <c r="I535" s="7"/>
     </row>
     <row r="536" spans="1:9" ht="12.75">
       <c r="A536" s="1"/>
@@ -6538,7 +6541,7 @@
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
       <c r="H536" s="2"/>
-      <c r="I536" s="8"/>
+      <c r="I536" s="7"/>
     </row>
     <row r="537" spans="1:9" ht="12.75">
       <c r="A537" s="1"/>
@@ -6549,7 +6552,7 @@
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
       <c r="H537" s="2"/>
-      <c r="I537" s="8"/>
+      <c r="I537" s="7"/>
     </row>
     <row r="538" spans="1:9" ht="12.75">
       <c r="A538" s="1"/>
@@ -6560,7 +6563,7 @@
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
       <c r="H538" s="2"/>
-      <c r="I538" s="8"/>
+      <c r="I538" s="7"/>
     </row>
     <row r="539" spans="1:9" ht="12.75">
       <c r="A539" s="1"/>
@@ -6571,7 +6574,7 @@
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
       <c r="H539" s="2"/>
-      <c r="I539" s="8"/>
+      <c r="I539" s="7"/>
     </row>
     <row r="540" spans="1:9" ht="12.75">
       <c r="A540" s="1"/>
@@ -6582,7 +6585,7 @@
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
       <c r="H540" s="2"/>
-      <c r="I540" s="8"/>
+      <c r="I540" s="7"/>
     </row>
     <row r="541" spans="1:9" ht="12.75">
       <c r="A541" s="1"/>
@@ -6593,7 +6596,7 @@
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
       <c r="H541" s="2"/>
-      <c r="I541" s="8"/>
+      <c r="I541" s="7"/>
     </row>
     <row r="542" spans="1:9" ht="12.75">
       <c r="A542" s="1"/>
@@ -6604,7 +6607,7 @@
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
       <c r="H542" s="2"/>
-      <c r="I542" s="8"/>
+      <c r="I542" s="7"/>
     </row>
     <row r="543" spans="1:9" ht="12.75">
       <c r="A543" s="1"/>
@@ -6615,7 +6618,7 @@
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
       <c r="H543" s="2"/>
-      <c r="I543" s="8"/>
+      <c r="I543" s="7"/>
     </row>
     <row r="544" spans="1:9" ht="12.75">
       <c r="A544" s="1"/>
@@ -6626,7 +6629,7 @@
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
       <c r="H544" s="2"/>
-      <c r="I544" s="8"/>
+      <c r="I544" s="7"/>
     </row>
     <row r="545" spans="1:9" ht="12.75">
       <c r="A545" s="1"/>
@@ -6637,7 +6640,7 @@
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
       <c r="H545" s="2"/>
-      <c r="I545" s="8"/>
+      <c r="I545" s="7"/>
     </row>
     <row r="546" spans="1:9" ht="12.75">
       <c r="A546" s="1"/>
@@ -6648,7 +6651,7 @@
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
       <c r="H546" s="2"/>
-      <c r="I546" s="8"/>
+      <c r="I546" s="7"/>
     </row>
     <row r="547" spans="1:9" ht="12.75">
       <c r="A547" s="1"/>
@@ -6659,7 +6662,7 @@
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
       <c r="H547" s="2"/>
-      <c r="I547" s="8"/>
+      <c r="I547" s="7"/>
     </row>
     <row r="548" spans="1:9" ht="12.75">
       <c r="A548" s="1"/>
@@ -6670,7 +6673,7 @@
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
       <c r="H548" s="2"/>
-      <c r="I548" s="8"/>
+      <c r="I548" s="7"/>
     </row>
     <row r="549" spans="1:9" ht="12.75">
       <c r="A549" s="1"/>
@@ -6681,7 +6684,7 @@
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
       <c r="H549" s="2"/>
-      <c r="I549" s="8"/>
+      <c r="I549" s="7"/>
     </row>
     <row r="550" spans="1:9" ht="12.75">
       <c r="A550" s="1"/>
@@ -6692,7 +6695,7 @@
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
       <c r="H550" s="2"/>
-      <c r="I550" s="8"/>
+      <c r="I550" s="7"/>
     </row>
     <row r="551" spans="1:9" ht="12.75">
       <c r="A551" s="1"/>
@@ -6703,7 +6706,7 @@
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
       <c r="H551" s="2"/>
-      <c r="I551" s="8"/>
+      <c r="I551" s="7"/>
     </row>
     <row r="552" spans="1:9" ht="12.75">
       <c r="A552" s="1"/>
@@ -6714,7 +6717,7 @@
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
       <c r="H552" s="2"/>
-      <c r="I552" s="8"/>
+      <c r="I552" s="7"/>
     </row>
     <row r="553" spans="1:9" ht="12.75">
       <c r="A553" s="1"/>
@@ -6725,7 +6728,7 @@
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
       <c r="H553" s="2"/>
-      <c r="I553" s="8"/>
+      <c r="I553" s="7"/>
     </row>
     <row r="554" spans="1:9" ht="12.75">
       <c r="A554" s="1"/>
@@ -6736,7 +6739,7 @@
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
       <c r="H554" s="2"/>
-      <c r="I554" s="8"/>
+      <c r="I554" s="7"/>
     </row>
     <row r="555" spans="1:9" ht="12.75">
       <c r="A555" s="1"/>
@@ -6747,7 +6750,7 @@
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
       <c r="H555" s="2"/>
-      <c r="I555" s="8"/>
+      <c r="I555" s="7"/>
     </row>
     <row r="556" spans="1:9" ht="12.75">
       <c r="A556" s="1"/>
@@ -6758,7 +6761,7 @@
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
       <c r="H556" s="2"/>
-      <c r="I556" s="8"/>
+      <c r="I556" s="7"/>
     </row>
     <row r="557" spans="1:9" ht="12.75">
       <c r="A557" s="1"/>
@@ -6769,7 +6772,7 @@
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
       <c r="H557" s="2"/>
-      <c r="I557" s="8"/>
+      <c r="I557" s="7"/>
     </row>
     <row r="558" spans="1:9" ht="12.75">
       <c r="A558" s="1"/>
@@ -6780,7 +6783,7 @@
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
       <c r="H558" s="2"/>
-      <c r="I558" s="8"/>
+      <c r="I558" s="7"/>
     </row>
     <row r="559" spans="1:9" ht="12.75">
       <c r="A559" s="1"/>
@@ -6791,7 +6794,7 @@
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
       <c r="H559" s="2"/>
-      <c r="I559" s="8"/>
+      <c r="I559" s="7"/>
     </row>
     <row r="560" spans="1:9" ht="12.75">
       <c r="A560" s="1"/>
@@ -6802,7 +6805,7 @@
       <c r="F560" s="1"/>
       <c r="G560" s="1"/>
       <c r="H560" s="2"/>
-      <c r="I560" s="8"/>
+      <c r="I560" s="7"/>
     </row>
     <row r="561" spans="1:9" ht="12.75">
       <c r="A561" s="1"/>
@@ -6813,7 +6816,7 @@
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
       <c r="H561" s="2"/>
-      <c r="I561" s="8"/>
+      <c r="I561" s="7"/>
     </row>
     <row r="562" spans="1:9" ht="12.75">
       <c r="A562" s="1"/>
@@ -6824,7 +6827,7 @@
       <c r="F562" s="1"/>
       <c r="G562" s="1"/>
       <c r="H562" s="2"/>
-      <c r="I562" s="8"/>
+      <c r="I562" s="7"/>
     </row>
     <row r="563" spans="1:9" ht="12.75">
       <c r="A563" s="1"/>
@@ -6835,7 +6838,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
       <c r="H563" s="2"/>
-      <c r="I563" s="8"/>
+      <c r="I563" s="7"/>
     </row>
     <row r="564" spans="1:9" ht="12.75">
       <c r="A564" s="1"/>
@@ -6846,7 +6849,7 @@
       <c r="F564" s="1"/>
       <c r="G564" s="1"/>
       <c r="H564" s="2"/>
-      <c r="I564" s="8"/>
+      <c r="I564" s="7"/>
     </row>
     <row r="565" spans="1:9" ht="12.75">
       <c r="A565" s="1"/>
@@ -6857,7 +6860,7 @@
       <c r="F565" s="1"/>
       <c r="G565" s="1"/>
       <c r="H565" s="2"/>
-      <c r="I565" s="8"/>
+      <c r="I565" s="7"/>
     </row>
     <row r="566" spans="1:9" ht="12.75">
       <c r="A566" s="1"/>
@@ -6868,7 +6871,7 @@
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
       <c r="H566" s="2"/>
-      <c r="I566" s="8"/>
+      <c r="I566" s="7"/>
     </row>
     <row r="567" spans="1:9" ht="12.75">
       <c r="A567" s="1"/>
@@ -6879,7 +6882,7 @@
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
       <c r="H567" s="2"/>
-      <c r="I567" s="8"/>
+      <c r="I567" s="7"/>
     </row>
     <row r="568" spans="1:9" ht="12.75">
       <c r="A568" s="1"/>
@@ -6890,7 +6893,7 @@
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
       <c r="H568" s="2"/>
-      <c r="I568" s="8"/>
+      <c r="I568" s="7"/>
     </row>
     <row r="569" spans="1:9" ht="12.75">
       <c r="A569" s="1"/>
@@ -6901,7 +6904,7 @@
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
       <c r="H569" s="2"/>
-      <c r="I569" s="8"/>
+      <c r="I569" s="7"/>
     </row>
     <row r="570" spans="1:9" ht="12.75">
       <c r="A570" s="1"/>
@@ -6912,7 +6915,7 @@
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
       <c r="H570" s="2"/>
-      <c r="I570" s="8"/>
+      <c r="I570" s="7"/>
     </row>
     <row r="571" spans="1:9" ht="12.75">
       <c r="A571" s="1"/>
@@ -6923,7 +6926,7 @@
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>
       <c r="H571" s="2"/>
-      <c r="I571" s="8"/>
+      <c r="I571" s="7"/>
     </row>
     <row r="572" spans="1:9" ht="12.75">
       <c r="A572" s="1"/>
@@ -6934,7 +6937,7 @@
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
       <c r="H572" s="2"/>
-      <c r="I572" s="8"/>
+      <c r="I572" s="7"/>
     </row>
     <row r="573" spans="1:9" ht="12.75">
       <c r="A573" s="1"/>
@@ -6945,7 +6948,7 @@
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
       <c r="H573" s="2"/>
-      <c r="I573" s="8"/>
+      <c r="I573" s="7"/>
     </row>
     <row r="574" spans="1:9" ht="12.75">
       <c r="A574" s="1"/>
@@ -6956,7 +6959,7 @@
       <c r="F574" s="1"/>
       <c r="G574" s="1"/>
       <c r="H574" s="2"/>
-      <c r="I574" s="8"/>
+      <c r="I574" s="7"/>
     </row>
     <row r="575" spans="1:9" ht="12.75">
       <c r="A575" s="1"/>
@@ -6967,7 +6970,7 @@
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
       <c r="H575" s="2"/>
-      <c r="I575" s="8"/>
+      <c r="I575" s="7"/>
     </row>
     <row r="576" spans="1:9" ht="12.75">
       <c r="A576" s="1"/>
@@ -6978,7 +6981,7 @@
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
       <c r="H576" s="2"/>
-      <c r="I576" s="8"/>
+      <c r="I576" s="7"/>
     </row>
     <row r="577" spans="1:9" ht="12.75">
       <c r="A577" s="1"/>
@@ -6989,7 +6992,7 @@
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
       <c r="H577" s="2"/>
-      <c r="I577" s="8"/>
+      <c r="I577" s="7"/>
     </row>
     <row r="578" spans="1:9" ht="12.75">
       <c r="A578" s="1"/>
@@ -7000,7 +7003,7 @@
       <c r="F578" s="1"/>
       <c r="G578" s="1"/>
       <c r="H578" s="2"/>
-      <c r="I578" s="8"/>
+      <c r="I578" s="7"/>
     </row>
     <row r="579" spans="1:9" ht="12.75">
       <c r="A579" s="1"/>
@@ -7011,7 +7014,7 @@
       <c r="F579" s="1"/>
       <c r="G579" s="1"/>
       <c r="H579" s="2"/>
-      <c r="I579" s="8"/>
+      <c r="I579" s="7"/>
     </row>
     <row r="580" spans="1:9" ht="12.75">
       <c r="A580" s="1"/>
@@ -7022,7 +7025,7 @@
       <c r="F580" s="1"/>
       <c r="G580" s="1"/>
       <c r="H580" s="2"/>
-      <c r="I580" s="8"/>
+      <c r="I580" s="7"/>
     </row>
     <row r="581" spans="1:9" ht="12.75">
       <c r="A581" s="1"/>
@@ -7033,7 +7036,7 @@
       <c r="F581" s="1"/>
       <c r="G581" s="1"/>
       <c r="H581" s="2"/>
-      <c r="I581" s="8"/>
+      <c r="I581" s="7"/>
     </row>
     <row r="582" spans="1:9" ht="12.75">
       <c r="A582" s="1"/>
@@ -7044,7 +7047,7 @@
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
       <c r="H582" s="2"/>
-      <c r="I582" s="8"/>
+      <c r="I582" s="7"/>
     </row>
     <row r="583" spans="1:9" ht="12.75">
       <c r="A583" s="1"/>
@@ -7055,7 +7058,7 @@
       <c r="F583" s="1"/>
       <c r="G583" s="1"/>
       <c r="H583" s="2"/>
-      <c r="I583" s="8"/>
+      <c r="I583" s="7"/>
     </row>
     <row r="584" spans="1:9" ht="12.75">
       <c r="A584" s="1"/>
@@ -7066,7 +7069,7 @@
       <c r="F584" s="1"/>
       <c r="G584" s="1"/>
       <c r="H584" s="2"/>
-      <c r="I584" s="8"/>
+      <c r="I584" s="7"/>
     </row>
     <row r="585" spans="1:9" ht="12.75">
       <c r="A585" s="1"/>
@@ -7077,7 +7080,7 @@
       <c r="F585" s="1"/>
       <c r="G585" s="1"/>
       <c r="H585" s="2"/>
-      <c r="I585" s="8"/>
+      <c r="I585" s="7"/>
     </row>
     <row r="586" spans="1:9" ht="12.75">
       <c r="A586" s="1"/>
@@ -7088,7 +7091,7 @@
       <c r="F586" s="1"/>
       <c r="G586" s="1"/>
       <c r="H586" s="2"/>
-      <c r="I586" s="8"/>
+      <c r="I586" s="7"/>
     </row>
     <row r="587" spans="1:9" ht="12.75">
       <c r="A587" s="1"/>
@@ -7099,7 +7102,7 @@
       <c r="F587" s="1"/>
       <c r="G587" s="1"/>
       <c r="H587" s="2"/>
-      <c r="I587" s="8"/>
+      <c r="I587" s="7"/>
     </row>
     <row r="588" spans="1:9" ht="12.75">
       <c r="A588" s="1"/>
@@ -7110,7 +7113,7 @@
       <c r="F588" s="1"/>
       <c r="G588" s="1"/>
       <c r="H588" s="2"/>
-      <c r="I588" s="8"/>
+      <c r="I588" s="7"/>
     </row>
     <row r="589" spans="1:9" ht="12.75">
       <c r="A589" s="1"/>
@@ -7121,7 +7124,7 @@
       <c r="F589" s="1"/>
       <c r="G589" s="1"/>
       <c r="H589" s="2"/>
-      <c r="I589" s="8"/>
+      <c r="I589" s="7"/>
     </row>
     <row r="590" spans="1:9" ht="12.75">
       <c r="A590" s="1"/>
@@ -7132,7 +7135,7 @@
       <c r="F590" s="1"/>
       <c r="G590" s="1"/>
       <c r="H590" s="2"/>
-      <c r="I590" s="8"/>
+      <c r="I590" s="7"/>
     </row>
     <row r="591" spans="1:9" ht="12.75">
       <c r="A591" s="1"/>
@@ -7143,7 +7146,7 @@
       <c r="F591" s="1"/>
       <c r="G591" s="1"/>
       <c r="H591" s="2"/>
-      <c r="I591" s="8"/>
+      <c r="I591" s="7"/>
     </row>
     <row r="592" spans="1:9" ht="12.75">
       <c r="A592" s="1"/>
@@ -7154,7 +7157,7 @@
       <c r="F592" s="1"/>
       <c r="G592" s="1"/>
       <c r="H592" s="2"/>
-      <c r="I592" s="8"/>
+      <c r="I592" s="7"/>
     </row>
     <row r="593" spans="1:9" ht="12.75">
       <c r="A593" s="1"/>
@@ -7165,7 +7168,7 @@
       <c r="F593" s="1"/>
       <c r="G593" s="1"/>
       <c r="H593" s="2"/>
-      <c r="I593" s="8"/>
+      <c r="I593" s="7"/>
     </row>
     <row r="594" spans="1:9" ht="12.75">
       <c r="A594" s="1"/>
@@ -7176,7 +7179,7 @@
       <c r="F594" s="1"/>
       <c r="G594" s="1"/>
       <c r="H594" s="2"/>
-      <c r="I594" s="8"/>
+      <c r="I594" s="7"/>
     </row>
     <row r="595" spans="1:9" ht="12.75">
       <c r="A595" s="1"/>
@@ -7187,7 +7190,7 @@
       <c r="F595" s="1"/>
       <c r="G595" s="1"/>
       <c r="H595" s="2"/>
-      <c r="I595" s="8"/>
+      <c r="I595" s="7"/>
     </row>
     <row r="596" spans="1:9" ht="12.75">
       <c r="A596" s="1"/>
@@ -7198,7 +7201,7 @@
       <c r="F596" s="1"/>
       <c r="G596" s="1"/>
       <c r="H596" s="2"/>
-      <c r="I596" s="8"/>
+      <c r="I596" s="7"/>
     </row>
     <row r="597" spans="1:9" ht="12.75">
       <c r="A597" s="1"/>
@@ -7209,7 +7212,7 @@
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
       <c r="H597" s="2"/>
-      <c r="I597" s="8"/>
+      <c r="I597" s="7"/>
     </row>
     <row r="598" spans="1:9" ht="12.75">
       <c r="A598" s="1"/>
@@ -7220,7 +7223,7 @@
       <c r="F598" s="1"/>
       <c r="G598" s="1"/>
       <c r="H598" s="2"/>
-      <c r="I598" s="8"/>
+      <c r="I598" s="7"/>
     </row>
     <row r="599" spans="1:9" ht="12.75">
       <c r="A599" s="1"/>
@@ -7231,7 +7234,7 @@
       <c r="F599" s="1"/>
       <c r="G599" s="1"/>
       <c r="H599" s="2"/>
-      <c r="I599" s="8"/>
+      <c r="I599" s="7"/>
     </row>
     <row r="600" spans="1:9" ht="12.75">
       <c r="A600" s="1"/>
@@ -7242,7 +7245,7 @@
       <c r="F600" s="1"/>
       <c r="G600" s="1"/>
       <c r="H600" s="2"/>
-      <c r="I600" s="8"/>
+      <c r="I600" s="7"/>
     </row>
     <row r="601" spans="1:9" ht="12.75">
       <c r="A601" s="1"/>
@@ -7253,7 +7256,7 @@
       <c r="F601" s="1"/>
       <c r="G601" s="1"/>
       <c r="H601" s="2"/>
-      <c r="I601" s="8"/>
+      <c r="I601" s="7"/>
     </row>
     <row r="602" spans="1:9" ht="12.75">
       <c r="A602" s="1"/>
@@ -7264,7 +7267,7 @@
       <c r="F602" s="1"/>
       <c r="G602" s="1"/>
       <c r="H602" s="2"/>
-      <c r="I602" s="8"/>
+      <c r="I602" s="7"/>
     </row>
     <row r="603" spans="1:9" ht="12.75">
       <c r="A603" s="1"/>
@@ -7275,7 +7278,7 @@
       <c r="F603" s="1"/>
       <c r="G603" s="1"/>
       <c r="H603" s="2"/>
-      <c r="I603" s="8"/>
+      <c r="I603" s="7"/>
     </row>
     <row r="604" spans="1:9" ht="12.75">
       <c r="A604" s="1"/>
@@ -7286,7 +7289,7 @@
       <c r="F604" s="1"/>
       <c r="G604" s="1"/>
       <c r="H604" s="2"/>
-      <c r="I604" s="8"/>
+      <c r="I604" s="7"/>
     </row>
     <row r="605" spans="1:9" ht="12.75">
       <c r="A605" s="1"/>
@@ -7297,7 +7300,7 @@
       <c r="F605" s="1"/>
       <c r="G605" s="1"/>
       <c r="H605" s="2"/>
-      <c r="I605" s="8"/>
+      <c r="I605" s="7"/>
     </row>
     <row r="606" spans="1:9" ht="12.75">
       <c r="A606" s="1"/>
@@ -7308,7 +7311,7 @@
       <c r="F606" s="1"/>
       <c r="G606" s="1"/>
       <c r="H606" s="2"/>
-      <c r="I606" s="8"/>
+      <c r="I606" s="7"/>
     </row>
     <row r="607" spans="1:9" ht="12.75">
       <c r="A607" s="1"/>
@@ -7319,7 +7322,7 @@
       <c r="F607" s="1"/>
       <c r="G607" s="1"/>
       <c r="H607" s="2"/>
-      <c r="I607" s="8"/>
+      <c r="I607" s="7"/>
     </row>
     <row r="608" spans="1:9" ht="12.75">
       <c r="A608" s="1"/>
@@ -7330,7 +7333,7 @@
       <c r="F608" s="1"/>
       <c r="G608" s="1"/>
       <c r="H608" s="2"/>
-      <c r="I608" s="8"/>
+      <c r="I608" s="7"/>
     </row>
     <row r="609" spans="1:9" ht="12.75">
       <c r="A609" s="1"/>
@@ -7341,7 +7344,7 @@
       <c r="F609" s="1"/>
       <c r="G609" s="1"/>
       <c r="H609" s="2"/>
-      <c r="I609" s="8"/>
+      <c r="I609" s="7"/>
     </row>
     <row r="610" spans="1:9" ht="12.75">
       <c r="A610" s="1"/>
@@ -7352,7 +7355,7 @@
       <c r="F610" s="1"/>
       <c r="G610" s="1"/>
       <c r="H610" s="2"/>
-      <c r="I610" s="8"/>
+      <c r="I610" s="7"/>
     </row>
     <row r="611" spans="1:9" ht="12.75">
       <c r="A611" s="1"/>
@@ -7363,7 +7366,7 @@
       <c r="F611" s="1"/>
       <c r="G611" s="1"/>
       <c r="H611" s="2"/>
-      <c r="I611" s="8"/>
+      <c r="I611" s="7"/>
     </row>
     <row r="612" spans="1:9" ht="12.75">
       <c r="A612" s="1"/>
@@ -7374,7 +7377,7 @@
       <c r="F612" s="1"/>
       <c r="G612" s="1"/>
       <c r="H612" s="2"/>
-      <c r="I612" s="8"/>
+      <c r="I612" s="7"/>
     </row>
     <row r="613" spans="1:9" ht="12.75">
       <c r="A613" s="1"/>
@@ -7385,7 +7388,7 @@
       <c r="F613" s="1"/>
       <c r="G613" s="1"/>
       <c r="H613" s="2"/>
-      <c r="I613" s="8"/>
+      <c r="I613" s="7"/>
     </row>
     <row r="614" spans="1:9" ht="12.75">
       <c r="A614" s="1"/>
@@ -7396,7 +7399,7 @@
       <c r="F614" s="1"/>
       <c r="G614" s="1"/>
       <c r="H614" s="2"/>
-      <c r="I614" s="8"/>
+      <c r="I614" s="7"/>
     </row>
     <row r="615" spans="1:9" ht="12.75">
       <c r="A615" s="1"/>
@@ -7407,7 +7410,7 @@
       <c r="F615" s="1"/>
       <c r="G615" s="1"/>
       <c r="H615" s="2"/>
-      <c r="I615" s="8"/>
+      <c r="I615" s="7"/>
     </row>
     <row r="616" spans="1:9" ht="12.75">
       <c r="A616" s="1"/>
@@ -7418,7 +7421,7 @@
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
       <c r="H616" s="2"/>
-      <c r="I616" s="8"/>
+      <c r="I616" s="7"/>
     </row>
     <row r="617" spans="1:9" ht="12.75">
       <c r="A617" s="1"/>
@@ -7429,7 +7432,7 @@
       <c r="F617" s="1"/>
       <c r="G617" s="1"/>
       <c r="H617" s="2"/>
-      <c r="I617" s="8"/>
+      <c r="I617" s="7"/>
     </row>
     <row r="618" spans="1:9" ht="12.75">
       <c r="A618" s="1"/>
@@ -7440,7 +7443,7 @@
       <c r="F618" s="1"/>
       <c r="G618" s="1"/>
       <c r="H618" s="2"/>
-      <c r="I618" s="8"/>
+      <c r="I618" s="7"/>
     </row>
     <row r="619" spans="1:9" ht="12.75">
       <c r="A619" s="1"/>
@@ -7451,7 +7454,7 @@
       <c r="F619" s="1"/>
       <c r="G619" s="1"/>
       <c r="H619" s="2"/>
-      <c r="I619" s="8"/>
+      <c r="I619" s="7"/>
     </row>
     <row r="620" spans="1:9" ht="12.75">
       <c r="A620" s="1"/>
@@ -7462,7 +7465,7 @@
       <c r="F620" s="1"/>
       <c r="G620" s="1"/>
       <c r="H620" s="2"/>
-      <c r="I620" s="8"/>
+      <c r="I620" s="7"/>
     </row>
     <row r="621" spans="1:9" ht="12.75">
       <c r="A621" s="1"/>
@@ -7473,7 +7476,7 @@
       <c r="F621" s="1"/>
       <c r="G621" s="1"/>
       <c r="H621" s="2"/>
-      <c r="I621" s="8"/>
+      <c r="I621" s="7"/>
     </row>
     <row r="622" spans="1:9" ht="12.75">
       <c r="A622" s="1"/>
@@ -7484,7 +7487,7 @@
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
       <c r="H622" s="2"/>
-      <c r="I622" s="8"/>
+      <c r="I622" s="7"/>
     </row>
     <row r="623" spans="1:9" ht="12.75">
       <c r="A623" s="1"/>
@@ -7495,7 +7498,7 @@
       <c r="F623" s="1"/>
       <c r="G623" s="1"/>
       <c r="H623" s="2"/>
-      <c r="I623" s="8"/>
+      <c r="I623" s="7"/>
     </row>
     <row r="624" spans="1:9" ht="12.75">
       <c r="A624" s="1"/>
@@ -7506,7 +7509,7 @@
       <c r="F624" s="1"/>
       <c r="G624" s="1"/>
       <c r="H624" s="2"/>
-      <c r="I624" s="8"/>
+      <c r="I624" s="7"/>
     </row>
     <row r="625" spans="1:9" ht="12.75">
       <c r="A625" s="1"/>
@@ -7517,7 +7520,7 @@
       <c r="F625" s="1"/>
       <c r="G625" s="1"/>
       <c r="H625" s="2"/>
-      <c r="I625" s="8"/>
+      <c r="I625" s="7"/>
     </row>
     <row r="626" spans="1:9" ht="12.75">
       <c r="A626" s="1"/>
@@ -7528,7 +7531,7 @@
       <c r="F626" s="1"/>
       <c r="G626" s="1"/>
       <c r="H626" s="2"/>
-      <c r="I626" s="8"/>
+      <c r="I626" s="7"/>
     </row>
     <row r="627" spans="1:9" ht="12.75">
       <c r="A627" s="1"/>
@@ -7539,7 +7542,7 @@
       <c r="F627" s="1"/>
       <c r="G627" s="1"/>
       <c r="H627" s="2"/>
-      <c r="I627" s="8"/>
+      <c r="I627" s="7"/>
     </row>
     <row r="628" spans="1:9" ht="12.75">
       <c r="A628" s="1"/>
@@ -7550,7 +7553,7 @@
       <c r="F628" s="1"/>
       <c r="G628" s="1"/>
       <c r="H628" s="2"/>
-      <c r="I628" s="8"/>
+      <c r="I628" s="7"/>
     </row>
     <row r="629" spans="1:9" ht="12.75">
       <c r="A629" s="1"/>
@@ -7561,7 +7564,7 @@
       <c r="F629" s="1"/>
       <c r="G629" s="1"/>
       <c r="H629" s="2"/>
-      <c r="I629" s="8"/>
+      <c r="I629" s="7"/>
     </row>
     <row r="630" spans="1:9" ht="12.75">
       <c r="A630" s="1"/>
@@ -7572,7 +7575,7 @@
       <c r="F630" s="1"/>
       <c r="G630" s="1"/>
       <c r="H630" s="2"/>
-      <c r="I630" s="8"/>
+      <c r="I630" s="7"/>
     </row>
     <row r="631" spans="1:9" ht="12.75">
       <c r="A631" s="1"/>
@@ -7583,7 +7586,7 @@
       <c r="F631" s="1"/>
       <c r="G631" s="1"/>
       <c r="H631" s="2"/>
-      <c r="I631" s="8"/>
+      <c r="I631" s="7"/>
     </row>
     <row r="632" spans="1:9" ht="12.75">
       <c r="A632" s="1"/>
@@ -7594,7 +7597,7 @@
       <c r="F632" s="1"/>
       <c r="G632" s="1"/>
       <c r="H632" s="2"/>
-      <c r="I632" s="8"/>
+      <c r="I632" s="7"/>
     </row>
     <row r="633" spans="1:9" ht="12.75">
       <c r="A633" s="1"/>
@@ -7605,7 +7608,7 @@
       <c r="F633" s="1"/>
       <c r="G633" s="1"/>
       <c r="H633" s="2"/>
-      <c r="I633" s="8"/>
+      <c r="I633" s="7"/>
     </row>
     <row r="634" spans="1:9" ht="12.75">
       <c r="A634" s="1"/>
@@ -7616,7 +7619,7 @@
       <c r="F634" s="1"/>
       <c r="G634" s="1"/>
       <c r="H634" s="2"/>
-      <c r="I634" s="8"/>
+      <c r="I634" s="7"/>
     </row>
     <row r="635" spans="1:9" ht="12.75">
       <c r="A635" s="1"/>
@@ -7627,7 +7630,7 @@
       <c r="F635" s="1"/>
       <c r="G635" s="1"/>
       <c r="H635" s="2"/>
-      <c r="I635" s="8"/>
+      <c r="I635" s="7"/>
     </row>
     <row r="636" spans="1:9" ht="12.75">
       <c r="A636" s="1"/>
@@ -7638,7 +7641,7 @@
       <c r="F636" s="1"/>
       <c r="G636" s="1"/>
       <c r="H636" s="2"/>
-      <c r="I636" s="8"/>
+      <c r="I636" s="7"/>
     </row>
     <row r="637" spans="1:9" ht="12.75">
       <c r="A637" s="1"/>
@@ -7649,7 +7652,7 @@
       <c r="F637" s="1"/>
       <c r="G637" s="1"/>
       <c r="H637" s="2"/>
-      <c r="I637" s="8"/>
+      <c r="I637" s="7"/>
     </row>
     <row r="638" spans="1:9" ht="12.75">
       <c r="A638" s="1"/>
@@ -7660,7 +7663,7 @@
       <c r="F638" s="1"/>
       <c r="G638" s="1"/>
       <c r="H638" s="2"/>
-      <c r="I638" s="8"/>
+      <c r="I638" s="7"/>
     </row>
     <row r="639" spans="1:9" ht="12.75">
       <c r="A639" s="1"/>
@@ -7671,7 +7674,7 @@
       <c r="F639" s="1"/>
       <c r="G639" s="1"/>
       <c r="H639" s="2"/>
-      <c r="I639" s="8"/>
+      <c r="I639" s="7"/>
     </row>
     <row r="640" spans="1:9" ht="12.75">
       <c r="A640" s="1"/>
@@ -7682,7 +7685,7 @@
       <c r="F640" s="1"/>
       <c r="G640" s="1"/>
       <c r="H640" s="2"/>
-      <c r="I640" s="8"/>
+      <c r="I640" s="7"/>
     </row>
     <row r="641" spans="1:9" ht="12.75">
       <c r="A641" s="1"/>
@@ -7693,7 +7696,7 @@
       <c r="F641" s="1"/>
       <c r="G641" s="1"/>
       <c r="H641" s="2"/>
-      <c r="I641" s="8"/>
+      <c r="I641" s="7"/>
     </row>
     <row r="642" spans="1:9" ht="12.75">
       <c r="A642" s="1"/>
@@ -7704,7 +7707,7 @@
       <c r="F642" s="1"/>
       <c r="G642" s="1"/>
       <c r="H642" s="2"/>
-      <c r="I642" s="8"/>
+      <c r="I642" s="7"/>
     </row>
     <row r="643" spans="1:9" ht="12.75">
       <c r="A643" s="1"/>
@@ -7715,7 +7718,7 @@
       <c r="F643" s="1"/>
       <c r="G643" s="1"/>
       <c r="H643" s="2"/>
-      <c r="I643" s="8"/>
+      <c r="I643" s="7"/>
     </row>
     <row r="644" spans="1:9" ht="12.75">
       <c r="A644" s="1"/>
@@ -7726,7 +7729,7 @@
       <c r="F644" s="1"/>
       <c r="G644" s="1"/>
       <c r="H644" s="2"/>
-      <c r="I644" s="8"/>
+      <c r="I644" s="7"/>
     </row>
     <row r="645" spans="1:9" ht="12.75">
       <c r="A645" s="1"/>
@@ -7737,7 +7740,7 @@
       <c r="F645" s="1"/>
       <c r="G645" s="1"/>
       <c r="H645" s="2"/>
-      <c r="I645" s="8"/>
+      <c r="I645" s="7"/>
     </row>
     <row r="646" spans="1:9" ht="12.75">
       <c r="A646" s="1"/>
@@ -7748,7 +7751,7 @@
       <c r="F646" s="1"/>
       <c r="G646" s="1"/>
       <c r="H646" s="2"/>
-      <c r="I646" s="8"/>
+      <c r="I646" s="7"/>
     </row>
     <row r="647" spans="1:9" ht="12.75">
       <c r="A647" s="1"/>
@@ -7759,7 +7762,7 @@
       <c r="F647" s="1"/>
       <c r="G647" s="1"/>
       <c r="H647" s="2"/>
-      <c r="I647" s="8"/>
+      <c r="I647" s="7"/>
     </row>
     <row r="648" spans="1:9" ht="12.75">
       <c r="A648" s="1"/>
@@ -7770,7 +7773,7 @@
       <c r="F648" s="1"/>
       <c r="G648" s="1"/>
       <c r="H648" s="2"/>
-      <c r="I648" s="8"/>
+      <c r="I648" s="7"/>
     </row>
     <row r="649" spans="1:9" ht="12.75">
       <c r="A649" s="1"/>
@@ -7781,7 +7784,7 @@
       <c r="F649" s="1"/>
       <c r="G649" s="1"/>
       <c r="H649" s="2"/>
-      <c r="I649" s="8"/>
+      <c r="I649" s="7"/>
     </row>
     <row r="650" spans="1:9" ht="12.75">
       <c r="A650" s="1"/>
@@ -7792,7 +7795,7 @@
       <c r="F650" s="1"/>
       <c r="G650" s="1"/>
       <c r="H650" s="2"/>
-      <c r="I650" s="8"/>
+      <c r="I650" s="7"/>
     </row>
     <row r="651" spans="1:9" ht="12.75">
       <c r="A651" s="1"/>
@@ -7803,7 +7806,7 @@
       <c r="F651" s="1"/>
       <c r="G651" s="1"/>
       <c r="H651" s="2"/>
-      <c r="I651" s="8"/>
+      <c r="I651" s="7"/>
     </row>
     <row r="652" spans="1:9" ht="12.75">
       <c r="A652" s="1"/>
@@ -7814,7 +7817,7 @@
       <c r="F652" s="1"/>
       <c r="G652" s="1"/>
       <c r="H652" s="2"/>
-      <c r="I652" s="8"/>
+      <c r="I652" s="7"/>
     </row>
     <row r="653" spans="1:9" ht="12.75">
       <c r="A653" s="1"/>
@@ -7825,7 +7828,7 @@
       <c r="F653" s="1"/>
       <c r="G653" s="1"/>
       <c r="H653" s="2"/>
-      <c r="I653" s="8"/>
+      <c r="I653" s="7"/>
     </row>
     <row r="654" spans="1:9" ht="12.75">
       <c r="A654" s="1"/>
@@ -7836,7 +7839,7 @@
       <c r="F654" s="1"/>
       <c r="G654" s="1"/>
       <c r="H654" s="2"/>
-      <c r="I654" s="8"/>
+      <c r="I654" s="7"/>
     </row>
     <row r="655" spans="1:9" ht="12.75">
       <c r="A655" s="1"/>
@@ -7847,7 +7850,7 @@
       <c r="F655" s="1"/>
       <c r="G655" s="1"/>
       <c r="H655" s="2"/>
-      <c r="I655" s="8"/>
+      <c r="I655" s="7"/>
     </row>
     <row r="656" spans="1:9" ht="12.75">
       <c r="A656" s="1"/>
@@ -7858,7 +7861,7 @@
       <c r="F656" s="1"/>
       <c r="G656" s="1"/>
       <c r="H656" s="2"/>
-      <c r="I656" s="8"/>
+      <c r="I656" s="7"/>
     </row>
     <row r="657" spans="1:9" ht="12.75">
       <c r="A657" s="1"/>
@@ -7869,7 +7872,7 @@
       <c r="F657" s="1"/>
       <c r="G657" s="1"/>
       <c r="H657" s="2"/>
-      <c r="I657" s="8"/>
+      <c r="I657" s="7"/>
     </row>
     <row r="658" spans="1:9" ht="12.75">
       <c r="A658" s="1"/>
@@ -7880,7 +7883,7 @@
       <c r="F658" s="1"/>
       <c r="G658" s="1"/>
       <c r="H658" s="2"/>
-      <c r="I658" s="8"/>
+      <c r="I658" s="7"/>
     </row>
     <row r="659" spans="1:9" ht="12.75">
       <c r="A659" s="1"/>
@@ -7891,7 +7894,7 @@
       <c r="F659" s="1"/>
       <c r="G659" s="1"/>
       <c r="H659" s="2"/>
-      <c r="I659" s="8"/>
+      <c r="I659" s="7"/>
     </row>
     <row r="660" spans="1:9" ht="12.75">
       <c r="A660" s="1"/>
@@ -7902,7 +7905,7 @@
       <c r="F660" s="1"/>
       <c r="G660" s="1"/>
       <c r="H660" s="2"/>
-      <c r="I660" s="8"/>
+      <c r="I660" s="7"/>
     </row>
     <row r="661" spans="1:9" ht="12.75">
       <c r="A661" s="1"/>
@@ -7913,7 +7916,7 @@
       <c r="F661" s="1"/>
       <c r="G661" s="1"/>
       <c r="H661" s="2"/>
-      <c r="I661" s="8"/>
+      <c r="I661" s="7"/>
     </row>
     <row r="662" spans="1:9" ht="12.75">
       <c r="A662" s="1"/>
@@ -7924,7 +7927,7 @@
       <c r="F662" s="1"/>
       <c r="G662" s="1"/>
       <c r="H662" s="2"/>
-      <c r="I662" s="8"/>
+      <c r="I662" s="7"/>
     </row>
     <row r="663" spans="1:9" ht="12.75">
       <c r="A663" s="1"/>
@@ -7935,7 +7938,7 @@
       <c r="F663" s="1"/>
       <c r="G663" s="1"/>
       <c r="H663" s="2"/>
-      <c r="I663" s="8"/>
+      <c r="I663" s="7"/>
     </row>
     <row r="664" spans="1:9" ht="12.75">
       <c r="A664" s="1"/>
@@ -7946,7 +7949,7 @@
       <c r="F664" s="1"/>
       <c r="G664" s="1"/>
       <c r="H664" s="2"/>
-      <c r="I664" s="8"/>
+      <c r="I664" s="7"/>
     </row>
     <row r="665" spans="1:9" ht="12.75">
       <c r="A665" s="1"/>
@@ -7957,7 +7960,7 @@
       <c r="F665" s="1"/>
       <c r="G665" s="1"/>
       <c r="H665" s="2"/>
-      <c r="I665" s="8"/>
+      <c r="I665" s="7"/>
     </row>
     <row r="666" spans="1:9" ht="12.75">
       <c r="A666" s="1"/>
@@ -7968,7 +7971,7 @@
       <c r="F666" s="1"/>
       <c r="G666" s="1"/>
       <c r="H666" s="2"/>
-      <c r="I666" s="8"/>
+      <c r="I666" s="7"/>
     </row>
     <row r="667" spans="1:9" ht="12.75">
       <c r="A667" s="1"/>
@@ -7979,7 +7982,7 @@
       <c r="F667" s="1"/>
       <c r="G667" s="1"/>
       <c r="H667" s="2"/>
-      <c r="I667" s="8"/>
+      <c r="I667" s="7"/>
     </row>
     <row r="668" spans="1:9" ht="12.75">
       <c r="A668" s="1"/>
@@ -7990,7 +7993,7 @@
       <c r="F668" s="1"/>
       <c r="G668" s="1"/>
       <c r="H668" s="2"/>
-      <c r="I668" s="8"/>
+      <c r="I668" s="7"/>
     </row>
     <row r="669" spans="1:9" ht="12.75">
       <c r="A669" s="1"/>
@@ -8001,7 +8004,7 @@
       <c r="F669" s="1"/>
       <c r="G669" s="1"/>
       <c r="H669" s="2"/>
-      <c r="I669" s="8"/>
+      <c r="I669" s="7"/>
     </row>
     <row r="670" spans="1:9" ht="12.75">
       <c r="A670" s="1"/>
@@ -8012,7 +8015,7 @@
       <c r="F670" s="1"/>
       <c r="G670" s="1"/>
       <c r="H670" s="2"/>
-      <c r="I670" s="8"/>
+      <c r="I670" s="7"/>
     </row>
     <row r="671" spans="1:9" ht="12.75">
       <c r="A671" s="1"/>
@@ -8023,7 +8026,7 @@
       <c r="F671" s="1"/>
       <c r="G671" s="1"/>
       <c r="H671" s="2"/>
-      <c r="I671" s="8"/>
+      <c r="I671" s="7"/>
     </row>
     <row r="672" spans="1:9" ht="12.75">
       <c r="A672" s="1"/>
@@ -8034,7 +8037,7 @@
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
       <c r="H672" s="2"/>
-      <c r="I672" s="8"/>
+      <c r="I672" s="7"/>
     </row>
     <row r="673" spans="1:9" ht="12.75">
       <c r="A673" s="1"/>
@@ -8045,7 +8048,7 @@
       <c r="F673" s="1"/>
       <c r="G673" s="1"/>
       <c r="H673" s="2"/>
-      <c r="I673" s="8"/>
+      <c r="I673" s="7"/>
     </row>
     <row r="674" spans="1:9" ht="12.75">
       <c r="A674" s="1"/>
@@ -8056,7 +8059,7 @@
       <c r="F674" s="1"/>
       <c r="G674" s="1"/>
       <c r="H674" s="2"/>
-      <c r="I674" s="8"/>
+      <c r="I674" s="7"/>
     </row>
     <row r="675" spans="1:9" ht="12.75">
       <c r="A675" s="1"/>
@@ -8067,7 +8070,7 @@
       <c r="F675" s="1"/>
       <c r="G675" s="1"/>
       <c r="H675" s="2"/>
-      <c r="I675" s="8"/>
+      <c r="I675" s="7"/>
     </row>
     <row r="676" spans="1:9" ht="12.75">
       <c r="A676" s="1"/>
@@ -8078,7 +8081,7 @@
       <c r="F676" s="1"/>
       <c r="G676" s="1"/>
       <c r="H676" s="2"/>
-      <c r="I676" s="8"/>
+      <c r="I676" s="7"/>
     </row>
     <row r="677" spans="1:9" ht="12.75">
       <c r="A677" s="1"/>
@@ -8089,7 +8092,7 @@
       <c r="F677" s="1"/>
       <c r="G677" s="1"/>
       <c r="H677" s="2"/>
-      <c r="I677" s="8"/>
+      <c r="I677" s="7"/>
     </row>
     <row r="678" spans="1:9" ht="12.75">
       <c r="A678" s="1"/>
@@ -8100,7 +8103,7 @@
       <c r="F678" s="1"/>
       <c r="G678" s="1"/>
       <c r="H678" s="2"/>
-      <c r="I678" s="8"/>
+      <c r="I678" s="7"/>
     </row>
     <row r="679" spans="1:9" ht="12.75">
       <c r="A679" s="1"/>
@@ -8111,7 +8114,7 @@
       <c r="F679" s="1"/>
       <c r="G679" s="1"/>
       <c r="H679" s="2"/>
-      <c r="I679" s="8"/>
+      <c r="I679" s="7"/>
     </row>
     <row r="680" spans="1:9" ht="12.75">
       <c r="A680" s="1"/>
@@ -8122,7 +8125,7 @@
       <c r="F680" s="1"/>
       <c r="G680" s="1"/>
       <c r="H680" s="2"/>
-      <c r="I680" s="8"/>
+      <c r="I680" s="7"/>
     </row>
     <row r="681" spans="1:9" ht="12.75">
       <c r="A681" s="1"/>
@@ -8133,7 +8136,7 @@
       <c r="F681" s="1"/>
       <c r="G681" s="1"/>
       <c r="H681" s="2"/>
-      <c r="I681" s="8"/>
+      <c r="I681" s="7"/>
     </row>
     <row r="682" spans="1:9" ht="12.75">
       <c r="A682" s="1"/>
@@ -8144,7 +8147,7 @@
       <c r="F682" s="1"/>
       <c r="G682" s="1"/>
       <c r="H682" s="2"/>
-      <c r="I682" s="8"/>
+      <c r="I682" s="7"/>
     </row>
     <row r="683" spans="1:9" ht="12.75">
       <c r="A683" s="1"/>
@@ -8155,7 +8158,7 @@
       <c r="F683" s="1"/>
       <c r="G683" s="1"/>
       <c r="H683" s="2"/>
-      <c r="I683" s="8"/>
+      <c r="I683" s="7"/>
     </row>
     <row r="684" spans="1:9" ht="12.75">
       <c r="A684" s="1"/>
@@ -8166,7 +8169,7 @@
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
       <c r="H684" s="2"/>
-      <c r="I684" s="8"/>
+      <c r="I684" s="7"/>
     </row>
     <row r="685" spans="1:9" ht="12.75">
       <c r="A685" s="1"/>
@@ -8177,7 +8180,7 @@
       <c r="F685" s="1"/>
       <c r="G685" s="1"/>
       <c r="H685" s="2"/>
-      <c r="I685" s="8"/>
+      <c r="I685" s="7"/>
     </row>
     <row r="686" spans="1:9" ht="12.75">
       <c r="A686" s="1"/>
@@ -8188,7 +8191,7 @@
       <c r="F686" s="1"/>
       <c r="G686" s="1"/>
       <c r="H686" s="2"/>
-      <c r="I686" s="8"/>
+      <c r="I686" s="7"/>
     </row>
     <row r="687" spans="1:9" ht="12.75">
       <c r="A687" s="1"/>
@@ -8199,7 +8202,7 @@
       <c r="F687" s="1"/>
       <c r="G687" s="1"/>
       <c r="H687" s="2"/>
-      <c r="I687" s="8"/>
+      <c r="I687" s="7"/>
     </row>
     <row r="688" spans="1:9" ht="12.75">
       <c r="A688" s="1"/>
@@ -8210,7 +8213,7 @@
       <c r="F688" s="1"/>
       <c r="G688" s="1"/>
       <c r="H688" s="2"/>
-      <c r="I688" s="8"/>
+      <c r="I688" s="7"/>
     </row>
     <row r="689" spans="1:9" ht="12.75">
       <c r="A689" s="1"/>
@@ -8221,7 +8224,7 @@
       <c r="F689" s="1"/>
       <c r="G689" s="1"/>
       <c r="H689" s="2"/>
-      <c r="I689" s="8"/>
+      <c r="I689" s="7"/>
     </row>
     <row r="690" spans="1:9" ht="12.75">
       <c r="A690" s="1"/>
@@ -8232,7 +8235,7 @@
       <c r="F690" s="1"/>
       <c r="G690" s="1"/>
       <c r="H690" s="2"/>
-      <c r="I690" s="8"/>
+      <c r="I690" s="7"/>
     </row>
     <row r="691" spans="1:9" ht="12.75">
       <c r="A691" s="1"/>
@@ -8243,7 +8246,7 @@
       <c r="F691" s="1"/>
       <c r="G691" s="1"/>
       <c r="H691" s="2"/>
-      <c r="I691" s="8"/>
+      <c r="I691" s="7"/>
     </row>
     <row r="692" spans="1:9" ht="12.75">
       <c r="A692" s="1"/>
@@ -8254,7 +8257,7 @@
       <c r="F692" s="1"/>
       <c r="G692" s="1"/>
       <c r="H692" s="2"/>
-      <c r="I692" s="8"/>
+      <c r="I692" s="7"/>
     </row>
     <row r="693" spans="1:9" ht="12.75">
       <c r="A693" s="1"/>
@@ -8265,7 +8268,7 @@
       <c r="F693" s="1"/>
       <c r="G693" s="1"/>
       <c r="H693" s="2"/>
-      <c r="I693" s="8"/>
+      <c r="I693" s="7"/>
     </row>
     <row r="694" spans="1:9" ht="12.75">
       <c r="A694" s="1"/>
@@ -8276,7 +8279,7 @@
       <c r="F694" s="1"/>
       <c r="G694" s="1"/>
       <c r="H694" s="2"/>
-      <c r="I694" s="8"/>
+      <c r="I694" s="7"/>
     </row>
     <row r="695" spans="1:9" ht="12.75">
       <c r="A695" s="1"/>
@@ -8287,7 +8290,7 @@
       <c r="F695" s="1"/>
       <c r="G695" s="1"/>
       <c r="H695" s="2"/>
-      <c r="I695" s="8"/>
+      <c r="I695" s="7"/>
     </row>
     <row r="696" spans="1:9" ht="12.75">
       <c r="A696" s="1"/>
@@ -8298,7 +8301,7 @@
       <c r="F696" s="1"/>
       <c r="G696" s="1"/>
       <c r="H696" s="2"/>
-      <c r="I696" s="8"/>
+      <c r="I696" s="7"/>
     </row>
     <row r="697" spans="1:9" ht="12.75">
       <c r="A697" s="1"/>
@@ -8309,7 +8312,7 @@
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
       <c r="H697" s="2"/>
-      <c r="I697" s="8"/>
+      <c r="I697" s="7"/>
     </row>
     <row r="698" spans="1:9" ht="12.75">
       <c r="A698" s="1"/>
@@ -8320,7 +8323,7 @@
       <c r="F698" s="1"/>
       <c r="G698" s="1"/>
       <c r="H698" s="2"/>
-      <c r="I698" s="8"/>
+      <c r="I698" s="7"/>
     </row>
     <row r="699" spans="1:9" ht="12.75">
       <c r="A699" s="1"/>
@@ -8331,7 +8334,7 @@
       <c r="F699" s="1"/>
       <c r="G699" s="1"/>
       <c r="H699" s="2"/>
-      <c r="I699" s="8"/>
+      <c r="I699" s="7"/>
     </row>
     <row r="700" spans="1:9" ht="12.75">
       <c r="A700" s="1"/>
@@ -8342,7 +8345,7 @@
       <c r="F700" s="1"/>
       <c r="G700" s="1"/>
       <c r="H700" s="2"/>
-      <c r="I700" s="8"/>
+      <c r="I700" s="7"/>
     </row>
     <row r="701" spans="1:9" ht="12.75">
       <c r="A701" s="1"/>
@@ -8353,7 +8356,7 @@
       <c r="F701" s="1"/>
       <c r="G701" s="1"/>
       <c r="H701" s="2"/>
-      <c r="I701" s="8"/>
+      <c r="I701" s="7"/>
     </row>
     <row r="702" spans="1:9" ht="12.75">
       <c r="A702" s="1"/>
@@ -8364,7 +8367,7 @@
       <c r="F702" s="1"/>
       <c r="G702" s="1"/>
       <c r="H702" s="2"/>
-      <c r="I702" s="8"/>
+      <c r="I702" s="7"/>
     </row>
     <row r="703" spans="1:9" ht="12.75">
       <c r="A703" s="1"/>
@@ -8375,7 +8378,7 @@
       <c r="F703" s="1"/>
       <c r="G703" s="1"/>
       <c r="H703" s="2"/>
-      <c r="I703" s="8"/>
+      <c r="I703" s="7"/>
     </row>
     <row r="704" spans="1:9" ht="12.75">
       <c r="A704" s="1"/>
@@ -8386,7 +8389,7 @@
       <c r="F704" s="1"/>
       <c r="G704" s="1"/>
       <c r="H704" s="2"/>
-      <c r="I704" s="8"/>
+      <c r="I704" s="7"/>
     </row>
     <row r="705" spans="1:9" ht="12.75">
       <c r="A705" s="1"/>
@@ -8397,7 +8400,7 @@
       <c r="F705" s="1"/>
       <c r="G705" s="1"/>
       <c r="H705" s="2"/>
-      <c r="I705" s="8"/>
+      <c r="I705" s="7"/>
     </row>
     <row r="706" spans="1:9" ht="12.75">
       <c r="A706" s="1"/>
@@ -8408,7 +8411,7 @@
       <c r="F706" s="1"/>
       <c r="G706" s="1"/>
       <c r="H706" s="2"/>
-      <c r="I706" s="8"/>
+      <c r="I706" s="7"/>
     </row>
     <row r="707" spans="1:9" ht="12.75">
       <c r="A707" s="1"/>
@@ -8419,7 +8422,7 @@
       <c r="F707" s="1"/>
       <c r="G707" s="1"/>
       <c r="H707" s="2"/>
-      <c r="I707" s="8"/>
+      <c r="I707" s="7"/>
     </row>
     <row r="708" spans="1:9" ht="12.75">
       <c r="A708" s="1"/>
@@ -8430,7 +8433,7 @@
       <c r="F708" s="1"/>
       <c r="G708" s="1"/>
       <c r="H708" s="2"/>
-      <c r="I708" s="8"/>
+      <c r="I708" s="7"/>
     </row>
     <row r="709" spans="1:9" ht="12.75">
       <c r="A709" s="1"/>
@@ -8441,7 +8444,7 @@
       <c r="F709" s="1"/>
       <c r="G709" s="1"/>
       <c r="H709" s="2"/>
-      <c r="I709" s="8"/>
+      <c r="I709" s="7"/>
     </row>
     <row r="710" spans="1:9" ht="12.75">
       <c r="A710" s="1"/>
@@ -8452,7 +8455,7 @@
       <c r="F710" s="1"/>
       <c r="G710" s="1"/>
       <c r="H710" s="2"/>
-      <c r="I710" s="8"/>
+      <c r="I710" s="7"/>
     </row>
     <row r="711" spans="1:9" ht="12.75">
       <c r="A711" s="1"/>
@@ -8463,7 +8466,7 @@
       <c r="F711" s="1"/>
       <c r="G711" s="1"/>
       <c r="H711" s="2"/>
-      <c r="I711" s="8"/>
+      <c r="I711" s="7"/>
     </row>
     <row r="712" spans="1:9" ht="12.75">
       <c r="A712" s="1"/>
@@ -8474,7 +8477,7 @@
       <c r="F712" s="1"/>
       <c r="G712" s="1"/>
       <c r="H712" s="2"/>
-      <c r="I712" s="8"/>
+      <c r="I712" s="7"/>
     </row>
     <row r="713" spans="1:9" ht="12.75">
       <c r="A713" s="1"/>
@@ -8485,7 +8488,7 @@
       <c r="F713" s="1"/>
       <c r="G713" s="1"/>
       <c r="H713" s="2"/>
-      <c r="I713" s="8"/>
+      <c r="I713" s="7"/>
     </row>
     <row r="714" spans="1:9" ht="12.75">
       <c r="A714" s="1"/>
@@ -8496,7 +8499,7 @@
       <c r="F714" s="1"/>
       <c r="G714" s="1"/>
       <c r="H714" s="2"/>
-      <c r="I714" s="8"/>
+      <c r="I714" s="7"/>
     </row>
     <row r="715" spans="1:9" ht="12.75">
       <c r="A715" s="1"/>
@@ -8507,7 +8510,7 @@
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
       <c r="H715" s="2"/>
-      <c r="I715" s="8"/>
+      <c r="I715" s="7"/>
     </row>
     <row r="716" spans="1:9" ht="12.75">
       <c r="A716" s="1"/>
@@ -8518,7 +8521,7 @@
       <c r="F716" s="1"/>
       <c r="G716" s="1"/>
       <c r="H716" s="2"/>
-      <c r="I716" s="8"/>
+      <c r="I716" s="7"/>
     </row>
     <row r="717" spans="1:9" ht="12.75">
       <c r="A717" s="1"/>
@@ -8529,7 +8532,7 @@
       <c r="F717" s="1"/>
       <c r="G717" s="1"/>
       <c r="H717" s="2"/>
-      <c r="I717" s="8"/>
+      <c r="I717" s="7"/>
     </row>
     <row r="718" spans="1:9" ht="12.75">
       <c r="A718" s="1"/>
@@ -8540,7 +8543,7 @@
       <c r="F718" s="1"/>
       <c r="G718" s="1"/>
       <c r="H718" s="2"/>
-      <c r="I718" s="8"/>
+      <c r="I718" s="7"/>
     </row>
     <row r="719" spans="1:9" ht="12.75">
       <c r="A719" s="1"/>
@@ -8551,7 +8554,7 @@
       <c r="F719" s="1"/>
       <c r="G719" s="1"/>
       <c r="H719" s="2"/>
-      <c r="I719" s="8"/>
+      <c r="I719" s="7"/>
     </row>
     <row r="720" spans="1:9" ht="12.75">
       <c r="A720" s="1"/>
@@ -8562,7 +8565,7 @@
       <c r="F720" s="1"/>
       <c r="G720" s="1"/>
       <c r="H720" s="2"/>
-      <c r="I720" s="8"/>
+      <c r="I720" s="7"/>
     </row>
     <row r="721" spans="1:9" ht="12.75">
       <c r="A721" s="1"/>
@@ -8573,7 +8576,7 @@
       <c r="F721" s="1"/>
       <c r="G721" s="1"/>
       <c r="H721" s="2"/>
-      <c r="I721" s="8"/>
+      <c r="I721" s="7"/>
     </row>
     <row r="722" spans="1:9" ht="12.75">
       <c r="A722" s="1"/>
@@ -8584,7 +8587,7 @@
       <c r="F722" s="1"/>
       <c r="G722" s="1"/>
       <c r="H722" s="2"/>
-      <c r="I722" s="8"/>
+      <c r="I722" s="7"/>
     </row>
     <row r="723" spans="1:9" ht="12.75">
       <c r="A723" s="1"/>
@@ -8595,7 +8598,7 @@
       <c r="F723" s="1"/>
       <c r="G723" s="1"/>
       <c r="H723" s="2"/>
-      <c r="I723" s="8"/>
+      <c r="I723" s="7"/>
     </row>
     <row r="724" spans="1:9" ht="12.75">
       <c r="A724" s="1"/>
@@ -8606,7 +8609,7 @@
       <c r="F724" s="1"/>
       <c r="G724" s="1"/>
       <c r="H724" s="2"/>
-      <c r="I724" s="8"/>
+      <c r="I724" s="7"/>
     </row>
     <row r="725" spans="1:9" ht="12.75">
       <c r="A725" s="1"/>
@@ -8617,7 +8620,7 @@
       <c r="F725" s="1"/>
       <c r="G725" s="1"/>
       <c r="H725" s="2"/>
-      <c r="I725" s="8"/>
+      <c r="I725" s="7"/>
     </row>
     <row r="726" spans="1:9" ht="12.75">
       <c r="A726" s="1"/>
@@ -8628,7 +8631,7 @@
       <c r="F726" s="1"/>
       <c r="G726" s="1"/>
       <c r="H726" s="2"/>
-      <c r="I726" s="8"/>
+      <c r="I726" s="7"/>
     </row>
     <row r="727" spans="1:9" ht="12.75">
       <c r="A727" s="1"/>
@@ -8639,7 +8642,7 @@
       <c r="F727" s="1"/>
       <c r="G727" s="1"/>
       <c r="H727" s="2"/>
-      <c r="I727" s="8"/>
+      <c r="I727" s="7"/>
     </row>
     <row r="728" spans="1:9" ht="12.75">
       <c r="A728" s="1"/>
@@ -8650,7 +8653,7 @@
       <c r="F728" s="1"/>
       <c r="G728" s="1"/>
       <c r="H728" s="2"/>
-      <c r="I728" s="8"/>
+      <c r="I728" s="7"/>
     </row>
     <row r="729" spans="1:9" ht="12.75">
       <c r="A729" s="1"/>
@@ -8661,7 +8664,7 @@
       <c r="F729" s="1"/>
       <c r="G729" s="1"/>
       <c r="H729" s="2"/>
-      <c r="I729" s="8"/>
+      <c r="I729" s="7"/>
     </row>
     <row r="730" spans="1:9" ht="12.75">
       <c r="A730" s="1"/>
@@ -8672,7 +8675,7 @@
       <c r="F730" s="1"/>
       <c r="G730" s="1"/>
       <c r="H730" s="2"/>
-      <c r="I730" s="8"/>
+      <c r="I730" s="7"/>
     </row>
     <row r="731" spans="1:9" ht="12.75">
       <c r="A731" s="1"/>
@@ -8683,7 +8686,7 @@
       <c r="F731" s="1"/>
       <c r="G731" s="1"/>
       <c r="H731" s="2"/>
-      <c r="I731" s="8"/>
+      <c r="I731" s="7"/>
     </row>
     <row r="732" spans="1:9" ht="12.75">
       <c r="A732" s="1"/>
@@ -8694,7 +8697,7 @@
       <c r="F732" s="1"/>
       <c r="G732" s="1"/>
       <c r="H732" s="2"/>
-      <c r="I732" s="8"/>
+      <c r="I732" s="7"/>
     </row>
     <row r="733" spans="1:9" ht="12.75">
       <c r="A733" s="1"/>
@@ -8705,7 +8708,7 @@
       <c r="F733" s="1"/>
       <c r="G733" s="1"/>
       <c r="H733" s="2"/>
-      <c r="I733" s="8"/>
+      <c r="I733" s="7"/>
     </row>
     <row r="734" spans="1:9" ht="12.75">
       <c r="A734" s="1"/>
@@ -8716,7 +8719,7 @@
       <c r="F734" s="1"/>
       <c r="G734" s="1"/>
       <c r="H734" s="2"/>
-      <c r="I734" s="8"/>
+      <c r="I734" s="7"/>
     </row>
     <row r="735" spans="1:9" ht="12.75">
       <c r="A735" s="1"/>
@@ -8727,7 +8730,7 @@
       <c r="F735" s="1"/>
       <c r="G735" s="1"/>
       <c r="H735" s="2"/>
-      <c r="I735" s="8"/>
+      <c r="I735" s="7"/>
     </row>
     <row r="736" spans="1:9" ht="12.75">
       <c r="A736" s="1"/>
@@ -8738,7 +8741,7 @@
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
       <c r="H736" s="2"/>
-      <c r="I736" s="8"/>
+      <c r="I736" s="7"/>
     </row>
     <row r="737" spans="1:9" ht="12.75">
       <c r="A737" s="1"/>
@@ -8749,7 +8752,7 @@
       <c r="F737" s="1"/>
       <c r="G737" s="1"/>
       <c r="H737" s="2"/>
-      <c r="I737" s="8"/>
+      <c r="I737" s="7"/>
     </row>
     <row r="738" spans="1:9" ht="12.75">
       <c r="A738" s="1"/>
@@ -8760,7 +8763,7 @@
       <c r="F738" s="1"/>
       <c r="G738" s="1"/>
       <c r="H738" s="2"/>
-      <c r="I738" s="8"/>
+      <c r="I738" s="7"/>
     </row>
     <row r="739" spans="1:9" ht="12.75">
       <c r="A739" s="1"/>
@@ -8771,7 +8774,7 @@
       <c r="F739" s="1"/>
       <c r="G739" s="1"/>
       <c r="H739" s="2"/>
-      <c r="I739" s="8"/>
+      <c r="I739" s="7"/>
     </row>
     <row r="740" spans="1:9" ht="12.75">
       <c r="A740" s="1"/>
@@ -8782,7 +8785,7 @@
       <c r="F740" s="1"/>
       <c r="G740" s="1"/>
       <c r="H740" s="2"/>
-      <c r="I740" s="8"/>
+      <c r="I740" s="7"/>
     </row>
     <row r="741" spans="1:9" ht="12.75">
       <c r="A741" s="1"/>
@@ -8793,7 +8796,7 @@
       <c r="F741" s="1"/>
       <c r="G741" s="1"/>
       <c r="H741" s="2"/>
-      <c r="I741" s="8"/>
+      <c r="I741" s="7"/>
     </row>
     <row r="742" spans="1:9" ht="12.75">
       <c r="A742" s="1"/>
@@ -8804,7 +8807,7 @@
       <c r="F742" s="1"/>
       <c r="G742" s="1"/>
       <c r="H742" s="2"/>
-      <c r="I742" s="8"/>
+      <c r="I742" s="7"/>
     </row>
     <row r="743" spans="1:9" ht="12.75">
       <c r="A743" s="1"/>
@@ -8815,7 +8818,7 @@
       <c r="F743" s="1"/>
       <c r="G743" s="1"/>
       <c r="H743" s="2"/>
-      <c r="I743" s="8"/>
+      <c r="I743" s="7"/>
     </row>
     <row r="744" spans="1:9" ht="12.75">
       <c r="A744" s="1"/>
@@ -8826,7 +8829,7 @@
       <c r="F744" s="1"/>
       <c r="G744" s="1"/>
       <c r="H744" s="2"/>
-      <c r="I744" s="8"/>
+      <c r="I744" s="7"/>
     </row>
     <row r="745" spans="1:9" ht="12.75">
       <c r="A745" s="1"/>
@@ -8837,7 +8840,7 @@
       <c r="F745" s="1"/>
       <c r="G745" s="1"/>
       <c r="H745" s="2"/>
-      <c r="I745" s="8"/>
+      <c r="I745" s="7"/>
     </row>
     <row r="746" spans="1:9" ht="12.75">
       <c r="A746" s="1"/>
@@ -8848,7 +8851,7 @@
       <c r="F746" s="1"/>
       <c r="G746" s="1"/>
       <c r="H746" s="2"/>
-      <c r="I746" s="8"/>
+      <c r="I746" s="7"/>
     </row>
     <row r="747" spans="1:9" ht="12.75">
       <c r="A747" s="1"/>
@@ -8859,7 +8862,7 @@
       <c r="F747" s="1"/>
       <c r="G747" s="1"/>
       <c r="H747" s="2"/>
-      <c r="I747" s="8"/>
+      <c r="I747" s="7"/>
     </row>
     <row r="748" spans="1:9" ht="12.75">
       <c r="A748" s="1"/>
@@ -8870,7 +8873,7 @@
       <c r="F748" s="1"/>
       <c r="G748" s="1"/>
       <c r="H748" s="2"/>
-      <c r="I748" s="8"/>
+      <c r="I748" s="7"/>
     </row>
     <row r="749" spans="1:9" ht="12.75">
       <c r="A749" s="1"/>
@@ -8881,7 +8884,7 @@
       <c r="F749" s="1"/>
       <c r="G749" s="1"/>
       <c r="H749" s="2"/>
-      <c r="I749" s="8"/>
+      <c r="I749" s="7"/>
     </row>
     <row r="750" spans="1:9" ht="12.75">
       <c r="A750" s="1"/>
@@ -8892,7 +8895,7 @@
       <c r="F750" s="1"/>
       <c r="G750" s="1"/>
       <c r="H750" s="2"/>
-      <c r="I750" s="8"/>
+      <c r="I750" s="7"/>
     </row>
     <row r="751" spans="1:9" ht="12.75">
       <c r="A751" s="1"/>
@@ -8903,7 +8906,7 @@
       <c r="F751" s="1"/>
       <c r="G751" s="1"/>
       <c r="H751" s="2"/>
-      <c r="I751" s="8"/>
+      <c r="I751" s="7"/>
     </row>
     <row r="752" spans="1:9" ht="12.75">
       <c r="A752" s="1"/>
@@ -8914,7 +8917,7 @@
       <c r="F752" s="1"/>
       <c r="G752" s="1"/>
       <c r="H752" s="2"/>
-      <c r="I752" s="8"/>
+      <c r="I752" s="7"/>
     </row>
     <row r="753" spans="1:9" ht="12.75">
       <c r="A753" s="1"/>
@@ -8925,7 +8928,7 @@
       <c r="F753" s="1"/>
       <c r="G753" s="1"/>
       <c r="H753" s="2"/>
-      <c r="I753" s="8"/>
+      <c r="I753" s="7"/>
     </row>
     <row r="754" spans="1:9" ht="12.75">
       <c r="A754" s="1"/>
@@ -8936,7 +8939,7 @@
       <c r="F754" s="1"/>
       <c r="G754" s="1"/>
       <c r="H754" s="2"/>
-      <c r="I754" s="8"/>
+      <c r="I754" s="7"/>
     </row>
     <row r="755" spans="1:9" ht="12.75">
       <c r="A755" s="1"/>
@@ -8947,7 +8950,7 @@
       <c r="F755" s="1"/>
       <c r="G755" s="1"/>
       <c r="H755" s="2"/>
-      <c r="I755" s="8"/>
+      <c r="I755" s="7"/>
     </row>
     <row r="756" spans="1:9" ht="12.75">
       <c r="A756" s="1"/>
@@ -8958,7 +8961,7 @@
       <c r="F756" s="1"/>
       <c r="G756" s="1"/>
       <c r="H756" s="2"/>
-      <c r="I756" s="8"/>
+      <c r="I756" s="7"/>
     </row>
     <row r="757" spans="1:9" ht="12.75">
       <c r="A757" s="1"/>
@@ -8969,7 +8972,7 @@
       <c r="F757" s="1"/>
       <c r="G757" s="1"/>
       <c r="H757" s="2"/>
-      <c r="I757" s="8"/>
+      <c r="I757" s="7"/>
     </row>
     <row r="758" spans="1:9" ht="12.75">
       <c r="A758" s="1"/>
@@ -8980,7 +8983,7 @@
       <c r="F758" s="1"/>
       <c r="G758" s="1"/>
       <c r="H758" s="2"/>
-      <c r="I758" s="8"/>
+      <c r="I758" s="7"/>
     </row>
     <row r="759" spans="1:9" ht="12.75">
       <c r="A759" s="1"/>
@@ -8991,7 +8994,7 @@
       <c r="F759" s="1"/>
       <c r="G759" s="1"/>
       <c r="H759" s="2"/>
-      <c r="I759" s="8"/>
+      <c r="I759" s="7"/>
     </row>
     <row r="760" spans="1:9" ht="12.75">
       <c r="A760" s="1"/>
@@ -9002,7 +9005,7 @@
       <c r="F760" s="1"/>
       <c r="G760" s="1"/>
       <c r="H760" s="2"/>
-      <c r="I760" s="8"/>
+      <c r="I760" s="7"/>
     </row>
     <row r="761" spans="1:9" ht="12.75">
       <c r="A761" s="1"/>
@@ -9013,7 +9016,7 @@
       <c r="F761" s="1"/>
       <c r="G761" s="1"/>
       <c r="H761" s="2"/>
-      <c r="I761" s="8"/>
+      <c r="I761" s="7"/>
     </row>
     <row r="762" spans="1:9" ht="12.75">
       <c r="A762" s="1"/>
@@ -9024,7 +9027,7 @@
       <c r="F762" s="1"/>
       <c r="G762" s="1"/>
       <c r="H762" s="2"/>
-      <c r="I762" s="8"/>
+      <c r="I762" s="7"/>
     </row>
     <row r="763" spans="1:9" ht="12.75">
       <c r="A763" s="1"/>
@@ -9035,7 +9038,7 @@
       <c r="F763" s="1"/>
       <c r="G763" s="1"/>
       <c r="H763" s="2"/>
-      <c r="I763" s="8"/>
+      <c r="I763" s="7"/>
     </row>
     <row r="764" spans="1:9" ht="12.75">
       <c r="A764" s="1"/>
@@ -9046,7 +9049,7 @@
       <c r="F764" s="1"/>
       <c r="G764" s="1"/>
       <c r="H764" s="2"/>
-      <c r="I764" s="8"/>
+      <c r="I764" s="7"/>
     </row>
     <row r="765" spans="1:9" ht="12.75">
       <c r="A765" s="1"/>
@@ -9057,7 +9060,7 @@
       <c r="F765" s="1"/>
       <c r="G765" s="1"/>
       <c r="H765" s="2"/>
-      <c r="I765" s="8"/>
+      <c r="I765" s="7"/>
     </row>
     <row r="766" spans="1:9" ht="12.75">
       <c r="A766" s="1"/>
@@ -9068,7 +9071,7 @@
       <c r="F766" s="1"/>
       <c r="G766" s="1"/>
       <c r="H766" s="2"/>
-      <c r="I766" s="8"/>
+      <c r="I766" s="7"/>
     </row>
     <row r="767" spans="1:9" ht="12.75">
       <c r="A767" s="1"/>
@@ -9079,7 +9082,7 @@
       <c r="F767" s="1"/>
       <c r="G767" s="1"/>
       <c r="H767" s="2"/>
-      <c r="I767" s="8"/>
+      <c r="I767" s="7"/>
     </row>
     <row r="768" spans="1:9" ht="12.75">
       <c r="A768" s="1"/>
@@ -9090,7 +9093,7 @@
       <c r="F768" s="1"/>
       <c r="G768" s="1"/>
       <c r="H768" s="2"/>
-      <c r="I768" s="8"/>
+      <c r="I768" s="7"/>
     </row>
     <row r="769" spans="1:9" ht="12.75">
       <c r="A769" s="1"/>
@@ -9101,7 +9104,7 @@
       <c r="F769" s="1"/>
       <c r="G769" s="1"/>
       <c r="H769" s="2"/>
-      <c r="I769" s="8"/>
+      <c r="I769" s="7"/>
     </row>
     <row r="770" spans="1:9" ht="12.75">
       <c r="A770" s="1"/>
@@ -9112,7 +9115,7 @@
       <c r="F770" s="1"/>
       <c r="G770" s="1"/>
       <c r="H770" s="2"/>
-      <c r="I770" s="8"/>
+      <c r="I770" s="7"/>
     </row>
     <row r="771" spans="1:9" ht="12.75">
       <c r="A771" s="1"/>
@@ -9123,7 +9126,7 @@
       <c r="F771" s="1"/>
       <c r="G771" s="1"/>
       <c r="H771" s="2"/>
-      <c r="I771" s="8"/>
+      <c r="I771" s="7"/>
     </row>
     <row r="772" spans="1:9" ht="12.75">
       <c r="A772" s="1"/>
@@ -9134,7 +9137,7 @@
       <c r="F772" s="1"/>
       <c r="G772" s="1"/>
       <c r="H772" s="2"/>
-      <c r="I772" s="8"/>
+      <c r="I772" s="7"/>
     </row>
     <row r="773" spans="1:9" ht="12.75">
       <c r="A773" s="1"/>
@@ -9145,7 +9148,7 @@
       <c r="F773" s="1"/>
       <c r="G773" s="1"/>
       <c r="H773" s="2"/>
-      <c r="I773" s="8"/>
+      <c r="I773" s="7"/>
     </row>
     <row r="774" spans="1:9" ht="12.75">
       <c r="A774" s="1"/>
@@ -9156,7 +9159,7 @@
       <c r="F774" s="1"/>
       <c r="G774" s="1"/>
       <c r="H774" s="2"/>
-      <c r="I774" s="8"/>
+      <c r="I774" s="7"/>
     </row>
     <row r="775" spans="1:9" ht="12.75">
       <c r="A775" s="1"/>
@@ -9167,7 +9170,7 @@
       <c r="F775" s="1"/>
       <c r="G775" s="1"/>
       <c r="H775" s="2"/>
-      <c r="I775" s="8"/>
+      <c r="I775" s="7"/>
     </row>
     <row r="776" spans="1:9" ht="12.75">
       <c r="A776" s="1"/>
@@ -9178,7 +9181,7 @@
       <c r="F776" s="1"/>
       <c r="G776" s="1"/>
       <c r="H776" s="2"/>
-      <c r="I776" s="8"/>
+      <c r="I776" s="7"/>
     </row>
     <row r="777" spans="1:9" ht="12.75">
       <c r="A777" s="1"/>
@@ -9189,7 +9192,7 @@
       <c r="F777" s="1"/>
       <c r="G777" s="1"/>
       <c r="H777" s="2"/>
-      <c r="I777" s="8"/>
+      <c r="I777" s="7"/>
     </row>
     <row r="778" spans="1:9" ht="12.75">
       <c r="A778" s="1"/>
@@ -9200,7 +9203,7 @@
       <c r="F778" s="1"/>
       <c r="G778" s="1"/>
       <c r="H778" s="2"/>
-      <c r="I778" s="8"/>
+      <c r="I778" s="7"/>
     </row>
     <row r="779" spans="1:9" ht="12.75">
       <c r="A779" s="1"/>
@@ -9211,7 +9214,7 @@
       <c r="F779" s="1"/>
       <c r="G779" s="1"/>
       <c r="H779" s="2"/>
-      <c r="I779" s="8"/>
+      <c r="I779" s="7"/>
     </row>
     <row r="780" spans="1:9" ht="12.75">
       <c r="A780" s="1"/>
@@ -9222,7 +9225,7 @@
       <c r="F780" s="1"/>
       <c r="G780" s="1"/>
       <c r="H780" s="2"/>
-      <c r="I780" s="8"/>
+      <c r="I780" s="7"/>
     </row>
     <row r="781" spans="1:9" ht="12.75">
       <c r="A781" s="1"/>
@@ -9233,7 +9236,7 @@
       <c r="F781" s="1"/>
       <c r="G781" s="1"/>
       <c r="H781" s="2"/>
-      <c r="I781" s="8"/>
+      <c r="I781" s="7"/>
     </row>
     <row r="782" spans="1:9" ht="12.75">
       <c r="A782" s="1"/>
@@ -9244,7 +9247,7 @@
       <c r="F782" s="1"/>
       <c r="G782" s="1"/>
       <c r="H782" s="2"/>
-      <c r="I782" s="8"/>
+      <c r="I782" s="7"/>
     </row>
     <row r="783" spans="1:9" ht="12.75">
       <c r="A783" s="1"/>
@@ -9255,7 +9258,7 @@
       <c r="F783" s="1"/>
       <c r="G783" s="1"/>
       <c r="H783" s="2"/>
-      <c r="I783" s="8"/>
+      <c r="I783" s="7"/>
     </row>
     <row r="784" spans="1:9" ht="12.75">
       <c r="A784" s="1"/>
@@ -9266,7 +9269,7 @@
       <c r="F784" s="1"/>
       <c r="G784" s="1"/>
       <c r="H784" s="2"/>
-      <c r="I784" s="8"/>
+      <c r="I784" s="7"/>
     </row>
     <row r="785" spans="1:9" ht="12.75">
       <c r="A785" s="1"/>
@@ -9277,7 +9280,7 @@
       <c r="F785" s="1"/>
       <c r="G785" s="1"/>
       <c r="H785" s="2"/>
-      <c r="I785" s="8"/>
+      <c r="I785" s="7"/>
     </row>
     <row r="786" spans="1:9" ht="12.75">
       <c r="A786" s="1"/>
@@ -9288,7 +9291,7 @@
       <c r="F786" s="1"/>
       <c r="G786" s="1"/>
       <c r="H786" s="2"/>
-      <c r="I786" s="8"/>
+      <c r="I786" s="7"/>
     </row>
     <row r="787" spans="1:9" ht="12.75">
       <c r="A787" s="1"/>
@@ -9299,7 +9302,7 @@
       <c r="F787" s="1"/>
       <c r="G787" s="1"/>
       <c r="H787" s="2"/>
-      <c r="I787" s="8"/>
+      <c r="I787" s="7"/>
     </row>
     <row r="788" spans="1:9" ht="12.75">
       <c r="A788" s="1"/>
@@ -9310,7 +9313,7 @@
       <c r="F788" s="1"/>
       <c r="G788" s="1"/>
       <c r="H788" s="2"/>
-      <c r="I788" s="8"/>
+      <c r="I788" s="7"/>
     </row>
     <row r="789" spans="1:9" ht="12.75">
       <c r="A789" s="1"/>
@@ -9321,7 +9324,7 @@
       <c r="F789" s="1"/>
       <c r="G789" s="1"/>
       <c r="H789" s="2"/>
-      <c r="I789" s="8"/>
+      <c r="I789" s="7"/>
     </row>
     <row r="790" spans="1:9" ht="12.75">
       <c r="A790" s="1"/>
@@ -9332,7 +9335,7 @@
       <c r="F790" s="1"/>
       <c r="G790" s="1"/>
       <c r="H790" s="2"/>
-      <c r="I790" s="8"/>
+      <c r="I790" s="7"/>
     </row>
     <row r="791" spans="1:9" ht="12.75">
       <c r="A791" s="1"/>
@@ -9343,7 +9346,7 @@
       <c r="F791" s="1"/>
       <c r="G791" s="1"/>
       <c r="H791" s="2"/>
-      <c r="I791" s="8"/>
+      <c r="I791" s="7"/>
     </row>
     <row r="792" spans="1:9" ht="12.75">
       <c r="A792" s="1"/>
@@ -9354,7 +9357,7 @@
       <c r="F792" s="1"/>
       <c r="G792" s="1"/>
       <c r="H792" s="2"/>
-      <c r="I792" s="8"/>
+      <c r="I792" s="7"/>
     </row>
     <row r="793" spans="1:9" ht="12.75">
       <c r="A793" s="1"/>
@@ -9365,7 +9368,7 @@
       <c r="F793" s="1"/>
       <c r="G793" s="1"/>
       <c r="H793" s="2"/>
-      <c r="I793" s="8"/>
+      <c r="I793" s="7"/>
     </row>
     <row r="794" spans="1:9" ht="12.75">
       <c r="A794" s="1"/>
@@ -9376,7 +9379,7 @@
       <c r="F794" s="1"/>
       <c r="G794" s="1"/>
       <c r="H794" s="2"/>
-      <c r="I794" s="8"/>
+      <c r="I794" s="7"/>
     </row>
     <row r="795" spans="1:9" ht="12.75">
       <c r="A795" s="1"/>
@@ -9387,7 +9390,7 @@
       <c r="F795" s="1"/>
       <c r="G795" s="1"/>
       <c r="H795" s="2"/>
-      <c r="I795" s="8"/>
+      <c r="I795" s="7"/>
     </row>
     <row r="796" spans="1:9" ht="12.75">
       <c r="A796" s="1"/>
@@ -9398,7 +9401,7 @@
       <c r="F796" s="1"/>
       <c r="G796" s="1"/>
       <c r="H796" s="2"/>
-      <c r="I796" s="8"/>
+      <c r="I796" s="7"/>
     </row>
     <row r="797" spans="1:9" ht="12.75">
       <c r="A797" s="1"/>
@@ -9409,7 +9412,7 @@
       <c r="F797" s="1"/>
       <c r="G797" s="1"/>
       <c r="H797" s="2"/>
-      <c r="I797" s="8"/>
+      <c r="I797" s="7"/>
     </row>
     <row r="798" spans="1:9" ht="12.75">
       <c r="A798" s="1"/>
@@ -9420,7 +9423,7 @@
       <c r="F798" s="1"/>
       <c r="G798" s="1"/>
       <c r="H798" s="2"/>
-      <c r="I798" s="8"/>
+      <c r="I798" s="7"/>
     </row>
     <row r="799" spans="1:9" ht="12.75">
       <c r="A799" s="1"/>
@@ -9431,7 +9434,7 @@
       <c r="F799" s="1"/>
       <c r="G799" s="1"/>
       <c r="H799" s="2"/>
-      <c r="I799" s="8"/>
+      <c r="I799" s="7"/>
     </row>
     <row r="800" spans="1:9" ht="12.75">
       <c r="A800" s="1"/>
@@ -9442,7 +9445,7 @@
       <c r="F800" s="1"/>
       <c r="G800" s="1"/>
       <c r="H800" s="2"/>
-      <c r="I800" s="8"/>
+      <c r="I800" s="7"/>
     </row>
     <row r="801" spans="1:9" ht="12.75">
       <c r="A801" s="1"/>
@@ -9453,7 +9456,7 @@
       <c r="F801" s="1"/>
       <c r="G801" s="1"/>
       <c r="H801" s="2"/>
-      <c r="I801" s="8"/>
+      <c r="I801" s="7"/>
     </row>
     <row r="802" spans="1:9" ht="12.75">
       <c r="A802" s="1"/>
@@ -9464,7 +9467,7 @@
       <c r="F802" s="1"/>
       <c r="G802" s="1"/>
       <c r="H802" s="2"/>
-      <c r="I802" s="8"/>
+      <c r="I802" s="7"/>
     </row>
     <row r="803" spans="1:9" ht="12.75">
       <c r="A803" s="1"/>
@@ -9475,7 +9478,7 @@
       <c r="F803" s="1"/>
       <c r="G803" s="1"/>
       <c r="H803" s="2"/>
-      <c r="I803" s="8"/>
+      <c r="I803" s="7"/>
     </row>
     <row r="804" spans="1:9" ht="12.75">
       <c r="A804" s="1"/>
@@ -9486,7 +9489,7 @@
       <c r="F804" s="1"/>
       <c r="G804" s="1"/>
       <c r="H804" s="2"/>
-      <c r="I804" s="8"/>
+      <c r="I804" s="7"/>
     </row>
     <row r="805" spans="1:9" ht="12.75">
       <c r="A805" s="1"/>
@@ -9497,7 +9500,7 @@
       <c r="F805" s="1"/>
       <c r="G805" s="1"/>
       <c r="H805" s="2"/>
-      <c r="I805" s="8"/>
+      <c r="I805" s="7"/>
     </row>
     <row r="806" spans="1:9" ht="12.75">
       <c r="A806" s="1"/>
@@ -9508,7 +9511,7 @@
       <c r="F806" s="1"/>
       <c r="G806" s="1"/>
       <c r="H806" s="2"/>
-      <c r="I806" s="8"/>
+      <c r="I806" s="7"/>
     </row>
     <row r="807" spans="1:9" ht="12.75">
       <c r="A807" s="1"/>
@@ -9519,7 +9522,7 @@
       <c r="F807" s="1"/>
       <c r="G807" s="1"/>
       <c r="H807" s="2"/>
-      <c r="I807" s="8"/>
+      <c r="I807" s="7"/>
     </row>
     <row r="808" spans="1:9" ht="12.75">
       <c r="A808" s="1"/>
@@ -9530,7 +9533,7 @@
       <c r="F808" s="1"/>
       <c r="G808" s="1"/>
       <c r="H808" s="2"/>
-      <c r="I808" s="8"/>
+      <c r="I808" s="7"/>
     </row>
     <row r="809" spans="1:9" ht="12.75">
       <c r="A809" s="1"/>
@@ -9541,7 +9544,7 @@
       <c r="F809" s="1"/>
       <c r="G809" s="1"/>
       <c r="H809" s="2"/>
-      <c r="I809" s="8"/>
+      <c r="I809" s="7"/>
     </row>
     <row r="810" spans="1:9" ht="12.75">
       <c r="A810" s="1"/>
@@ -9552,7 +9555,7 @@
       <c r="F810" s="1"/>
       <c r="G810" s="1"/>
       <c r="H810" s="2"/>
-      <c r="I810" s="8"/>
+      <c r="I810" s="7"/>
     </row>
     <row r="811" spans="1:9" ht="12.75">
       <c r="A811" s="1"/>
@@ -9563,7 +9566,7 @@
       <c r="F811" s="1"/>
       <c r="G811" s="1"/>
       <c r="H811" s="2"/>
-      <c r="I811" s="8"/>
+      <c r="I811" s="7"/>
     </row>
     <row r="812" spans="1:9" ht="12.75">
       <c r="A812" s="1"/>
@@ -9574,7 +9577,7 @@
       <c r="F812" s="1"/>
       <c r="G812" s="1"/>
       <c r="H812" s="2"/>
-      <c r="I812" s="8"/>
+      <c r="I812" s="7"/>
     </row>
     <row r="813" spans="1:9" ht="12.75">
       <c r="A813" s="1"/>
@@ -9585,7 +9588,7 @@
       <c r="F813" s="1"/>
       <c r="G813" s="1"/>
       <c r="H813" s="2"/>
-      <c r="I813" s="8"/>
+      <c r="I813" s="7"/>
     </row>
     <row r="814" spans="1:9" ht="12.75">
       <c r="A814" s="1"/>
@@ -9596,7 +9599,7 @@
       <c r="F814" s="1"/>
       <c r="G814" s="1"/>
       <c r="H814" s="2"/>
-      <c r="I814" s="8"/>
+      <c r="I814" s="7"/>
     </row>
     <row r="815" spans="1:9" ht="12.75">
       <c r="A815" s="1"/>
@@ -9607,7 +9610,7 @@
       <c r="F815" s="1"/>
       <c r="G815" s="1"/>
       <c r="H815" s="2"/>
-      <c r="I815" s="8"/>
+      <c r="I815" s="7"/>
     </row>
     <row r="816" spans="1:9" ht="12.75">
       <c r="A816" s="1"/>
@@ -9618,7 +9621,7 @@
       <c r="F816" s="1"/>
       <c r="G816" s="1"/>
       <c r="H816" s="2"/>
-      <c r="I816" s="8"/>
+      <c r="I816" s="7"/>
     </row>
     <row r="817" spans="1:9" ht="12.75">
       <c r="A817" s="1"/>
@@ -9629,7 +9632,7 @@
       <c r="F817" s="1"/>
       <c r="G817" s="1"/>
       <c r="H817" s="2"/>
-      <c r="I817" s="8"/>
+      <c r="I817" s="7"/>
     </row>
     <row r="818" spans="1:9" ht="12.75">
       <c r="A818" s="1"/>
@@ -9640,7 +9643,7 @@
       <c r="F818" s="1"/>
       <c r="G818" s="1"/>
       <c r="H818" s="2"/>
-      <c r="I818" s="8"/>
+      <c r="I818" s="7"/>
     </row>
     <row r="819" spans="1:9" ht="12.75">
       <c r="A819" s="1"/>
@@ -9651,7 +9654,7 @@
       <c r="F819" s="1"/>
       <c r="G819" s="1"/>
       <c r="H819" s="2"/>
-      <c r="I819" s="8"/>
+      <c r="I819" s="7"/>
     </row>
     <row r="820" spans="1:9" ht="12.75">
       <c r="A820" s="1"/>
@@ -9662,7 +9665,7 @@
       <c r="F820" s="1"/>
       <c r="G820" s="1"/>
       <c r="H820" s="2"/>
-      <c r="I820" s="8"/>
+      <c r="I820" s="7"/>
     </row>
     <row r="821" spans="1:9" ht="12.75">
       <c r="A821" s="1"/>
@@ -9673,7 +9676,7 @@
       <c r="F821" s="1"/>
       <c r="G821" s="1"/>
       <c r="H821" s="2"/>
-      <c r="I821" s="8"/>
+      <c r="I821" s="7"/>
     </row>
     <row r="822" spans="1:9" ht="12.75">
       <c r="A822" s="1"/>
@@ -9684,7 +9687,7 @@
       <c r="F822" s="1"/>
       <c r="G822" s="1"/>
       <c r="H822" s="2"/>
-      <c r="I822" s="8"/>
+      <c r="I822" s="7"/>
     </row>
     <row r="823" spans="1:9" ht="12.75">
       <c r="A823" s="1"/>
@@ -9695,7 +9698,7 @@
       <c r="F823" s="1"/>
       <c r="G823" s="1"/>
       <c r="H823" s="2"/>
-      <c r="I823" s="8"/>
+      <c r="I823" s="7"/>
     </row>
     <row r="824" spans="1:9" ht="12.75">
       <c r="A824" s="1"/>
@@ -9706,7 +9709,7 @@
       <c r="F824" s="1"/>
       <c r="G824" s="1"/>
       <c r="H824" s="2"/>
-      <c r="I824" s="8"/>
+      <c r="I824" s="7"/>
     </row>
     <row r="825" spans="1:9" ht="12.75">
       <c r="A825" s="1"/>
@@ -9717,7 +9720,7 @@
       <c r="F825" s="1"/>
       <c r="G825" s="1"/>
       <c r="H825" s="2"/>
-      <c r="I825" s="8"/>
+      <c r="I825" s="7"/>
     </row>
     <row r="826" spans="1:9" ht="12.75">
       <c r="A826" s="1"/>
@@ -9728,7 +9731,7 @@
       <c r="F826" s="1"/>
       <c r="G826" s="1"/>
       <c r="H826" s="2"/>
-      <c r="I826" s="8"/>
+      <c r="I826" s="7"/>
     </row>
     <row r="827" spans="1:9" ht="12.75">
       <c r="A827" s="1"/>
@@ -9739,7 +9742,7 @@
       <c r="F827" s="1"/>
       <c r="G827" s="1"/>
       <c r="H827" s="2"/>
-      <c r="I827" s="8"/>
+      <c r="I827" s="7"/>
     </row>
     <row r="828" spans="1:9" ht="12.75">
       <c r="A828" s="1"/>
@@ -9750,7 +9753,7 @@
       <c r="F828" s="1"/>
       <c r="G828" s="1"/>
       <c r="H828" s="2"/>
-      <c r="I828" s="8"/>
+      <c r="I828" s="7"/>
     </row>
     <row r="829" spans="1:9" ht="12.75">
       <c r="A829" s="1"/>
@@ -9761,7 +9764,7 @@
       <c r="F829" s="1"/>
       <c r="G829" s="1"/>
       <c r="H829" s="2"/>
-      <c r="I829" s="8"/>
+      <c r="I829" s="7"/>
     </row>
     <row r="830" spans="1:9" ht="12.75">
       <c r="A830" s="1"/>
@@ -9772,7 +9775,7 @@
       <c r="F830" s="1"/>
       <c r="G830" s="1"/>
       <c r="H830" s="2"/>
-      <c r="I830" s="8"/>
+      <c r="I830" s="7"/>
     </row>
     <row r="831" spans="1:9" ht="12.75">
       <c r="A831" s="1"/>
@@ -9783,7 +9786,7 @@
       <c r="F831" s="1"/>
       <c r="G831" s="1"/>
       <c r="H831" s="2"/>
-      <c r="I831" s="8"/>
+      <c r="I831" s="7"/>
     </row>
     <row r="832" spans="1:9" ht="12.75">
       <c r="A832" s="1"/>
@@ -9794,7 +9797,7 @@
       <c r="F832" s="1"/>
       <c r="G832" s="1"/>
       <c r="H832" s="2"/>
-      <c r="I832" s="8"/>
+      <c r="I832" s="7"/>
     </row>
     <row r="833" spans="1:9" ht="12.75">
       <c r="A833" s="1"/>
@@ -9805,7 +9808,7 @@
       <c r="F833" s="1"/>
       <c r="G833" s="1"/>
       <c r="H833" s="2"/>
-      <c r="I833" s="8"/>
+      <c r="I833" s="7"/>
     </row>
     <row r="834" spans="1:9" ht="12.75">
       <c r="A834" s="1"/>
@@ -9816,7 +9819,7 @@
       <c r="F834" s="1"/>
       <c r="G834" s="1"/>
       <c r="H834" s="2"/>
-      <c r="I834" s="8"/>
+      <c r="I834" s="7"/>
     </row>
     <row r="835" spans="1:9" ht="12.75">
       <c r="A835" s="1"/>
@@ -9827,7 +9830,7 @@
       <c r="F835" s="1"/>
       <c r="G835" s="1"/>
       <c r="H835" s="2"/>
-      <c r="I835" s="8"/>
+      <c r="I835" s="7"/>
     </row>
     <row r="836" spans="1:9" ht="12.75">
       <c r="A836" s="1"/>
@@ -9838,7 +9841,7 @@
       <c r="F836" s="1"/>
       <c r="G836" s="1"/>
       <c r="H836" s="2"/>
-      <c r="I836" s="8"/>
+      <c r="I836" s="7"/>
     </row>
     <row r="837" spans="1:9" ht="12.75">
       <c r="A837" s="1"/>
@@ -9849,7 +9852,7 @@
       <c r="F837" s="1"/>
       <c r="G837" s="1"/>
       <c r="H837" s="2"/>
-      <c r="I837" s="8"/>
+      <c r="I837" s="7"/>
     </row>
     <row r="838" spans="1:9" ht="12.75">
       <c r="A838" s="1"/>
@@ -9860,7 +9863,7 @@
       <c r="F838" s="1"/>
       <c r="G838" s="1"/>
       <c r="H838" s="2"/>
-      <c r="I838" s="8"/>
+      <c r="I838" s="7"/>
     </row>
     <row r="839" spans="1:9" ht="12.75">
       <c r="A839" s="1"/>
@@ -9871,7 +9874,7 @@
       <c r="F839" s="1"/>
       <c r="G839" s="1"/>
       <c r="H839" s="2"/>
-      <c r="I839" s="8"/>
+      <c r="I839" s="7"/>
     </row>
     <row r="840" spans="1:9" ht="12.75">
       <c r="A840" s="1"/>
@@ -9882,7 +9885,7 @@
       <c r="F840" s="1"/>
       <c r="G840" s="1"/>
       <c r="H840" s="2"/>
-      <c r="I840" s="8"/>
+      <c r="I840" s="7"/>
     </row>
     <row r="841" spans="1:9" ht="12.75">
       <c r="A841" s="1"/>
@@ -9893,7 +9896,7 @@
       <c r="F841" s="1"/>
       <c r="G841" s="1"/>
       <c r="H841" s="2"/>
-      <c r="I841" s="8"/>
+      <c r="I841" s="7"/>
     </row>
     <row r="842" spans="1:9" ht="12.75">
       <c r="A842" s="1"/>
@@ -9904,7 +9907,7 @@
       <c r="F842" s="1"/>
       <c r="G842" s="1"/>
       <c r="H842" s="2"/>
-      <c r="I842" s="8"/>
+      <c r="I842" s="7"/>
     </row>
     <row r="843" spans="1:9" ht="12.75">
       <c r="A843" s="1"/>
@@ -9915,7 +9918,7 @@
       <c r="F843" s="1"/>
       <c r="G843" s="1"/>
       <c r="H843" s="2"/>
-      <c r="I843" s="8"/>
+      <c r="I843" s="7"/>
     </row>
     <row r="844" spans="1:9" ht="12.75">
       <c r="A844" s="1"/>
@@ -9926,7 +9929,7 @@
       <c r="F844" s="1"/>
       <c r="G844" s="1"/>
       <c r="H844" s="2"/>
-      <c r="I844" s="8"/>
+      <c r="I844" s="7"/>
     </row>
     <row r="845" spans="1:9" ht="12.75">
       <c r="A845" s="1"/>
@@ -9937,7 +9940,7 @@
       <c r="F845" s="1"/>
       <c r="G845" s="1"/>
       <c r="H845" s="2"/>
-      <c r="I845" s="8"/>
+      <c r="I845" s="7"/>
     </row>
     <row r="846" spans="1:9" ht="12.75">
       <c r="A846" s="1"/>
@@ -9948,7 +9951,7 @@
       <c r="F846" s="1"/>
       <c r="G846" s="1"/>
       <c r="H846" s="2"/>
-      <c r="I846" s="8"/>
+      <c r="I846" s="7"/>
     </row>
     <row r="847" spans="1:9" ht="12.75">
       <c r="A847" s="1"/>
@@ -9959,7 +9962,7 @@
       <c r="F847" s="1"/>
       <c r="G847" s="1"/>
       <c r="H847" s="2"/>
-      <c r="I847" s="8"/>
+      <c r="I847" s="7"/>
     </row>
     <row r="848" spans="1:9" ht="12.75">
       <c r="A848" s="1"/>
@@ -9970,7 +9973,7 @@
       <c r="F848" s="1"/>
       <c r="G848" s="1"/>
       <c r="H848" s="2"/>
-      <c r="I848" s="8"/>
+      <c r="I848" s="7"/>
     </row>
     <row r="849" spans="1:9" ht="12.75">
       <c r="A849" s="1"/>
@@ -9981,7 +9984,7 @@
       <c r="F849" s="1"/>
       <c r="G849" s="1"/>
       <c r="H849" s="2"/>
-      <c r="I849" s="8"/>
+      <c r="I849" s="7"/>
     </row>
     <row r="850" spans="1:9" ht="12.75">
       <c r="A850" s="1"/>
@@ -9992,7 +9995,7 @@
       <c r="F850" s="1"/>
       <c r="G850" s="1"/>
       <c r="H850" s="2"/>
-      <c r="I850" s="8"/>
+      <c r="I850" s="7"/>
     </row>
     <row r="851" spans="1:9" ht="12.75">
       <c r="A851" s="1"/>
@@ -10003,7 +10006,7 @@
       <c r="F851" s="1"/>
       <c r="G851" s="1"/>
       <c r="H851" s="2"/>
-      <c r="I851" s="8"/>
+      <c r="I851" s="7"/>
     </row>
     <row r="852" spans="1:9" ht="12.75">
       <c r="A852" s="1"/>
@@ -10014,7 +10017,7 @@
       <c r="F852" s="1"/>
       <c r="G852" s="1"/>
       <c r="H852" s="2"/>
-      <c r="I852" s="8"/>
+      <c r="I852" s="7"/>
     </row>
     <row r="853" spans="1:9" ht="12.75">
       <c r="A853" s="1"/>
@@ -10025,7 +10028,7 @@
       <c r="F853" s="1"/>
       <c r="G853" s="1"/>
       <c r="H853" s="2"/>
-      <c r="I853" s="8"/>
+      <c r="I853" s="7"/>
     </row>
     <row r="854" spans="1:9" ht="12.75">
       <c r="A854" s="1"/>
@@ -10036,7 +10039,7 @@
       <c r="F854" s="1"/>
       <c r="G854" s="1"/>
       <c r="H854" s="2"/>
-      <c r="I854" s="8"/>
+      <c r="I854" s="7"/>
     </row>
     <row r="855" spans="1:9" ht="12.75">
       <c r="A855" s="1"/>
@@ -10047,7 +10050,7 @@
       <c r="F855" s="1"/>
       <c r="G855" s="1"/>
       <c r="H855" s="2"/>
-      <c r="I855" s="8"/>
+      <c r="I855" s="7"/>
     </row>
     <row r="856" spans="1:9" ht="12.75">
       <c r="A856" s="1"/>
@@ -10058,7 +10061,7 @@
       <c r="F856" s="1"/>
       <c r="G856" s="1"/>
       <c r="H856" s="2"/>
-      <c r="I856" s="8"/>
+      <c r="I856" s="7"/>
     </row>
     <row r="857" spans="1:9" ht="12.75">
       <c r="A857" s="1"/>
@@ -10069,7 +10072,7 @@
       <c r="F857" s="1"/>
       <c r="G857" s="1"/>
       <c r="H857" s="2"/>
-      <c r="I857" s="8"/>
+      <c r="I857" s="7"/>
     </row>
     <row r="858" spans="1:9" ht="12.75">
       <c r="A858" s="1"/>
@@ -10080,7 +10083,7 @@
       <c r="F858" s="1"/>
       <c r="G858" s="1"/>
       <c r="H858" s="2"/>
-      <c r="I858" s="8"/>
+      <c r="I858" s="7"/>
     </row>
     <row r="859" spans="1:9" ht="12.75">
       <c r="A859" s="1"/>
@@ -10091,7 +10094,7 @@
       <c r="F859" s="1"/>
       <c r="G859" s="1"/>
       <c r="H859" s="2"/>
-      <c r="I859" s="8"/>
+      <c r="I859" s="7"/>
     </row>
     <row r="860" spans="1:9" ht="12.75">
       <c r="A860" s="1"/>
@@ -10102,7 +10105,7 @@
       <c r="F860" s="1"/>
       <c r="G860" s="1"/>
       <c r="H860" s="2"/>
-      <c r="I860" s="8"/>
+      <c r="I860" s="7"/>
     </row>
     <row r="861" spans="1:9" ht="12.75">
       <c r="A861" s="1"/>
@@ -10113,7 +10116,7 @@
       <c r="F861" s="1"/>
       <c r="G861" s="1"/>
       <c r="H861" s="2"/>
-      <c r="I861" s="8"/>
+      <c r="I861" s="7"/>
     </row>
     <row r="862" spans="1:9" ht="12.75">
       <c r="A862" s="1"/>
@@ -10124,7 +10127,7 @@
       <c r="F862" s="1"/>
       <c r="G862" s="1"/>
       <c r="H862" s="2"/>
-      <c r="I862" s="8"/>
+      <c r="I862" s="7"/>
     </row>
     <row r="863" spans="1:9" ht="12.75">
       <c r="A863" s="1"/>
@@ -10135,7 +10138,7 @@
       <c r="F863" s="1"/>
       <c r="G863" s="1"/>
       <c r="H863" s="2"/>
-      <c r="I863" s="8"/>
+      <c r="I863" s="7"/>
     </row>
     <row r="864" spans="1:9" ht="12.75">
       <c r="A864" s="1"/>
@@ -10146,7 +10149,7 @@
       <c r="F864" s="1"/>
       <c r="G864" s="1"/>
       <c r="H864" s="2"/>
-      <c r="I864" s="8"/>
+      <c r="I864" s="7"/>
     </row>
     <row r="865" spans="1:9" ht="12.75">
       <c r="A865" s="1"/>
@@ -10157,7 +10160,7 @@
       <c r="F865" s="1"/>
       <c r="G865" s="1"/>
       <c r="H865" s="2"/>
-      <c r="I865" s="8"/>
+      <c r="I865" s="7"/>
     </row>
     <row r="866" spans="1:9" ht="12.75">
       <c r="A866" s="1"/>
@@ -10168,7 +10171,7 @@
       <c r="F866" s="1"/>
       <c r="G866" s="1"/>
       <c r="H866" s="2"/>
-      <c r="I866" s="8"/>
+      <c r="I866" s="7"/>
     </row>
     <row r="867" spans="1:9" ht="12.75">
       <c r="A867" s="1"/>
@@ -10179,7 +10182,7 @@
       <c r="F867" s="1"/>
       <c r="G867" s="1"/>
       <c r="H867" s="2"/>
-      <c r="I867" s="8"/>
+      <c r="I867" s="7"/>
     </row>
     <row r="868" spans="1:9" ht="12.75">
       <c r="A868" s="1"/>
@@ -10190,7 +10193,7 @@
       <c r="F868" s="1"/>
       <c r="G868" s="1"/>
       <c r="H868" s="2"/>
-      <c r="I868" s="8"/>
+      <c r="I868" s="7"/>
     </row>
     <row r="869" spans="1:9" ht="12.75">
       <c r="A869" s="1"/>
@@ -10201,7 +10204,7 @@
       <c r="F869" s="1"/>
       <c r="G869" s="1"/>
       <c r="H869" s="2"/>
-      <c r="I869" s="8"/>
+      <c r="I869" s="7"/>
     </row>
     <row r="870" spans="1:9" ht="12.75">
       <c r="A870" s="1"/>
@@ -10212,7 +10215,7 @@
       <c r="F870" s="1"/>
       <c r="G870" s="1"/>
       <c r="H870" s="2"/>
-      <c r="I870" s="8"/>
+      <c r="I870" s="7"/>
     </row>
     <row r="871" spans="1:9" ht="12.75">
       <c r="A871" s="1"/>
@@ -10223,7 +10226,7 @@
       <c r="F871" s="1"/>
       <c r="G871" s="1"/>
       <c r="H871" s="2"/>
-      <c r="I871" s="8"/>
+      <c r="I871" s="7"/>
     </row>
     <row r="872" spans="1:9" ht="12.75">
       <c r="A872" s="1"/>
@@ -10234,7 +10237,7 @@
       <c r="F872" s="1"/>
       <c r="G872" s="1"/>
       <c r="H872" s="2"/>
-      <c r="I872" s="8"/>
+      <c r="I872" s="7"/>
     </row>
     <row r="873" spans="1:9" ht="12.75">
       <c r="A873" s="1"/>
@@ -10245,7 +10248,7 @@
       <c r="F873" s="1"/>
       <c r="G873" s="1"/>
       <c r="H873" s="2"/>
-      <c r="I873" s="8"/>
+      <c r="I873" s="7"/>
     </row>
     <row r="874" spans="1:9" ht="12.75">
       <c r="A874" s="1"/>
@@ -10256,7 +10259,7 @@
       <c r="F874" s="1"/>
       <c r="G874" s="1"/>
       <c r="H874" s="2"/>
-      <c r="I874" s="8"/>
+      <c r="I874" s="7"/>
     </row>
     <row r="875" spans="1:9" ht="12.75">
       <c r="A875" s="1"/>
@@ -10267,7 +10270,7 @@
       <c r="F875" s="1"/>
       <c r="G875" s="1"/>
       <c r="H875" s="2"/>
-      <c r="I875" s="8"/>
+      <c r="I875" s="7"/>
     </row>
     <row r="876" spans="1:9" ht="12.75">
       <c r="A876" s="1"/>
@@ -10278,7 +10281,7 @@
       <c r="F876" s="1"/>
       <c r="G876" s="1"/>
       <c r="H876" s="2"/>
-      <c r="I876" s="8"/>
+      <c r="I876" s="7"/>
     </row>
     <row r="877" spans="1:9" ht="12.75">
       <c r="A877" s="1"/>
@@ -10289,7 +10292,7 @@
       <c r="F877" s="1"/>
       <c r="G877" s="1"/>
       <c r="H877" s="2"/>
-      <c r="I877" s="8"/>
+      <c r="I877" s="7"/>
     </row>
     <row r="878" spans="1:9" ht="12.75">
       <c r="A878" s="1"/>
@@ -10300,7 +10303,7 @@
       <c r="F878" s="1"/>
       <c r="G878" s="1"/>
       <c r="H878" s="2"/>
-      <c r="I878" s="8"/>
+      <c r="I878" s="7"/>
     </row>
     <row r="879" spans="1:9" ht="12.75">
       <c r="A879" s="1"/>
@@ -10311,7 +10314,7 @@
       <c r="F879" s="1"/>
       <c r="G879" s="1"/>
       <c r="H879" s="2"/>
-      <c r="I879" s="8"/>
+      <c r="I879" s="7"/>
     </row>
     <row r="880" spans="1:9" ht="12.75">
       <c r="A880" s="1"/>
@@ -10322,7 +10325,7 @@
       <c r="F880" s="1"/>
       <c r="G880" s="1"/>
       <c r="H880" s="2"/>
-      <c r="I880" s="8"/>
+      <c r="I880" s="7"/>
     </row>
     <row r="881" spans="1:9" ht="12.75">
       <c r="A881" s="1"/>
@@ -10333,7 +10336,7 @@
       <c r="F881" s="1"/>
       <c r="G881" s="1"/>
       <c r="H881" s="2"/>
-      <c r="I881" s="8"/>
+      <c r="I881" s="7"/>
     </row>
     <row r="882" spans="1:9" ht="12.75">
       <c r="A882" s="1"/>
@@ -10344,7 +10347,7 @@
       <c r="F882" s="1"/>
       <c r="G882" s="1"/>
       <c r="H882" s="2"/>
-      <c r="I882" s="8"/>
+      <c r="I882" s="7"/>
     </row>
     <row r="883" spans="1:9" ht="12.75">
       <c r="A883" s="1"/>
@@ -10355,7 +10358,7 @@
       <c r="F883" s="1"/>
       <c r="G883" s="1"/>
       <c r="H883" s="2"/>
-      <c r="I883" s="8"/>
+      <c r="I883" s="7"/>
     </row>
     <row r="884" spans="1:9" ht="12.75">
       <c r="A884" s="1"/>
@@ -10366,7 +10369,7 @@
       <c r="F884" s="1"/>
       <c r="G884" s="1"/>
       <c r="H884" s="2"/>
-      <c r="I884" s="8"/>
+      <c r="I884" s="7"/>
     </row>
     <row r="885" spans="1:9" ht="12.75">
       <c r="A885" s="1"/>
@@ -10377,7 +10380,7 @@
       <c r="F885" s="1"/>
       <c r="G885" s="1"/>
       <c r="H885" s="2"/>
-      <c r="I885" s="8"/>
+      <c r="I885" s="7"/>
     </row>
     <row r="886" spans="1:9" ht="12.75">
       <c r="A886" s="1"/>
@@ -10388,7 +10391,7 @@
       <c r="F886" s="1"/>
       <c r="G886" s="1"/>
       <c r="H886" s="2"/>
-      <c r="I886" s="8"/>
+      <c r="I886" s="7"/>
     </row>
     <row r="887" spans="1:9" ht="12.75">
       <c r="A887" s="1"/>
@@ -10399,7 +10402,7 @@
       <c r="F887" s="1"/>
       <c r="G887" s="1"/>
       <c r="H887" s="2"/>
-      <c r="I887" s="8"/>
+      <c r="I887" s="7"/>
     </row>
     <row r="888" spans="1:9" ht="12.75">
       <c r="A888" s="1"/>
@@ -10410,7 +10413,7 @@
       <c r="F888" s="1"/>
       <c r="G888" s="1"/>
       <c r="H888" s="2"/>
-      <c r="I888" s="8"/>
+      <c r="I888" s="7"/>
     </row>
     <row r="889" spans="1:9" ht="12.75">
       <c r="A889" s="1"/>
@@ -10421,7 +10424,7 @@
       <c r="F889" s="1"/>
       <c r="G889" s="1"/>
       <c r="H889" s="2"/>
-      <c r="I889" s="8"/>
+      <c r="I889" s="7"/>
     </row>
     <row r="890" spans="1:9" ht="12.75">
       <c r="A890" s="1"/>
@@ -10432,7 +10435,7 @@
       <c r="F890" s="1"/>
       <c r="G890" s="1"/>
       <c r="H890" s="2"/>
-      <c r="I890" s="8"/>
+      <c r="I890" s="7"/>
     </row>
     <row r="891" spans="1:9" ht="12.75">
       <c r="A891" s="1"/>
@@ -10443,7 +10446,7 @@
       <c r="F891" s="1"/>
       <c r="G891" s="1"/>
       <c r="H891" s="2"/>
-      <c r="I891" s="8"/>
+      <c r="I891" s="7"/>
     </row>
     <row r="892" spans="1:9" ht="12.75">
       <c r="A892" s="1"/>
@@ -10454,7 +10457,7 @@
       <c r="F892" s="1"/>
       <c r="G892" s="1"/>
       <c r="H892" s="2"/>
-      <c r="I892" s="8"/>
+      <c r="I892" s="7"/>
     </row>
     <row r="893" spans="1:9" ht="12.75">
       <c r="A893" s="1"/>
@@ -10465,7 +10468,7 @@
       <c r="F893" s="1"/>
       <c r="G893" s="1"/>
       <c r="H893" s="2"/>
-      <c r="I893" s="8"/>
+      <c r="I893" s="7"/>
     </row>
     <row r="894" spans="1:9" ht="12.75">
       <c r="A894" s="1"/>
@@ -10476,7 +10479,7 @@
       <c r="F894" s="1"/>
       <c r="G894" s="1"/>
       <c r="H894" s="2"/>
-      <c r="I894" s="8"/>
+      <c r="I894" s="7"/>
     </row>
     <row r="895" spans="1:9" ht="12.75">
       <c r="A895" s="1"/>
@@ -10487,7 +10490,7 @@
       <c r="F895" s="1"/>
       <c r="G895" s="1"/>
       <c r="H895" s="2"/>
-      <c r="I895" s="8"/>
+      <c r="I895" s="7"/>
     </row>
     <row r="896" spans="1:9" ht="12.75">
       <c r="A896" s="1"/>
@@ -10498,7 +10501,7 @@
       <c r="F896" s="1"/>
       <c r="G896" s="1"/>
       <c r="H896" s="2"/>
-      <c r="I896" s="8"/>
+      <c r="I896" s="7"/>
     </row>
     <row r="897" spans="1:9" ht="12.75">
       <c r="A897" s="1"/>
@@ -10509,7 +10512,7 @@
       <c r="F897" s="1"/>
       <c r="G897" s="1"/>
       <c r="H897" s="2"/>
-      <c r="I897" s="8"/>
+      <c r="I897" s="7"/>
     </row>
     <row r="898" spans="1:9" ht="12.75">
       <c r="A898" s="1"/>
@@ -10520,7 +10523,7 @@
       <c r="F898" s="1"/>
       <c r="G898" s="1"/>
       <c r="H898" s="2"/>
-      <c r="I898" s="8"/>
+      <c r="I898" s="7"/>
     </row>
     <row r="899" spans="1:9" ht="12.75">
       <c r="A899" s="1"/>
@@ -10531,7 +10534,7 @@
       <c r="F899" s="1"/>
       <c r="G899" s="1"/>
       <c r="H899" s="2"/>
-      <c r="I899" s="8"/>
+      <c r="I899" s="7"/>
     </row>
     <row r="900" spans="1:9" ht="12.75">
       <c r="A900" s="1"/>
@@ -10542,7 +10545,7 @@
       <c r="F900" s="1"/>
       <c r="G900" s="1"/>
       <c r="H900" s="2"/>
-      <c r="I900" s="8"/>
+      <c r="I900" s="7"/>
     </row>
     <row r="901" spans="1:9" ht="12.75">
       <c r="A901" s="1"/>
@@ -10553,7 +10556,7 @@
       <c r="F901" s="1"/>
       <c r="G901" s="1"/>
       <c r="H901" s="2"/>
-      <c r="I901" s="8"/>
+      <c r="I901" s="7"/>
     </row>
     <row r="902" spans="1:9" ht="12.75">
       <c r="A902" s="1"/>
@@ -10564,7 +10567,7 @@
       <c r="F902" s="1"/>
       <c r="G902" s="1"/>
       <c r="H902" s="2"/>
-      <c r="I902" s="8"/>
+      <c r="I902" s="7"/>
     </row>
     <row r="903" spans="1:9" ht="12.75">
       <c r="A903" s="1"/>
@@ -10575,7 +10578,7 @@
       <c r="F903" s="1"/>
       <c r="G903" s="1"/>
       <c r="H903" s="2"/>
-      <c r="I903" s="8"/>
+      <c r="I903" s="7"/>
     </row>
     <row r="904" spans="1:9" ht="12.75">
       <c r="A904" s="1"/>
@@ -10586,7 +10589,7 @@
       <c r="F904" s="1"/>
       <c r="G904" s="1"/>
       <c r="H904" s="2"/>
-      <c r="I904" s="8"/>
+      <c r="I904" s="7"/>
     </row>
     <row r="905" spans="1:9" ht="12.75">
       <c r="A905" s="1"/>
@@ -10597,7 +10600,7 @@
       <c r="F905" s="1"/>
       <c r="G905" s="1"/>
       <c r="H905" s="2"/>
-      <c r="I905" s="8"/>
+      <c r="I905" s="7"/>
     </row>
     <row r="906" spans="1:9" ht="12.75">
       <c r="A906" s="1"/>
@@ -10608,7 +10611,7 @@
       <c r="F906" s="1"/>
       <c r="G906" s="1"/>
       <c r="H906" s="2"/>
-      <c r="I906" s="8"/>
+      <c r="I906" s="7"/>
     </row>
     <row r="907" spans="1:9" ht="12.75">
       <c r="A907" s="1"/>
@@ -10619,7 +10622,7 @@
       <c r="F907" s="1"/>
       <c r="G907" s="1"/>
       <c r="H907" s="2"/>
-      <c r="I907" s="8"/>
+      <c r="I907" s="7"/>
     </row>
     <row r="908" spans="1:9" ht="12.75">
       <c r="A908" s="1"/>
@@ -10630,7 +10633,7 @@
       <c r="F908" s="1"/>
       <c r="G908" s="1"/>
       <c r="H908" s="2"/>
-      <c r="I908" s="8"/>
+      <c r="I908" s="7"/>
     </row>
     <row r="909" spans="1:9" ht="12.75">
       <c r="A909" s="1"/>
@@ -10641,7 +10644,7 @@
       <c r="F909" s="1"/>
       <c r="G909" s="1"/>
       <c r="H909" s="2"/>
-      <c r="I909" s="8"/>
+      <c r="I909" s="7"/>
     </row>
     <row r="910" spans="1:9" ht="12.75">
       <c r="A910" s="1"/>
@@ -10652,7 +10655,7 @@
       <c r="F910" s="1"/>
       <c r="G910" s="1"/>
       <c r="H910" s="2"/>
-      <c r="I910" s="8"/>
+      <c r="I910" s="7"/>
     </row>
     <row r="911" spans="1:9" ht="12.75">
       <c r="A911" s="1"/>
@@ -10663,7 +10666,7 @@
       <c r="F911" s="1"/>
       <c r="G911" s="1"/>
       <c r="H911" s="2"/>
-      <c r="I911" s="8"/>
+      <c r="I911" s="7"/>
     </row>
     <row r="912" spans="1:9" ht="12.75">
       <c r="A912" s="1"/>
@@ -10674,7 +10677,7 @@
       <c r="F912" s="1"/>
       <c r="G912" s="1"/>
       <c r="H912" s="2"/>
-      <c r="I912" s="8"/>
+      <c r="I912" s="7"/>
     </row>
     <row r="913" spans="1:9" ht="12.75">
       <c r="A913" s="1"/>
@@ -10685,7 +10688,7 @@
       <c r="F913" s="1"/>
       <c r="G913" s="1"/>
       <c r="H913" s="2"/>
-      <c r="I913" s="8"/>
+      <c r="I913" s="7"/>
     </row>
     <row r="914" spans="1:9" ht="12.75">
       <c r="A914" s="1"/>
@@ -10696,7 +10699,7 @@
       <c r="F914" s="1"/>
       <c r="G914" s="1"/>
       <c r="H914" s="2"/>
-      <c r="I914" s="8"/>
+      <c r="I914" s="7"/>
     </row>
     <row r="915" spans="1:9" ht="12.75">
       <c r="A915" s="1"/>
@@ -10707,7 +10710,7 @@
       <c r="F915" s="1"/>
       <c r="G915" s="1"/>
       <c r="H915" s="2"/>
-      <c r="I915" s="8"/>
+      <c r="I915" s="7"/>
     </row>
     <row r="916" spans="1:9" ht="12.75">
       <c r="A916" s="1"/>
@@ -10718,7 +10721,7 @@
       <c r="F916" s="1"/>
       <c r="G916" s="1"/>
       <c r="H916" s="2"/>
-      <c r="I916" s="8"/>
+      <c r="I916" s="7"/>
     </row>
     <row r="917" spans="1:9" ht="12.75">
       <c r="A917" s="1"/>
@@ -10729,7 +10732,7 @@
       <c r="F917" s="1"/>
       <c r="G917" s="1"/>
       <c r="H917" s="2"/>
-      <c r="I917" s="8"/>
+      <c r="I917" s="7"/>
     </row>
     <row r="918" spans="1:9" ht="12.75">
       <c r="A918" s="1"/>
@@ -10740,7 +10743,7 @@
       <c r="F918" s="1"/>
       <c r="G918" s="1"/>
       <c r="H918" s="2"/>
-      <c r="I918" s="8"/>
+      <c r="I918" s="7"/>
     </row>
     <row r="919" spans="1:9" ht="12.75">
       <c r="A919" s="1"/>
@@ -10751,7 +10754,7 @@
       <c r="F919" s="1"/>
       <c r="G919" s="1"/>
       <c r="H919" s="2"/>
-      <c r="I919" s="8"/>
+      <c r="I919" s="7"/>
     </row>
     <row r="920" spans="1:9" ht="12.75">
       <c r="A920" s="1"/>
@@ -10762,7 +10765,7 @@
       <c r="F920" s="1"/>
       <c r="G920" s="1"/>
       <c r="H920" s="2"/>
-      <c r="I920" s="8"/>
+      <c r="I920" s="7"/>
     </row>
     <row r="921" spans="1:9" ht="12.75">
       <c r="A921" s="1"/>
@@ -10773,7 +10776,7 @@
       <c r="F921" s="1"/>
       <c r="G921" s="1"/>
       <c r="H921" s="2"/>
-      <c r="I921" s="8"/>
+      <c r="I921" s="7"/>
     </row>
     <row r="922" spans="1:9" ht="12.75">
       <c r="A922" s="1"/>
@@ -10784,7 +10787,7 @@
       <c r="F922" s="1"/>
       <c r="G922" s="1"/>
       <c r="H922" s="2"/>
-      <c r="I922" s="8"/>
+      <c r="I922" s="7"/>
     </row>
     <row r="923" spans="1:9" ht="12.75">
       <c r="A923" s="1"/>
@@ -10795,7 +10798,7 @@
       <c r="F923" s="1"/>
       <c r="G923" s="1"/>
       <c r="H923" s="2"/>
-      <c r="I923" s="8"/>
+      <c r="I923" s="7"/>
     </row>
     <row r="924" spans="1:9" ht="12.75">
       <c r="A924" s="1"/>
@@ -10806,7 +10809,7 @@
       <c r="F924" s="1"/>
       <c r="G924" s="1"/>
       <c r="H924" s="2"/>
-      <c r="I924" s="8"/>
+      <c r="I924" s="7"/>
     </row>
     <row r="925" spans="1:9" ht="12.75">
       <c r="A925" s="1"/>
@@ -10817,7 +10820,7 @@
       <c r="F925" s="1"/>
       <c r="G925" s="1"/>
       <c r="H925" s="2"/>
-      <c r="I925" s="8"/>
+      <c r="I925" s="7"/>
     </row>
     <row r="926" spans="1:9" ht="12.75">
       <c r="A926" s="1"/>
@@ -10828,7 +10831,7 @@
       <c r="F926" s="1"/>
       <c r="G926" s="1"/>
       <c r="H926" s="2"/>
-      <c r="I926" s="8"/>
+      <c r="I926" s="7"/>
     </row>
     <row r="927" spans="1:9" ht="12.75">
       <c r="A927" s="1"/>
@@ -10839,7 +10842,7 @@
       <c r="F927" s="1"/>
       <c r="G927" s="1"/>
       <c r="H927" s="2"/>
-      <c r="I927" s="8"/>
+      <c r="I927" s="7"/>
     </row>
     <row r="928" spans="1:9" ht="12.75">
       <c r="A928" s="1"/>
@@ -10850,7 +10853,7 @@
       <c r="F928" s="1"/>
       <c r="G928" s="1"/>
       <c r="H928" s="2"/>
-      <c r="I928" s="8"/>
+      <c r="I928" s="7"/>
     </row>
     <row r="929" spans="1:9" ht="12.75">
       <c r="A929" s="1"/>
@@ -10861,7 +10864,7 @@
       <c r="F929" s="1"/>
       <c r="G929" s="1"/>
       <c r="H929" s="2"/>
-      <c r="I929" s="8"/>
+      <c r="I929" s="7"/>
     </row>
     <row r="930" spans="1:9" ht="12.75">
       <c r="A930" s="1"/>
@@ -10872,7 +10875,7 @@
       <c r="F930" s="1"/>
       <c r="G930" s="1"/>
       <c r="H930" s="2"/>
-      <c r="I930" s="8"/>
+      <c r="I930" s="7"/>
     </row>
     <row r="931" spans="1:9" ht="12.75">
       <c r="A931" s="1"/>
@@ -10883,7 +10886,7 @@
       <c r="F931" s="1"/>
       <c r="G931" s="1"/>
       <c r="H931" s="2"/>
-      <c r="I931" s="8"/>
+      <c r="I931" s="7"/>
     </row>
     <row r="932" spans="1:9" ht="12.75">
       <c r="A932" s="1"/>
@@ -10894,7 +10897,7 @@
       <c r="F932" s="1"/>
       <c r="G932" s="1"/>
       <c r="H932" s="2"/>
-      <c r="I932" s="8"/>
+      <c r="I932" s="7"/>
     </row>
     <row r="933" spans="1:9" ht="12.75">
       <c r="A933" s="1"/>
@@ -10905,7 +10908,7 @@
       <c r="F933" s="1"/>
       <c r="G933" s="1"/>
       <c r="H933" s="2"/>
-      <c r="I933" s="8"/>
+      <c r="I933" s="7"/>
     </row>
     <row r="934" spans="1:9" ht="12.75">
       <c r="A934" s="1"/>
@@ -10916,7 +10919,7 @@
       <c r="F934" s="1"/>
       <c r="G934" s="1"/>
       <c r="H934" s="2"/>
-      <c r="I934" s="8"/>
+      <c r="I934" s="7"/>
     </row>
     <row r="935" spans="1:9" ht="12.75">
       <c r="A935" s="1"/>
@@ -10927,7 +10930,7 @@
       <c r="F935" s="1"/>
       <c r="G935" s="1"/>
       <c r="H935" s="2"/>
-      <c r="I935" s="8"/>
+      <c r="I935" s="7"/>
     </row>
     <row r="936" spans="1:9" ht="12.75">
       <c r="A936" s="1"/>
@@ -10938,7 +10941,7 @@
       <c r="F936" s="1"/>
       <c r="G936" s="1"/>
       <c r="H936" s="2"/>
-      <c r="I936" s="8"/>
+      <c r="I936" s="7"/>
     </row>
     <row r="937" spans="1:9" ht="12.75">
       <c r="A937" s="1"/>
@@ -10949,7 +10952,7 @@
       <c r="F937" s="1"/>
       <c r="G937" s="1"/>
       <c r="H937" s="2"/>
-      <c r="I937" s="8"/>
+      <c r="I937" s="7"/>
     </row>
     <row r="938" spans="1:9" ht="12.75">
       <c r="A938" s="1"/>
@@ -10960,7 +10963,7 @@
       <c r="F938" s="1"/>
       <c r="G938" s="1"/>
       <c r="H938" s="2"/>
-      <c r="I938" s="8"/>
+      <c r="I938" s="7"/>
     </row>
     <row r="939" spans="1:9" ht="12.75">
       <c r="A939" s="1"/>
@@ -10971,7 +10974,7 @@
       <c r="F939" s="1"/>
       <c r="G939" s="1"/>
       <c r="H939" s="2"/>
-      <c r="I939" s="8"/>
+      <c r="I939" s="7"/>
     </row>
     <row r="940" spans="1:9" ht="12.75">
       <c r="A940" s="1"/>
@@ -10982,7 +10985,7 @@
       <c r="F940" s="1"/>
       <c r="G940" s="1"/>
       <c r="H940" s="2"/>
-      <c r="I940" s="8"/>
+      <c r="I940" s="7"/>
     </row>
     <row r="941" spans="1:9" ht="12.75">
       <c r="A941" s="1"/>
@@ -10993,7 +10996,7 @@
       <c r="F941" s="1"/>
       <c r="G941" s="1"/>
       <c r="H941" s="2"/>
-      <c r="I941" s="8"/>
+      <c r="I941" s="7"/>
     </row>
     <row r="942" spans="1:9" ht="12.75">
       <c r="A942" s="1"/>
@@ -11004,7 +11007,7 @@
       <c r="F942" s="1"/>
       <c r="G942" s="1"/>
       <c r="H942" s="2"/>
-      <c r="I942" s="8"/>
+      <c r="I942" s="7"/>
     </row>
     <row r="943" spans="1:9" ht="12.75">
       <c r="A943" s="1"/>
@@ -11015,7 +11018,7 @@
       <c r="F943" s="1"/>
       <c r="G943" s="1"/>
       <c r="H943" s="2"/>
-      <c r="I943" s="8"/>
+      <c r="I943" s="7"/>
     </row>
     <row r="944" spans="1:9" ht="12.75">
       <c r="A944" s="1"/>
@@ -11026,7 +11029,7 @@
       <c r="F944" s="1"/>
       <c r="G944" s="1"/>
       <c r="H944" s="2"/>
-      <c r="I944" s="8"/>
+      <c r="I944" s="7"/>
     </row>
     <row r="945" spans="1:9" ht="12.75">
       <c r="A945" s="1"/>
@@ -11037,7 +11040,7 @@
       <c r="F945" s="1"/>
       <c r="G945" s="1"/>
       <c r="H945" s="2"/>
-      <c r="I945" s="8"/>
+      <c r="I945" s="7"/>
     </row>
     <row r="946" spans="1:9" ht="12.75">
       <c r="A946" s="1"/>
@@ -11048,7 +11051,7 @@
       <c r="F946" s="1"/>
       <c r="G946" s="1"/>
       <c r="H946" s="2"/>
-      <c r="I946" s="8"/>
+      <c r="I946" s="7"/>
     </row>
     <row r="947" spans="1:9" ht="12.75">
       <c r="A947" s="1"/>
@@ -11059,7 +11062,7 @@
       <c r="F947" s="1"/>
       <c r="G947" s="1"/>
       <c r="H947" s="2"/>
-      <c r="I947" s="8"/>
+      <c r="I947" s="7"/>
     </row>
     <row r="948" spans="1:9" ht="12.75">
       <c r="A948" s="1"/>
@@ -11070,7 +11073,7 @@
       <c r="F948" s="1"/>
       <c r="G948" s="1"/>
       <c r="H948" s="2"/>
-      <c r="I948" s="8"/>
+      <c r="I948" s="7"/>
     </row>
     <row r="949" spans="1:9" ht="12.75">
       <c r="A949" s="1"/>
@@ -11081,7 +11084,7 @@
       <c r="F949" s="1"/>
       <c r="G949" s="1"/>
       <c r="H949" s="2"/>
-      <c r="I949" s="8"/>
+      <c r="I949" s="7"/>
     </row>
     <row r="950" spans="1:9" ht="12.75">
       <c r="A950" s="1"/>
@@ -11092,7 +11095,7 @@
       <c r="F950" s="1"/>
       <c r="G950" s="1"/>
       <c r="H950" s="2"/>
-      <c r="I950" s="8"/>
+      <c r="I950" s="7"/>
     </row>
     <row r="951" spans="1:9" ht="12.75">
       <c r="A951" s="1"/>
@@ -11103,7 +11106,7 @@
       <c r="F951" s="1"/>
       <c r="G951" s="1"/>
       <c r="H951" s="2"/>
-      <c r="I951" s="8"/>
+      <c r="I951" s="7"/>
     </row>
     <row r="952" spans="1:9" ht="12.75">
       <c r="A952" s="1"/>
@@ -11114,7 +11117,7 @@
       <c r="F952" s="1"/>
       <c r="G952" s="1"/>
       <c r="H952" s="2"/>
-      <c r="I952" s="8"/>
+      <c r="I952" s="7"/>
     </row>
     <row r="953" spans="1:9" ht="12.75">
       <c r="A953" s="1"/>
@@ -11125,7 +11128,7 @@
       <c r="F953" s="1"/>
       <c r="G953" s="1"/>
       <c r="H953" s="2"/>
-      <c r="I953" s="8"/>
+      <c r="I953" s="7"/>
     </row>
     <row r="954" spans="1:9" ht="12.75">
       <c r="A954" s="1"/>
@@ -11136,7 +11139,7 @@
       <c r="F954" s="1"/>
       <c r="G954" s="1"/>
       <c r="H954" s="2"/>
-      <c r="I954" s="8"/>
+      <c r="I954" s="7"/>
     </row>
     <row r="955" spans="1:9" ht="12.75">
       <c r="A955" s="1"/>
@@ -11147,7 +11150,7 @@
       <c r="F955" s="1"/>
       <c r="G955" s="1"/>
       <c r="H955" s="2"/>
-      <c r="I955" s="8"/>
+      <c r="I955" s="7"/>
     </row>
     <row r="956" spans="1:9" ht="12.75">
       <c r="A956" s="1"/>
@@ -11158,7 +11161,7 @@
       <c r="F956" s="1"/>
       <c r="G956" s="1"/>
       <c r="H956" s="2"/>
-      <c r="I956" s="8"/>
+      <c r="I956" s="7"/>
     </row>
     <row r="957" spans="1:9" ht="12.75">
       <c r="A957" s="1"/>
@@ -11169,7 +11172,7 @@
       <c r="F957" s="1"/>
       <c r="G957" s="1"/>
       <c r="H957" s="2"/>
-      <c r="I957" s="8"/>
+      <c r="I957" s="7"/>
     </row>
     <row r="958" spans="1:9" ht="12.75">
       <c r="A958" s="1"/>
@@ -11180,7 +11183,7 @@
       <c r="F958" s="1"/>
       <c r="G958" s="1"/>
       <c r="H958" s="2"/>
-      <c r="I958" s="8"/>
+      <c r="I958" s="7"/>
     </row>
     <row r="959" spans="1:9" ht="12.75">
       <c r="A959" s="1"/>
@@ -11191,7 +11194,7 @@
       <c r="F959" s="1"/>
       <c r="G959" s="1"/>
       <c r="H959" s="2"/>
-      <c r="I959" s="8"/>
+      <c r="I959" s="7"/>
     </row>
     <row r="960" spans="1:9" ht="12.75">
       <c r="A960" s="1"/>
@@ -11202,7 +11205,7 @@
       <c r="F960" s="1"/>
       <c r="G960" s="1"/>
       <c r="H960" s="2"/>
-      <c r="I960" s="8"/>
+      <c r="I960" s="7"/>
     </row>
     <row r="961" spans="1:9" ht="12.75">
       <c r="A961" s="1"/>
@@ -11213,7 +11216,7 @@
       <c r="F961" s="1"/>
       <c r="G961" s="1"/>
       <c r="H961" s="2"/>
-      <c r="I961" s="8"/>
+      <c r="I961" s="7"/>
     </row>
     <row r="962" spans="1:9" ht="12.75">
       <c r="A962" s="1"/>
@@ -11224,7 +11227,7 @@
       <c r="F962" s="1"/>
       <c r="G962" s="1"/>
       <c r="H962" s="2"/>
-      <c r="I962" s="8"/>
+      <c r="I962" s="7"/>
     </row>
     <row r="963" spans="1:9" ht="12.75">
       <c r="A963" s="1"/>
@@ -11235,7 +11238,7 @@
       <c r="F963" s="1"/>
       <c r="G963" s="1"/>
       <c r="H963" s="2"/>
-      <c r="I963" s="8"/>
+      <c r="I963" s="7"/>
     </row>
     <row r="964" spans="1:9" ht="12.75">
       <c r="A964" s="1"/>
@@ -11246,7 +11249,7 @@
       <c r="F964" s="1"/>
       <c r="G964" s="1"/>
       <c r="H964" s="2"/>
-      <c r="I964" s="8"/>
+      <c r="I964" s="7"/>
     </row>
     <row r="965" spans="1:9" ht="12.75">
       <c r="A965" s="1"/>
@@ -11257,7 +11260,7 @@
       <c r="F965" s="1"/>
       <c r="G965" s="1"/>
       <c r="H965" s="2"/>
-      <c r="I965" s="8"/>
+      <c r="I965" s="7"/>
     </row>
     <row r="966" spans="1:9" ht="12.75">
       <c r="A966" s="1"/>
@@ -11268,7 +11271,7 @@
       <c r="F966" s="1"/>
       <c r="G966" s="1"/>
       <c r="H966" s="2"/>
-      <c r="I966" s="8"/>
+      <c r="I966" s="7"/>
     </row>
     <row r="967" spans="1:9" ht="12.75">
       <c r="A967" s="1"/>
@@ -11279,7 +11282,7 @@
       <c r="F967" s="1"/>
       <c r="G967" s="1"/>
       <c r="H967" s="2"/>
-      <c r="I967" s="8"/>
+      <c r="I967" s="7"/>
     </row>
     <row r="968" spans="1:9" ht="12.75">
       <c r="A968" s="1"/>
@@ -11290,7 +11293,7 @@
       <c r="F968" s="1"/>
       <c r="G968" s="1"/>
       <c r="H968" s="2"/>
-      <c r="I968" s="8"/>
+      <c r="I968" s="7"/>
     </row>
     <row r="969" spans="1:9" ht="12.75">
       <c r="A969" s="1"/>
@@ -11301,7 +11304,7 @@
       <c r="F969" s="1"/>
       <c r="G969" s="1"/>
       <c r="H969" s="2"/>
-      <c r="I969" s="8"/>
+      <c r="I969" s="7"/>
     </row>
     <row r="970" spans="1:9" ht="12.75">
       <c r="A970" s="1"/>
@@ -11312,7 +11315,7 @@
       <c r="F970" s="1"/>
       <c r="G970" s="1"/>
       <c r="H970" s="2"/>
-      <c r="I970" s="8"/>
+      <c r="I970" s="7"/>
     </row>
     <row r="971" spans="1:9" ht="12.75">
       <c r="A971" s="1"/>
@@ -11323,7 +11326,7 @@
       <c r="F971" s="1"/>
       <c r="G971" s="1"/>
       <c r="H971" s="2"/>
-      <c r="I971" s="8"/>
+      <c r="I971" s="7"/>
     </row>
     <row r="972" spans="1:9" ht="12.75">
       <c r="A972" s="1"/>
@@ -11334,7 +11337,7 @@
       <c r="F972" s="1"/>
       <c r="G972" s="1"/>
       <c r="H972" s="2"/>
-      <c r="I972" s="8"/>
+      <c r="I972" s="7"/>
     </row>
     <row r="973" spans="1:9" ht="12.75">
       <c r="A973" s="1"/>
@@ -11345,7 +11348,7 @@
       <c r="F973" s="1"/>
       <c r="G973" s="1"/>
       <c r="H973" s="2"/>
-      <c r="I973" s="8"/>
+      <c r="I973" s="7"/>
     </row>
     <row r="974" spans="1:9" ht="12.75">
       <c r="A974" s="1"/>
@@ -11356,7 +11359,7 @@
       <c r="F974" s="1"/>
       <c r="G974" s="1"/>
       <c r="H974" s="2"/>
-      <c r="I974" s="8"/>
+      <c r="I974" s="7"/>
     </row>
     <row r="975" spans="1:9" ht="12.75">
       <c r="A975" s="1"/>
@@ -11367,7 +11370,7 @@
       <c r="F975" s="1"/>
       <c r="G975" s="1"/>
       <c r="H975" s="2"/>
-      <c r="I975" s="8"/>
+      <c r="I975" s="7"/>
     </row>
     <row r="976" spans="1:9" ht="12.75">
       <c r="A976" s="1"/>
@@ -11378,7 +11381,7 @@
       <c r="F976" s="1"/>
       <c r="G976" s="1"/>
       <c r="H976" s="2"/>
-      <c r="I976" s="8"/>
+      <c r="I976" s="7"/>
     </row>
     <row r="977" spans="1:9" ht="12.75">
       <c r="A977" s="1"/>
@@ -11389,7 +11392,7 @@
       <c r="F977" s="1"/>
       <c r="G977" s="1"/>
       <c r="H977" s="2"/>
-      <c r="I977" s="8"/>
+      <c r="I977" s="7"/>
     </row>
     <row r="978" spans="1:9" ht="12.75">
       <c r="A978" s="1"/>
@@ -11400,7 +11403,7 @@
       <c r="F978" s="1"/>
       <c r="G978" s="1"/>
       <c r="H978" s="2"/>
-      <c r="I978" s="8"/>
+      <c r="I978" s="7"/>
     </row>
     <row r="979" spans="1:9" ht="12.75">
       <c r="A979" s="1"/>
@@ -11411,7 +11414,7 @@
       <c r="F979" s="1"/>
       <c r="G979" s="1"/>
       <c r="H979" s="2"/>
-      <c r="I979" s="8"/>
+      <c r="I979" s="7"/>
     </row>
     <row r="980" spans="1:9" ht="12.75">
       <c r="A980" s="1"/>
@@ -11422,7 +11425,7 @@
       <c r="F980" s="1"/>
       <c r="G980" s="1"/>
       <c r="H980" s="2"/>
-      <c r="I980" s="8"/>
+      <c r="I980" s="7"/>
     </row>
     <row r="981" spans="1:9" ht="12.75">
       <c r="A981" s="1"/>
@@ -11433,7 +11436,7 @@
       <c r="F981" s="1"/>
       <c r="G981" s="1"/>
       <c r="H981" s="2"/>
-      <c r="I981" s="8"/>
+      <c r="I981" s="7"/>
     </row>
     <row r="982" spans="1:9" ht="12.75">
       <c r="A982" s="1"/>
@@ -11444,7 +11447,7 @@
       <c r="F982" s="1"/>
       <c r="G982" s="1"/>
       <c r="H982" s="2"/>
-      <c r="I982" s="8"/>
+      <c r="I982" s="7"/>
     </row>
     <row r="983" spans="1:9" ht="12.75">
       <c r="A983" s="1"/>
@@ -11455,7 +11458,7 @@
       <c r="F983" s="1"/>
       <c r="G983" s="1"/>
       <c r="H983" s="2"/>
-      <c r="I983" s="8"/>
+      <c r="I983" s="7"/>
     </row>
     <row r="984" spans="1:9" ht="12.75">
       <c r="A984" s="1"/>
@@ -11466,7 +11469,7 @@
       <c r="F984" s="1"/>
       <c r="G984" s="1"/>
       <c r="H984" s="2"/>
-      <c r="I984" s="8"/>
+      <c r="I984" s="7"/>
     </row>
     <row r="985" spans="1:9" ht="12.75">
       <c r="A985" s="1"/>
@@ -11477,7 +11480,7 @@
       <c r="F985" s="1"/>
       <c r="G985" s="1"/>
       <c r="H985" s="2"/>
-      <c r="I985" s="8"/>
+      <c r="I985" s="7"/>
     </row>
     <row r="986" spans="1:9" ht="12.75">
       <c r="A986" s="1"/>
@@ -11488,7 +11491,7 @@
       <c r="F986" s="1"/>
       <c r="G986" s="1"/>
       <c r="H986" s="2"/>
-      <c r="I986" s="8"/>
+      <c r="I986" s="7"/>
     </row>
     <row r="987" spans="1:9" ht="12.75">
       <c r="A987" s="1"/>
@@ -11499,7 +11502,7 @@
       <c r="F987" s="1"/>
       <c r="G987" s="1"/>
       <c r="H987" s="2"/>
-      <c r="I987" s="8"/>
+      <c r="I987" s="7"/>
     </row>
     <row r="988" spans="1:9" ht="12.75">
       <c r="A988" s="1"/>
@@ -11510,7 +11513,7 @@
       <c r="F988" s="1"/>
       <c r="G988" s="1"/>
       <c r="H988" s="2"/>
-      <c r="I988" s="8"/>
+      <c r="I988" s="7"/>
     </row>
     <row r="989" spans="1:9" ht="12.75">
       <c r="A989" s="1"/>
@@ -11521,7 +11524,7 @@
       <c r="F989" s="1"/>
       <c r="G989" s="1"/>
       <c r="H989" s="2"/>
-      <c r="I989" s="8"/>
+      <c r="I989" s="7"/>
     </row>
     <row r="990" spans="1:9" ht="12.75">
       <c r="A990" s="1"/>
@@ -11532,7 +11535,7 @@
       <c r="F990" s="1"/>
       <c r="G990" s="1"/>
       <c r="H990" s="2"/>
-      <c r="I990" s="8"/>
+      <c r="I990" s="7"/>
     </row>
     <row r="991" spans="1:9" ht="12.75">
       <c r="A991" s="1"/>
@@ -11543,7 +11546,7 @@
       <c r="F991" s="1"/>
       <c r="G991" s="1"/>
       <c r="H991" s="2"/>
-      <c r="I991" s="8"/>
+      <c r="I991" s="7"/>
     </row>
     <row r="992" spans="1:9" ht="12.75">
       <c r="A992" s="1"/>
@@ -11554,7 +11557,7 @@
       <c r="F992" s="1"/>
       <c r="G992" s="1"/>
       <c r="H992" s="2"/>
-      <c r="I992" s="8"/>
+      <c r="I992" s="7"/>
     </row>
     <row r="993" spans="1:9" ht="12.75">
       <c r="A993" s="1"/>
@@ -11565,7 +11568,7 @@
       <c r="F993" s="1"/>
       <c r="G993" s="1"/>
       <c r="H993" s="2"/>
-      <c r="I993" s="8"/>
+      <c r="I993" s="7"/>
     </row>
     <row r="994" spans="1:9" ht="12.75">
       <c r="A994" s="1"/>
@@ -11576,7 +11579,7 @@
       <c r="F994" s="1"/>
       <c r="G994" s="1"/>
       <c r="H994" s="2"/>
-      <c r="I994" s="8"/>
+      <c r="I994" s="7"/>
     </row>
     <row r="995" spans="1:9" ht="12.75">
       <c r="A995" s="1"/>
@@ -11587,7 +11590,7 @@
       <c r="F995" s="1"/>
       <c r="G995" s="1"/>
       <c r="H995" s="2"/>
-      <c r="I995" s="8"/>
+      <c r="I995" s="7"/>
     </row>
     <row r="996" spans="1:9" ht="12.75">
       <c r="A996" s="1"/>
@@ -11598,7 +11601,7 @@
       <c r="F996" s="1"/>
       <c r="G996" s="1"/>
       <c r="H996" s="2"/>
-      <c r="I996" s="8"/>
+      <c r="I996" s="7"/>
     </row>
     <row r="997" spans="1:9" ht="12.75">
       <c r="A997" s="1"/>
@@ -11609,7 +11612,7 @@
       <c r="F997" s="1"/>
       <c r="G997" s="1"/>
       <c r="H997" s="2"/>
-      <c r="I997" s="8"/>
+      <c r="I997" s="7"/>
     </row>
     <row r="998" spans="1:9" ht="12.75">
       <c r="A998" s="1"/>
@@ -11620,7 +11623,7 @@
       <c r="F998" s="1"/>
       <c r="G998" s="1"/>
       <c r="H998" s="2"/>
-      <c r="I998" s="8"/>
+      <c r="I998" s="7"/>
     </row>
     <row r="999" spans="1:9" ht="12.75">
       <c r="A999" s="1"/>
@@ -11631,7 +11634,7 @@
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
       <c r="H999" s="2"/>
-      <c r="I999" s="8"/>
+      <c r="I999" s="7"/>
     </row>
     <row r="1000" spans="1:9" ht="12.75">
       <c r="A1000" s="1"/>
@@ -11642,7 +11645,7 @@
       <c r="F1000" s="1"/>
       <c r="G1000" s="1"/>
       <c r="H1000" s="2"/>
-      <c r="I1000" s="8"/>
+      <c r="I1000" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
